--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" state="visible" r:id="rId2"/>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,18 +213,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -243,7 +239,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="thebandik" id="{049AB94E-486D-E846-9DA9-9FC00BDA3D2D}" userId="thebandik" providerId="Teamlab"/>
+  <person displayName="thebandik" id="{82251DE4-7921-B274-6CCC-BBAE0611E63B}" userId="thebandik" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -739,7 +735,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C15" dT="2023-01-11T23:31:09.63Z" personId="{049AB94E-486D-E846-9DA9-9FC00BDA3D2D}" id="{F228C119-A988-F79A-765E-E926209FCA44}" done="0">
+  <threadedComment ref="C15" dT="2023-01-11T23:31:09.63Z" personId="{82251DE4-7921-B274-6CCC-BBAE0611E63B}" id="{F228C119-A988-F79A-765E-E926209FCA44}" done="0">
     <text xml:space="preserve">Сдал 1 и 3
 </text>
   </threadedComment>
@@ -795,7 +791,7 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2"/>
@@ -823,7 +819,7 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2"/>
@@ -851,7 +847,7 @@
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2"/>
@@ -879,7 +875,7 @@
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
@@ -907,7 +903,7 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2"/>
@@ -935,7 +931,7 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2"/>
@@ -963,7 +959,7 @@
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2"/>
@@ -991,7 +987,7 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2"/>
@@ -1019,7 +1015,7 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2"/>
@@ -1047,7 +1043,7 @@
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="2"/>
@@ -1075,7 +1071,7 @@
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="2"/>
@@ -1100,10 +1096,10 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="2"/>
@@ -1131,7 +1127,7 @@
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="2"/>
@@ -1159,7 +1155,7 @@
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="2"/>
@@ -1187,7 +1183,7 @@
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="2"/>
@@ -1212,10 +1208,10 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="2"/>
@@ -1239,13 +1235,13 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{006D00C4-0020-4277-8CF5-00EF00980054}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00C600DB-005D-4EBE-A0F9-00E500D70048}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1262,7 +1258,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00FA0073-001C-42CA-92CC-00640079006A}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00F6004E-00FC-40AB-BD57-002800AF0086}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1279,7 +1275,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00680062-0029-4843-A6DE-00E700BC0076}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00030003-00AD-4B13-B0D4-0082008F00D8}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1308,7 +1304,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="1" max="1" width="2.8515625"/>
     <col bestFit="1" min="2" max="2" width="21.8515625"/>
@@ -1322,7 +1318,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="2"/>
@@ -1341,7 +1337,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1372,7 +1368,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2">
-        <f>SUM(C2:S2)</f>
+        <f t="shared" ref="T2:T9" si="0">SUM(C2:S2)</f>
         <v>2</v>
       </c>
     </row>
@@ -1401,7 +1397,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2">
-        <f>SUM(C3:S3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1430,7 +1426,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2">
-        <f>SUM(C4:S4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1459,7 +1455,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
-        <f>SUM(C5:S5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1488,7 +1484,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2">
-        <f>SUM(C6:S6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1517,7 +1513,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2">
-        <f>SUM(C7:S7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1546,7 +1542,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
-        <f>SUM(C8:S8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1575,7 +1571,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2">
-        <f>SUM(C9:S9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1604,7 +1600,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2">
-        <f>SUM(C10:S10)</f>
+        <f t="shared" ref="T10:T17" si="1">SUM(C10:S10)</f>
         <v>0</v>
       </c>
     </row>
@@ -1635,7 +1631,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2">
-        <f>SUM(C11:S11)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1664,7 +1660,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2">
-        <f>SUM(C12:S12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1672,7 +1668,7 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2"/>
@@ -1693,7 +1689,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2">
-        <f>SUM(C13:S13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1722,7 +1718,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2">
-        <f>SUM(C14:S14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1753,7 +1749,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2">
-        <f>SUM(C15:S15)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1782,7 +1778,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2">
-        <f>SUM(C16:S16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1790,7 +1786,7 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="2"/>
@@ -1811,21 +1807,21 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2">
-        <f>SUM(C17:S17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{002E00EB-0054-4B5F-93D6-00C0007400F2}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{001400C3-00AB-4562-BBCA-00AB00BC00A7}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1842,7 +1838,7 @@
           <xm:sqref>C2:S14 C15:T15 C16:S17 T16 T17 T2 T3 T4 T5 T6 T7 T8 T9 T10 T11 T12 T13 T14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00B6006B-00FE-487B-B312-00F700C800FA}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0041005B-0087-40E9-AB48-001C008D0001}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1859,7 +1855,7 @@
           <xm:sqref>C2:S14 C15:T15 C16:S17 T16 T17 T2 T3 T4 T5 T6 T7 T8 T9 T10 T11 T12 T13 T14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00DE00C1-005D-425D-B12A-00DC007400D2}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{001A001C-00A8-4B5A-9D96-009500ED0018}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1888,10 +1884,10 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="1" max="1" width="2.8515625"/>
-    <col bestFit="1" min="2" max="2" width="21.8515625"/>
+    <col bestFit="1" min="2" max="2" width="20.8515625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1901,7 +1897,9 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="5">
+        <v>44939</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1953,7 +1951,9 @@
       <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2031,7 +2031,9 @@
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2057,7 +2059,9 @@
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2083,7 +2087,9 @@
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2135,7 +2141,9 @@
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2161,7 +2169,9 @@
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2187,7 +2197,9 @@
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2213,7 +2225,9 @@
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2233,103 +2247,103 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{007700D2-00F9-44AC-A264-00820046005E}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00210059-00C6-414E-96A9-009800DB00C0}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2346,7 +2360,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00C90007-0030-4673-A73D-003F00A200A9}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{004B00EB-006D-40C0-A4AE-00EB00EA00F4}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2363,7 +2377,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{000D00CD-00B3-4CA3-A0E5-002E00FE005F}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{008200B0-0081-4B8F-9485-001A00C10051}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -2392,7 +2406,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="1" max="1" width="2.8515625"/>
     <col bestFit="1" min="2" max="2" width="20.8515625"/>
@@ -2405,7 +2419,9 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2561,7 +2577,9 @@
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2587,7 +2605,9 @@
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2639,7 +2659,9 @@
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2717,7 +2739,9 @@
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2739,13 +2763,13 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00F10014-0007-4C8E-B5BF-00AD00670052}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00260007-00B4-49FF-B643-00F3009B0099}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2762,7 +2786,7 @@
           <xm:sqref>C2:T13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{001800D1-0004-4E6C-A5E4-00DF00FA00F9}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00870056-0011-4D38-B1B0-000800C80032}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2779,7 +2803,7 @@
           <xm:sqref>C2:T13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0097007D-0059-4FD9-AF9F-002B006B00EC}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{006D0085-0075-41C6-AAC5-0030002B00A4}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" state="visible" r:id="rId2"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>№</t>
   </si>
@@ -110,6 +110,30 @@
   </si>
   <si>
     <t>Доп</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>IterGen</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>CS</t>
   </si>
   <si>
     <t>Итог</t>
@@ -201,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,13 +240,7 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,7 +257,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="thebandik" id="{82251DE4-7921-B274-6CCC-BBAE0611E63B}" userId="thebandik" providerId="Teamlab"/>
+  <person displayName="thebandik" id="{9DAAAECC-59C5-D945-B742-AB4D0A5EC5E0}" userId="thebandik" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -735,7 +753,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C15" dT="2023-01-11T23:31:09.63Z" personId="{82251DE4-7921-B274-6CCC-BBAE0611E63B}" id="{F228C119-A988-F79A-765E-E926209FCA44}" done="0">
+  <threadedComment ref="C15" dT="2023-01-11T23:31:09.63Z" personId="{9DAAAECC-59C5-D945-B742-AB4D0A5EC5E0}" id="{F228C119-A988-F79A-765E-E926209FCA44}" done="0">
     <text xml:space="preserve">Сдал 1 и 3
 </text>
   </threadedComment>
@@ -1241,7 +1259,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00C600DB-005D-4EBE-A0F9-00E500D70048}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00570007-0048-4FB6-9535-00AB006500FA}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1258,7 +1276,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00F6004E-00FC-40AB-BD57-002800AF0086}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{006B00B6-00DF-4C2F-ABFE-0098001500EB}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1275,7 +1293,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00030003-00AD-4B13-B0D4-0082008F00D8}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00D400A0-002A-4E63-BB70-0038008F00CF}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1308,6 +1326,7 @@
   <cols>
     <col bestFit="1" min="1" max="1" width="2.8515625"/>
     <col bestFit="1" min="2" max="2" width="21.8515625"/>
+    <col bestFit="1" min="12" max="12" width="9.8515625"/>
     <col bestFit="1" min="20" max="20" width="9.8515625"/>
   </cols>
   <sheetData>
@@ -1321,25 +1340,40 @@
       <c r="C1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="4">
@@ -1349,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1359,18 +1393,17 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2">
-        <f t="shared" ref="T2:T9" si="0">SUM(C2:S2)</f>
-        <v>2</v>
-      </c>
+      <c r="L2" s="2">
+        <f t="shared" ref="L2:L9" si="0">SUM(C2:K2)</f>
+        <v>4</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="4">
@@ -1388,18 +1421,17 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2">
+      <c r="L3" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="4">
@@ -1417,18 +1449,17 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2">
+      <c r="L4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="4">
@@ -1446,18 +1477,17 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2">
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
@@ -1475,18 +1505,17 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2">
+      <c r="L6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="4">
@@ -1504,18 +1533,17 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2">
+      <c r="L7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
@@ -1533,18 +1561,17 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2">
+      <c r="L8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
@@ -1562,18 +1589,17 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2">
+      <c r="L9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="4">
@@ -1591,18 +1617,17 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2">
-        <f t="shared" ref="T10:T17" si="1">SUM(C10:S10)</f>
+      <c r="L10" s="2">
+        <f t="shared" ref="L10:L17" si="1">SUM(C10:K10)</f>
         <v>0</v>
       </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="4">
@@ -1612,7 +1637,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1622,18 +1647,17 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2">
+      <c r="L11" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="4">
@@ -1651,18 +1675,17 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2">
+      <c r="L12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="4">
@@ -1671,7 +1694,9 @@
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1680,18 +1705,17 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2">
+      <c r="L13" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="4">
@@ -1709,18 +1733,17 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2">
+      <c r="L14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="4">
@@ -1740,18 +1763,17 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2">
+      <c r="L15" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="4">
@@ -1769,18 +1791,17 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2">
+      <c r="L16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="4">
@@ -1798,18 +1819,17 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2">
+      <c r="L17" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -1821,7 +1841,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{001400C3-00AB-4562-BBCA-00AB00BC00A7}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00BB008B-0010-4D85-A7F9-0092005200A6}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1835,10 +1855,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C2:S14 C15:T15 C16:S17 T16 T17 T2 T3 T4 T5 T6 T7 T8 T9 T10 T11 T12 T13 T14</xm:sqref>
+          <xm:sqref>C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0041005B-0087-40E9-AB48-001C008D0001}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{001E00A3-00AD-460B-A99C-00CF00D00076}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1852,10 +1872,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C2:S14 C15:T15 C16:S17 T16 T17 T2 T3 T4 T5 T6 T7 T8 T9 T10 T11 T12 T13 T14</xm:sqref>
+          <xm:sqref>C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{001A001C-00A8-4B5A-9D96-009500ED0018}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{004E00F9-00D2-4830-BC71-00BD00EF00C7}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1869,7 +1889,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C2:S14 C15:T15 C16:S17 T16 T17 T2 T3 T4 T5 T6 T7 T8 T9 T10 T11 T12 T13 T14</xm:sqref>
+          <xm:sqref>C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1923,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1949,9 +1969,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2"/>
@@ -1977,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2003,7 +2023,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2029,9 +2049,9 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2"/>
@@ -2057,9 +2077,9 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2"/>
@@ -2085,9 +2105,9 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2"/>
@@ -2113,7 +2133,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2139,9 +2159,9 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2"/>
@@ -2167,9 +2187,9 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="2"/>
@@ -2195,9 +2215,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="2"/>
@@ -2223,9 +2243,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="2"/>
@@ -2247,8 +2267,8 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2269,8 +2289,8 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2291,8 +2311,8 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2313,8 +2333,8 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2343,7 +2363,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00210059-00C6-414E-96A9-009800DB00C0}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{007000FF-0083-4672-A123-004D008A0025}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2360,7 +2380,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{004B00EB-006D-40C0-A4AE-00EB00EA00F4}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00FD000E-0078-4415-AD71-001500ED00A2}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2377,7 +2397,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{008200B0-0081-4B8F-9485-001A00C10051}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{004200E0-009D-439D-ACAE-00CF005C0052}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -2419,33 +2439,51 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2456,22 +2494,25 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="L2" s="2">
+        <f t="shared" ref="L2:L9" si="2">SUM(C2:K2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2482,22 +2523,25 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="L3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2508,22 +2552,25 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="L4" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2534,22 +2581,25 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="L5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2560,22 +2610,25 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="L6" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -2588,22 +2641,25 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="L7" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -2616,22 +2672,25 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="L8" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2642,22 +2701,25 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="L9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
@@ -2670,22 +2732,25 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="L10" s="2">
+        <f t="shared" ref="L10:L13" si="3">SUM(C10:K10)</f>
+        <v>4</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2696,22 +2761,25 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="L11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2722,22 +2790,25 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="L12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
@@ -2750,15 +2821,18 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="L13" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -2769,7 +2843,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00260007-00B4-49FF-B643-00F3009B0099}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00E00016-0092-4558-9041-00D8008D00CD}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2783,10 +2857,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C2:T13</xm:sqref>
+          <xm:sqref>C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00870056-0011-4D38-B1B0-000800C80032}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{004D00B3-002B-45D2-B026-00B2002900B0}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2800,10 +2874,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C2:T13</xm:sqref>
+          <xm:sqref>C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{006D0085-0075-41C6-AAC5-0030002B00A4}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005100A0-00F1-4C5E-9B6B-00830050001B}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -2817,7 +2891,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C2:T13</xm:sqref>
+          <xm:sqref>C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" state="visible" r:id="rId2"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -67,9 +67,15 @@
     <t xml:space="preserve">Галицкая Каролина</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t xml:space="preserve">Гоев Матвей</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t xml:space="preserve">Добривечер Анастасия</t>
   </si>
   <si>
@@ -82,9 +88,6 @@
     <t xml:space="preserve">Кончаков Максим</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Корбан Владислав</t>
   </si>
   <si>
@@ -112,7 +115,7 @@
     <t>Доп</t>
   </si>
   <si>
-    <t>Meta</t>
+    <t>Doc</t>
   </si>
   <si>
     <t>Enum</t>
@@ -225,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,7 +239,13 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,7 +266,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="thebandik" id="{9DAAAECC-59C5-D945-B742-AB4D0A5EC5E0}" userId="thebandik" providerId="Teamlab"/>
+  <person displayName="thebandik" id="{21B12E5C-6D9E-96BB-937E-6CF4D327E2E0}" userId="thebandik" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -753,7 +762,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C15" dT="2023-01-11T23:31:09.63Z" personId="{9DAAAECC-59C5-D945-B742-AB4D0A5EC5E0}" id="{F228C119-A988-F79A-765E-E926209FCA44}" done="0">
+  <threadedComment ref="C15" dT="2023-01-11T23:31:09.63Z" personId="{21B12E5C-6D9E-96BB-937E-6CF4D327E2E0}" id="{F228C119-A988-F79A-765E-E926209FCA44}" done="0">
     <text xml:space="preserve">Сдал 1 и 3
 </text>
   </threadedComment>
@@ -784,8 +793,12 @@
       <c r="C1" s="3">
         <v>44938</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="4">
+        <v>44945</v>
+      </c>
+      <c r="E1" s="4">
+        <v>44945</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -803,17 +816,21 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -831,17 +848,21 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -859,17 +880,21 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -887,17 +912,21 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -915,17 +944,21 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -943,17 +976,21 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -971,17 +1008,21 @@
       <c r="T7" s="2"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -999,17 +1040,21 @@
       <c r="T8" s="2"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1027,17 +1072,21 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1055,17 +1104,21 @@
       <c r="T10" s="2"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1083,17 +1136,21 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1111,17 +1168,21 @@
       <c r="T12" s="2"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1139,17 +1200,21 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1167,17 +1232,21 @@
       <c r="T14" s="2"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1195,17 +1264,21 @@
       <c r="T15" s="2"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1223,17 +1296,21 @@
       <c r="T16" s="2"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1259,7 +1336,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00570007-0048-4FB6-9535-00AB006500FA}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00F500A1-00EE-4322-BA07-006300D500A4}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1276,7 +1353,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{006B00B6-00DF-4C2F-ABFE-0098001500EB}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{003B00B3-00CC-4162-BA45-002500CD00A2}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1293,7 +1370,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00D400A0-002A-4E63-BB70-0038008F00CF}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00250000-008D-41E7-85AB-0035008C00DA}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1337,35 +1414,35 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1376,14 +1453,14 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1395,7 +1472,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2">
         <f t="shared" ref="L2:L9" si="0">SUM(C2:K2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1406,10 +1483,10 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2"/>
@@ -1434,10 +1511,10 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2"/>
@@ -1462,11 +1539,11 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1490,11 +1567,11 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1518,11 +1595,11 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1546,11 +1623,11 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1574,11 +1651,11 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1602,11 +1679,11 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1630,11 +1707,11 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
@@ -1660,11 +1737,11 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1688,11 +1765,11 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -1718,11 +1795,11 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1746,11 +1823,11 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
@@ -1776,11 +1853,11 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1804,11 +1881,11 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1841,7 +1918,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00BB008B-0010-4D85-A7F9-0092005200A6}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00230038-00CB-4EA8-986B-005900FB0028}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1858,7 +1935,7 @@
           <xm:sqref>C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{001E00A3-00AD-460B-A99C-00CF00D00076}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0009003E-0066-4232-83D2-004C000700BE}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1875,7 +1952,7 @@
           <xm:sqref>C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{004E00F9-00D2-4830-BC71-00BD00EF00C7}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{008E00AC-0000-4823-A8DB-003A002000A1}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1917,10 +1994,12 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="7">
         <v>44939</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="4">
+        <v>44945</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1939,14 +2018,16 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1965,16 +2046,18 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1993,14 +2076,16 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2019,14 +2104,16 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>33</v>
+      <c r="B5" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2045,16 +2132,18 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2073,16 +2162,18 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>35</v>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2101,16 +2192,18 @@
       <c r="T7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>36</v>
+      <c r="B8" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2129,14 +2222,16 @@
       <c r="T8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>37</v>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2155,16 +2250,18 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>38</v>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2183,16 +2280,18 @@
       <c r="T10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>39</v>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2211,16 +2310,18 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>40</v>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2239,16 +2340,18 @@
       <c r="T12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>41</v>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2267,8 +2370,8 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2289,8 +2392,8 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2311,8 +2414,8 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2333,8 +2436,8 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2363,7 +2466,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{007000FF-0083-4672-A123-004D008A0025}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00CE004C-0080-4DAE-8299-004700BB002A}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2380,7 +2483,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00FD000E-0078-4415-AD71-001500ED00A2}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00C900A0-0090-421A-80D1-000900D00087}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2397,7 +2500,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{004200E0-009D-439D-ACAE-00CF005C0052}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00E2005A-001F-4742-B25F-0009005D0037}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -2439,35 +2542,35 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -2479,11 +2582,11 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2508,11 +2611,11 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2537,11 +2640,11 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2566,11 +2669,11 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>33</v>
+      <c r="B5" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2595,11 +2698,11 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2624,11 +2727,11 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>35</v>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -2655,11 +2758,11 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>36</v>
+      <c r="B8" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -2686,11 +2789,11 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>37</v>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2715,11 +2818,11 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>38</v>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
@@ -2746,11 +2849,11 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>39</v>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2775,11 +2878,11 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>40</v>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2804,11 +2907,11 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>41</v>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
@@ -2843,7 +2946,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00E00016-0092-4558-9041-00D8008D00CD}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{006000E4-00E0-4216-BFC9-004600E10091}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2860,7 +2963,7 @@
           <xm:sqref>C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{004D00B3-002B-45D2-B026-00B2002900B0}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00F000DA-00C8-4B18-B5BC-00B200E1003E}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2877,7 +2980,7 @@
           <xm:sqref>C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005100A0-00F1-4C5E-9B6B-00830050001B}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0022008B-0094-4EE1-9F85-00B4006700BA}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,10 +18,32 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}</author>
     <author>tc={F228C119-A988-F79A-765E-E926209FCA44}</author>
   </authors>
   <commentList>
-    <comment ref="C15" authorId="0" xr:uid="{F228C119-A988-F79A-765E-E926209FCA44}">
+    <comment ref="C13" authorId="0" xr:uid="{CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>thebandik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Сдала 1 и 3
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="1" xr:uid="{F228C119-A988-F79A-765E-E926209FCA44}">
       <text>
         <r>
           <rPr>
@@ -38,6 +60,37 @@
           </rPr>
           <t xml:space="preserve">
 Сдал 1 и 3
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CF87C06E-054A-3430-9690-B2DC92749971}</author>
+  </authors>
+  <commentList>
+    <comment ref="C8" authorId="0" xr:uid="{CF87C06E-054A-3430-9690-B2DC92749971}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>thebandik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Сдала 1 и 3
 </t>
         </r>
       </text>
@@ -228,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,13 +292,7 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -266,7 +313,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="thebandik" id="{21B12E5C-6D9E-96BB-937E-6CF4D327E2E0}" userId="thebandik" providerId="Teamlab"/>
+  <person displayName="thebandik" id="{135B0FAC-63BF-8EF8-E15E-3590E989B17F}" userId="thebandik" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -762,8 +809,21 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C15" dT="2023-01-11T23:31:09.63Z" personId="{21B12E5C-6D9E-96BB-937E-6CF4D327E2E0}" id="{F228C119-A988-F79A-765E-E926209FCA44}" done="0">
+  <threadedComment ref="C13" dT="2023-01-22T23:53:31.43Z" personId="{135B0FAC-63BF-8EF8-E15E-3590E989B17F}" id="{CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}" done="0">
+    <text xml:space="preserve">Сдала 1 и 3
+</text>
+  </threadedComment>
+  <threadedComment ref="C15" dT="2023-01-11T23:31:09.63Z" personId="{135B0FAC-63BF-8EF8-E15E-3590E989B17F}" id="{F228C119-A988-F79A-765E-E926209FCA44}" done="0">
     <text xml:space="preserve">Сдал 1 и 3
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C8" dT="2023-01-19T23:46:23.47Z" personId="{135B0FAC-63BF-8EF8-E15E-3590E989B17F}" id="{CF87C06E-054A-3430-9690-B2DC92749971}" done="0">
+    <text xml:space="preserve">Сдала 1 и 3
 </text>
   </threadedComment>
 </ThreadedComments>
@@ -793,10 +853,10 @@
       <c r="C1" s="3">
         <v>44938</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>44945</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>44945</v>
       </c>
       <c r="F1" s="2"/>
@@ -816,19 +876,19 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2"/>
@@ -848,19 +908,19 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2"/>
@@ -880,19 +940,19 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="2"/>
@@ -912,19 +972,19 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2"/>
@@ -944,19 +1004,19 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="2"/>
@@ -976,19 +1036,19 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2"/>
@@ -1008,19 +1068,19 @@
       <c r="T7" s="2"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="2"/>
@@ -1040,19 +1100,19 @@
       <c r="T8" s="2"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="2"/>
@@ -1072,19 +1132,19 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2"/>
@@ -1104,19 +1164,19 @@
       <c r="T10" s="2"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="2"/>
@@ -1136,19 +1196,19 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="2"/>
@@ -1168,19 +1228,19 @@
       <c r="T12" s="2"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="2"/>
@@ -1200,19 +1260,19 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="2"/>
@@ -1232,19 +1292,19 @@
       <c r="T14" s="2"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="2"/>
@@ -1264,19 +1324,19 @@
       <c r="T15" s="2"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="2"/>
@@ -1296,19 +1356,19 @@
       <c r="T16" s="2"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="2"/>
@@ -1336,7 +1396,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00F500A1-00EE-4322-BA07-006300D500A4}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{007500EA-00CA-4E0D-9D0A-00F800700095}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1353,7 +1413,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{003B00B3-00CC-4162-BA45-002500CD00A2}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00450022-00F1-4489-A0A5-00E600070041}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1370,7 +1430,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00250000-008D-41E7-85AB-0035008C00DA}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{004C00F4-0056-4392-924B-00BD005700E5}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1414,10 +1474,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1453,10 +1513,10 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2">
@@ -1483,10 +1543,10 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2"/>
@@ -1511,10 +1571,10 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2"/>
@@ -1539,10 +1599,10 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2"/>
@@ -1567,10 +1627,10 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2"/>
@@ -1595,10 +1655,10 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2"/>
@@ -1623,10 +1683,10 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2"/>
@@ -1651,10 +1711,10 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2"/>
@@ -1679,10 +1739,10 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2"/>
@@ -1707,10 +1767,10 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2">
@@ -1737,10 +1797,10 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2"/>
@@ -1765,14 +1825,14 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1784,7 +1844,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1795,10 +1855,10 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2"/>
@@ -1823,10 +1883,10 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2">
@@ -1853,10 +1913,10 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2"/>
@@ -1881,10 +1941,10 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2"/>
@@ -1918,7 +1978,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00230038-00CB-4EA8-986B-005900FB0028}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00EA00BF-0059-4932-8427-009800D700DB}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1935,7 +1995,7 @@
           <xm:sqref>C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0009003E-0066-4232-83D2-004C000700BE}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00550048-008E-47B8-A6F4-00BB00F1007F}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1952,7 +2012,7 @@
           <xm:sqref>C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{008E00AC-0000-4823-A8DB-003A002000A1}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00150036-003E-4437-9A7D-0009008200B2}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1994,13 +2054,15 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="5">
         <v>44939</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>44945</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="3">
+        <v>44946</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2018,17 +2080,19 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -2046,19 +2110,21 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2076,17 +2142,19 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -2104,17 +2172,19 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -2132,19 +2202,21 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2162,19 +2234,21 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2192,19 +2266,21 @@
       <c r="T7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -2222,17 +2298,19 @@
       <c r="T8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -2250,19 +2328,21 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2280,19 +2360,21 @@
       <c r="T10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2310,19 +2392,21 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2340,19 +2424,21 @@
       <c r="T12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -2370,8 +2456,8 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2392,8 +2478,8 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2414,8 +2500,8 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2436,8 +2522,8 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2466,7 +2552,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00CE004C-0080-4DAE-8299-004700BB002A}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00870094-00E5-4504-8E28-008F005D0058}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2483,7 +2569,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00C900A0-0090-421A-80D1-000900D00087}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{005E0052-00B2-403C-B16D-00F700C900DA}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2500,7 +2586,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00E2005A-001F-4742-B25F-0009005D0037}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{001D00C3-0009-4A3C-B454-001600FE00A5}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -2542,10 +2628,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -2582,10 +2668,10 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="2"/>
@@ -2611,13 +2697,15 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2628,7 +2716,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -2640,10 +2728,10 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="2"/>
@@ -2669,10 +2757,10 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="2"/>
@@ -2698,13 +2786,15 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2715,7 +2805,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -2727,10 +2817,10 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="2">
@@ -2758,14 +2848,14 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2777,7 +2867,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2789,10 +2879,10 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="2"/>
@@ -2818,10 +2908,10 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="2">
@@ -2849,10 +2939,10 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="2"/>
@@ -2878,10 +2968,10 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="2"/>
@@ -2907,10 +2997,10 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="2">
@@ -2942,11 +3032,12 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{006000E4-00E0-4216-BFC9-004600E10091}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{009F0021-0004-4427-9800-005F00AC00A9}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2963,7 +3054,7 @@
           <xm:sqref>C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00F000DA-00C8-4B18-B5BC-00B200E1003E}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{008F0005-00EE-4A64-8F20-006D007500DA}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2980,7 +3071,7 @@
           <xm:sqref>C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0022008B-0094-4EE1-9F85-00B4006700BA}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00F000EF-00C7-431C-AE7F-007D006E00B3}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -19,7 +19,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}</author>
-    <author>tc={F228C119-A988-F79A-765E-E926209FCA44}</author>
   </authors>
   <commentList>
     <comment ref="C13" authorId="0" xr:uid="{CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}">
@@ -39,27 +38,6 @@
           </rPr>
           <t xml:space="preserve">
 Сдала 1 и 3
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="1" xr:uid="{F228C119-A988-F79A-765E-E926209FCA44}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>thebandik:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Сдал 1 и 3
 </t>
         </r>
       </text>
@@ -117,6 +95,9 @@
     <t xml:space="preserve">Воскобейников Даниил</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t xml:space="preserve">Галицкая Каролина</t>
   </si>
   <si>
@@ -126,9 +107,6 @@
     <t xml:space="preserve">Гоев Матвей</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Добривечер Анастасия</t>
   </si>
   <si>
@@ -189,7 +167,7 @@
     <t>Web</t>
   </si>
   <si>
-    <t>CS</t>
+    <t>DS</t>
   </si>
   <si>
     <t>Итог</t>
@@ -235,9 +213,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="160" formatCode="dd/mmm"/>
-  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -292,14 +267,16 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -313,7 +290,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="thebandik" id="{135B0FAC-63BF-8EF8-E15E-3590E989B17F}" userId="thebandik" providerId="Teamlab"/>
+  <person displayName="thebandik" id="{66B56C99-B747-CFC8-7617-ABD175ACABDA}" userId="thebandik" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -809,12 +786,8 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C13" dT="2023-01-22T23:53:31.43Z" personId="{135B0FAC-63BF-8EF8-E15E-3590E989B17F}" id="{CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}" done="0">
+  <threadedComment ref="C13" dT="2023-01-22T23:53:31.43Z" personId="{66B56C99-B747-CFC8-7617-ABD175ACABDA}" id="{CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}" done="0">
     <text xml:space="preserve">Сдала 1 и 3
-</text>
-  </threadedComment>
-  <threadedComment ref="C15" dT="2023-01-11T23:31:09.63Z" personId="{135B0FAC-63BF-8EF8-E15E-3590E989B17F}" id="{F228C119-A988-F79A-765E-E926209FCA44}" done="0">
-    <text xml:space="preserve">Сдал 1 и 3
 </text>
   </threadedComment>
 </ThreadedComments>
@@ -822,7 +795,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C8" dT="2023-01-19T23:46:23.47Z" personId="{135B0FAC-63BF-8EF8-E15E-3590E989B17F}" id="{CF87C06E-054A-3430-9690-B2DC92749971}" done="0">
+  <threadedComment ref="C8" dT="2023-01-19T23:46:23.47Z" personId="{66B56C99-B747-CFC8-7617-ABD175ACABDA}" id="{CF87C06E-054A-3430-9690-B2DC92749971}" done="0">
     <text xml:space="preserve">Сдала 1 и 3
 </text>
   </threadedComment>
@@ -833,17 +806,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.8515625"/>
-    <col bestFit="1" min="2" max="2" width="21.8515625"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" min="2" max="2" width="21.85546875"/>
     <col min="3" max="20" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -859,9 +832,15 @@
       <c r="E1" s="3">
         <v>44945</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="F1" s="3">
+        <v>44956</v>
+      </c>
+      <c r="G1" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H1" s="4">
+        <v>44963</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -875,11 +854,11 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="4">
+    <row r="2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -891,9 +870,15 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -907,11 +892,11 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="4">
+    <row r="3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -923,9 +908,15 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -939,25 +930,31 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
+    <row r="4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -971,25 +968,31 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="4">
+    <row r="5">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1003,11 +1006,11 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="6">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1019,9 +1022,15 @@
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1035,25 +1044,31 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="4">
+    <row r="7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1067,11 +1082,11 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="4">
+    <row r="8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1083,9 +1098,15 @@
       <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1099,15 +1120,15 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="4">
+    <row r="9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
@@ -1115,9 +1136,15 @@
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1131,25 +1158,31 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="4">
+    <row r="10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1163,11 +1196,11 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="4">
+    <row r="11">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1179,9 +1212,15 @@
       <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1195,11 +1234,11 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="4">
+    <row r="12">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1211,9 +1250,15 @@
       <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1227,11 +1272,11 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="4">
+    <row r="13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1243,9 +1288,15 @@
       <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1259,25 +1310,31 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="4">
+    <row r="14">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1291,11 +1348,11 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="4">
+    <row r="15">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1307,9 +1364,15 @@
       <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1323,11 +1386,11 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" ht="14.25">
-      <c r="A16" s="4">
+    <row r="16">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1339,9 +1402,15 @@
       <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1355,11 +1424,11 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" ht="14.25">
-      <c r="A17" s="4">
+    <row r="17">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1371,9 +1440,15 @@
       <c r="E17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1396,11 +1471,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{007500EA-00CA-4E0D-9D0A-00F800700095}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{002700BE-000A-446C-A109-00F300C700A8}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
-                <color theme="1" tint="0"/>
+                <color theme="1"/>
               </font>
               <fill>
                 <patternFill patternType="solid">
@@ -1413,11 +1488,11 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00450022-00F1-4489-A0A5-00E600070041}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0062003C-0085-4C37-B3BA-00E600CA00D2}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
-                <color theme="1" tint="0"/>
+                <color theme="1"/>
               </font>
               <fill>
                 <patternFill patternType="solid">
@@ -1430,11 +1505,11 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{004C00F4-0056-4392-924B-00BD005700E5}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005E00B5-0043-4D47-A137-00BC00030086}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
-                <color theme="1" tint="0"/>
+                <color theme="1"/>
               </font>
               <fill>
                 <patternFill patternType="solid">
@@ -1456,15 +1531,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.8515625"/>
-    <col bestFit="1" min="2" max="2" width="21.8515625"/>
-    <col bestFit="1" min="12" max="12" width="9.8515625"/>
-    <col bestFit="1" min="20" max="20" width="9.8515625"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" min="2" max="2" width="21.85546875"/>
+    <col bestFit="1" min="12" max="12" width="9.85546875"/>
+    <col bestFit="1" min="20" max="20" width="9.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1474,7 +1549,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1513,16 +1588,18 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1532,7 +1609,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2">
         <f t="shared" ref="L2:L9" si="0">SUM(C2:K2)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1543,10 +1620,10 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2"/>
@@ -1571,11 +1648,11 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1599,11 +1676,11 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1627,14 +1704,16 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1644,7 +1723,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1655,10 +1734,10 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2"/>
@@ -1683,10 +1762,10 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2"/>
@@ -1711,10 +1790,10 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2"/>
@@ -1739,10 +1818,10 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2"/>
@@ -1767,16 +1846,18 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1786,7 +1867,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1797,14 +1878,16 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1814,7 +1897,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1825,16 +1908,18 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1844,7 +1929,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1855,10 +1940,10 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2"/>
@@ -1883,16 +1968,18 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1902,7 +1989,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1913,14 +2000,16 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1930,7 +2019,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1941,14 +2030,16 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1958,7 +2049,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1978,11 +2069,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00EA00BF-0059-4932-8427-009800D700DB}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00AF0078-00AA-42FB-83DF-002A00B500D9}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
-                <color theme="1" tint="0"/>
+                <color theme="1"/>
               </font>
               <fill>
                 <patternFill patternType="solid">
@@ -1995,11 +2086,11 @@
           <xm:sqref>C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00550048-008E-47B8-A6F4-00BB00F1007F}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{002B006A-0042-48A6-8614-003A00080092}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
-                <color theme="1" tint="0"/>
+                <color theme="1"/>
               </font>
               <fill>
                 <patternFill patternType="solid">
@@ -2012,11 +2103,11 @@
           <xm:sqref>C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00150036-003E-4437-9A7D-0009008200B2}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{006D0080-003A-460C-88C2-00C9008700AD}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
-                <color theme="1" tint="0"/>
+                <color theme="1"/>
               </font>
               <fill>
                 <patternFill patternType="solid">
@@ -2038,13 +2129,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.8515625"/>
-    <col bestFit="1" min="2" max="2" width="20.8515625"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" min="2" max="2" width="20.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2054,7 +2145,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="3">
         <v>44939</v>
       </c>
       <c r="D1" s="3">
@@ -2063,10 +2154,16 @@
       <c r="E1" s="3">
         <v>44946</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="F1" s="3">
+        <v>44953</v>
+      </c>
+      <c r="G1" s="3">
+        <v>44959</v>
+      </c>
+      <c r="H1" s="3">
+        <v>44960</v>
+      </c>
+      <c r="I1" s="4"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -2080,22 +2177,30 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2110,10 +2215,10 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2125,9 +2230,15 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2142,22 +2253,30 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2172,22 +2291,30 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2202,10 +2329,10 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2217,9 +2344,15 @@
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -2234,10 +2367,10 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2249,9 +2382,15 @@
       <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -2266,10 +2405,10 @@
       <c r="T7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2281,9 +2420,15 @@
       <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -2298,22 +2443,30 @@
       <c r="T8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2328,10 +2481,10 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2341,11 +2494,17 @@
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2360,10 +2519,10 @@
       <c r="T10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2375,9 +2534,15 @@
       <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2392,10 +2557,10 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2405,11 +2570,17 @@
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2424,10 +2595,10 @@
       <c r="T12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2439,9 +2610,15 @@
       <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2456,8 +2633,6 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2478,8 +2653,6 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2500,8 +2673,6 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2522,8 +2693,6 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2552,11 +2721,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00870094-00E5-4504-8E28-008F005D0058}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00530046-00E4-4BE8-99D6-000700A300DB}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
-                <color theme="1" tint="0"/>
+                <color theme="1"/>
               </font>
               <fill>
                 <patternFill patternType="solid">
@@ -2569,11 +2738,11 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{005E0052-00B2-403C-B16D-00F700C900DA}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0081005B-0034-4069-BABE-00FA002E00FF}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
-                <color theme="1" tint="0"/>
+                <color theme="1"/>
               </font>
               <fill>
                 <patternFill patternType="solid">
@@ -2586,11 +2755,11 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{001D00C3-0009-4A3C-B454-001600FE00A5}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00DC00F2-0045-4BB1-B6F0-00FC00E000B3}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
-                <color theme="1" tint="0"/>
+                <color theme="1"/>
               </font>
               <fill>
                 <patternFill patternType="solid">
@@ -2612,13 +2781,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.8515625"/>
-    <col bestFit="1" min="2" max="2" width="20.8515625"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" min="2" max="2" width="20.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2628,7 +2797,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2668,14 +2837,16 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2685,7 +2856,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2">
         <f t="shared" ref="L2:L9" si="2">SUM(C2:K2)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -2697,14 +2868,14 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2716,7 +2887,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -2728,10 +2899,10 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="2"/>
@@ -2757,10 +2928,10 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="2"/>
@@ -2786,16 +2957,18 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2805,7 +2978,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -2817,16 +2990,18 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2836,7 +3011,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -2848,16 +3023,18 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2867,7 +3044,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2879,14 +3056,16 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2896,7 +3075,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2908,16 +3087,18 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="2">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2927,7 +3108,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2">
         <f t="shared" ref="L10:L13" si="3">SUM(C10:K10)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -2939,10 +3120,10 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="2"/>
@@ -2968,10 +3149,10 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="2"/>
@@ -2997,16 +3178,18 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="2">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3016,7 +3199,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -3037,11 +3220,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{009F0021-0004-4427-9800-005F00AC00A9}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{000F0052-00D5-4454-8A65-003800D600C1}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
-                <color theme="1" tint="0"/>
+                <color theme="1"/>
               </font>
               <fill>
                 <patternFill patternType="solid">
@@ -3054,11 +3237,11 @@
           <xm:sqref>C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{008F0005-00EE-4A64-8F20-006D007500DA}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00090057-00C4-4BDF-9818-0031000E00AB}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
-                <color theme="1" tint="0"/>
+                <color theme="1"/>
               </font>
               <fill>
                 <patternFill patternType="solid">
@@ -3071,11 +3254,11 @@
           <xm:sqref>C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00F000EF-00C7-431C-AE7F-007D006E00B3}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{007D00EF-0099-4B4E-B08B-003B00EC0024}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
-                <color theme="1" tint="0"/>
+                <color theme="1"/>
               </font>
               <fill>
                 <patternFill patternType="solid">

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,17 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_1D464F7CD1065913AEC53E1E5FFED15354D271EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4890C7E-6044-4455-A1EA-0ADF44BC7881}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Успеваемость (Подгруппа 1)" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Посещаемость (Подгруппа 2)" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Успеваемость (Подгруппа 2)" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
+    <sheet name="Успеваемость (Подгруппа 1)" sheetId="2" r:id="rId2"/>
+    <sheet name="Посещаемость (Подгруппа 2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Успеваемость (Подгруппа 2)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -21,25 +36,13 @@
     <author>tc={CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}</author>
   </authors>
   <commentList>
-    <comment ref="C13" authorId="0" xr:uid="{CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>thebandik:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Сдала 1 и 3
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Сдала 1 и 3
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -52,25 +55,13 @@
     <author>tc={CF87C06E-054A-3430-9690-B2DC92749971}</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" xr:uid="{CF87C06E-054A-3430-9690-B2DC92749971}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{CF87C06E-054A-3430-9690-B2DC92749971}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>thebandik:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Сдала 1 и 3
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Сдала 1 и 3
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -78,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -86,61 +77,61 @@
     <t>Студент</t>
   </si>
   <si>
-    <t xml:space="preserve">Будников Никита</t>
+    <t>Будников Никита</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t xml:space="preserve">Воскобейников Даниил</t>
+    <t>Воскобейников Даниил</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">Галицкая Каролина</t>
+    <t>Галицкая Каролина</t>
   </si>
   <si>
     <t>#</t>
   </si>
   <si>
-    <t xml:space="preserve">Гоев Матвей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добривечер Анастасия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Клеванец Петр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Клепалов Константин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кончаков Максим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Корбан Владислав</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лапин Аркадий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Олейник Данила</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Путилина Екатерина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сальков Иван</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Смородин Игнат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шамшин Максим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юрченко Дмитрий</t>
+    <t>Гоев Матвей</t>
+  </si>
+  <si>
+    <t>Добривечер Анастасия</t>
+  </si>
+  <si>
+    <t>Клеванец Петр</t>
+  </si>
+  <si>
+    <t>Клепалов Константин</t>
+  </si>
+  <si>
+    <t>Кончаков Максим</t>
+  </si>
+  <si>
+    <t>Корбан Владислав</t>
+  </si>
+  <si>
+    <t>Лапин Аркадий</t>
+  </si>
+  <si>
+    <t>Олейник Данила</t>
+  </si>
+  <si>
+    <t>Путилина Екатерина</t>
+  </si>
+  <si>
+    <t>Сальков Иван</t>
+  </si>
+  <si>
+    <t>Смородин Игнат</t>
+  </si>
+  <si>
+    <t>Шамшин Максим</t>
+  </si>
+  <si>
+    <t>Юрченко Дмитрий</t>
   </si>
   <si>
     <t>Доп</t>
@@ -173,51 +164,51 @@
     <t>Итог</t>
   </si>
   <si>
-    <t xml:space="preserve">Бегун Анастасия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Буров Владислав</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вецан Дмитрий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Даниляк Михаил</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кван Максим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кляченков Дмитрий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Крапивина Софья</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кузьменко Олег</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Манаенков Александр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Черепков Ярослав</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шальнов Данил</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шевцов Никита</t>
+    <t>Бегун Анастасия</t>
+  </si>
+  <si>
+    <t>Буров Владислав</t>
+  </si>
+  <si>
+    <t>Вецан Дмитрий</t>
+  </si>
+  <si>
+    <t>Даниляк Михаил</t>
+  </si>
+  <si>
+    <t>Кван Максим</t>
+  </si>
+  <si>
+    <t>Кляченков Дмитрий</t>
+  </si>
+  <si>
+    <t>Крапивина Софья</t>
+  </si>
+  <si>
+    <t>Кузьменко Олег</t>
+  </si>
+  <si>
+    <t>Манаенков Александр</t>
+  </si>
+  <si>
+    <t>Черепков Ярослав</t>
+  </si>
+  <si>
+    <t>Шальнов Данил</t>
+  </si>
+  <si>
+    <t>Шевцов Никита</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -254,35 +245,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -294,291 +415,8 @@
 </personList>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -781,12 +619,13 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C13" dT="2023-01-22T23:53:31.43Z" personId="{66B56C99-B747-CFC8-7617-ABD175ACABDA}" id="{CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}" done="0">
+  <threadedComment ref="C13" dT="2023-01-22T23:53:31.43" personId="{66B56C99-B747-CFC8-7617-ABD175ACABDA}" id="{CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}">
     <text xml:space="preserve">Сдала 1 и 3
 </text>
   </threadedComment>
@@ -795,7 +634,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C8" dT="2023-01-19T23:46:23.47Z" personId="{66B56C99-B747-CFC8-7617-ABD175ACABDA}" id="{CF87C06E-054A-3430-9690-B2DC92749971}" done="0">
+  <threadedComment ref="C8" dT="2023-01-19T23:46:23.47" personId="{66B56C99-B747-CFC8-7617-ABD175ACABDA}" id="{CF87C06E-054A-3430-9690-B2DC92749971}">
     <text xml:space="preserve">Сдала 1 и 3
 </text>
   </threadedComment>
@@ -803,20 +642,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.85546875"/>
-    <col bestFit="1" min="2" max="2" width="21.85546875"/>
-    <col min="3" max="20" style="1" width="9.140625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1"/>
+    <col min="3" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -838,7 +678,7 @@
       <c r="G1" s="3">
         <v>44959</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>44963</v>
       </c>
       <c r="I1" s="2"/>
@@ -854,11 +694,11 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:20">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -876,7 +716,7 @@
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="2"/>
@@ -892,11 +732,11 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:20">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -914,7 +754,7 @@
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="2"/>
@@ -930,11 +770,11 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:20">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -952,7 +792,7 @@
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="2"/>
@@ -968,11 +808,11 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" s="5">
+    <row r="5" spans="1:20">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -990,7 +830,7 @@
       <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="2"/>
@@ -1006,11 +846,11 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:20">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1028,7 +868,7 @@
       <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="2"/>
@@ -1044,11 +884,11 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7">
-      <c r="A7" s="5">
+    <row r="7" spans="1:20">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1066,7 +906,7 @@
       <c r="G7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="2"/>
@@ -1082,11 +922,11 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" s="5">
+    <row r="8" spans="1:20">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1104,7 +944,7 @@
       <c r="G8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="2"/>
@@ -1120,11 +960,11 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9">
-      <c r="A9" s="5">
+    <row r="9" spans="1:20">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1142,7 +982,7 @@
       <c r="G9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="2"/>
@@ -1158,11 +998,11 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10">
-      <c r="A10" s="5">
+    <row r="10" spans="1:20">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1180,7 +1020,7 @@
       <c r="G10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="2"/>
@@ -1196,11 +1036,11 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11">
-      <c r="A11" s="5">
+    <row r="11" spans="1:20">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1218,7 +1058,7 @@
       <c r="G11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I11" s="2"/>
@@ -1234,11 +1074,11 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12">
-      <c r="A12" s="5">
+    <row r="12" spans="1:20">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1256,7 +1096,7 @@
       <c r="G12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I12" s="2"/>
@@ -1272,11 +1112,11 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13">
-      <c r="A13" s="5">
+    <row r="13" spans="1:20">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1294,7 +1134,7 @@
       <c r="G13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="2"/>
@@ -1310,11 +1150,11 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14">
-      <c r="A14" s="5">
+    <row r="14" spans="1:20">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1332,7 +1172,7 @@
       <c r="G14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="2"/>
@@ -1348,11 +1188,11 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15">
-      <c r="A15" s="5">
+    <row r="15" spans="1:20">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1370,7 +1210,7 @@
       <c r="G15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="2"/>
@@ -1386,11 +1226,11 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16">
-      <c r="A16" s="5">
+    <row r="16" spans="1:20">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1408,7 +1248,7 @@
       <c r="G16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="2"/>
@@ -1424,11 +1264,11 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17">
-      <c r="A17" s="5">
+    <row r="17" spans="1:20">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1446,7 +1286,7 @@
       <c r="G17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="2"/>
@@ -1463,86 +1303,43 @@
       <c r="T17" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{002700BE-000A-446C-A109-00F300C700A8}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0062003C-0085-4C37-B3BA-00E600CA00D2}">
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005E00B5-0043-4D47-A137-00BC00030086}">
-            <xm:f>"#"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T17</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="C2:T17">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:T17">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:T17">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.85546875"/>
-    <col bestFit="1" min="2" max="2" width="21.85546875"/>
-    <col bestFit="1" min="12" max="12" width="9.85546875"/>
-    <col bestFit="1" min="20" max="20" width="9.85546875"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1587,11 +1384,11 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:19">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2">
@@ -1619,11 +1416,11 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:19">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2"/>
@@ -1647,11 +1444,11 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2"/>
@@ -1675,11 +1472,11 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="5">
+    <row r="5" spans="1:19">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2"/>
@@ -1703,11 +1500,11 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:19">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2"/>
@@ -1733,11 +1530,11 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="5">
+    <row r="7" spans="1:19">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2"/>
@@ -1761,11 +1558,11 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="5">
+    <row r="8" spans="1:19">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2"/>
@@ -1789,11 +1586,11 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="5">
+    <row r="9" spans="1:19">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2"/>
@@ -1817,11 +1614,11 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="5">
+    <row r="10" spans="1:19">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2"/>
@@ -1845,11 +1642,11 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="5">
+    <row r="11" spans="1:19">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2">
@@ -1877,11 +1674,11 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="5">
+    <row r="12" spans="1:19">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2"/>
@@ -1907,11 +1704,11 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="5">
+    <row r="13" spans="1:19">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2">
@@ -1939,11 +1736,11 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="5">
+    <row r="14" spans="1:19">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2"/>
@@ -1967,11 +1764,11 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="5">
+    <row r="15" spans="1:19">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2">
@@ -1999,11 +1796,11 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="5">
+    <row r="16" spans="1:19">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2"/>
@@ -2029,11 +1826,11 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="5">
+    <row r="17" spans="1:19">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2"/>
@@ -2060,85 +1857,42 @@
       <c r="S17" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00AF0078-00AA-42FB-83DF-002A00B500D9}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{002B006A-0042-48A6-8614-003A00080092}">
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{006D0080-003A-460C-88C2-00C9008700AD}">
-            <xm:f>"#"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.85546875"/>
-    <col bestFit="1" min="2" max="2" width="20.85546875"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2163,7 +1917,9 @@
       <c r="H1" s="3">
         <v>44960</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="3">
+        <v>44967</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -2176,11 +1932,11 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:20">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2201,7 +1957,9 @@
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -2214,11 +1972,11 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:20">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2239,7 +1997,9 @@
       <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -2252,11 +2012,11 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:20">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2277,7 +2037,9 @@
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -2290,11 +2052,11 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" s="5">
+    <row r="5" spans="1:20">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2315,7 +2077,9 @@
       <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2328,11 +2092,11 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:20">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2353,7 +2117,9 @@
       <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -2366,11 +2132,11 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7">
-      <c r="A7" s="5">
+    <row r="7" spans="1:20">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2391,7 +2157,9 @@
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2404,11 +2172,11 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" s="5">
+    <row r="8" spans="1:20">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2429,7 +2197,9 @@
       <c r="H8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2442,11 +2212,11 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9">
-      <c r="A9" s="5">
+    <row r="9" spans="1:20">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2467,7 +2237,9 @@
       <c r="H9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2480,11 +2252,11 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10">
-      <c r="A10" s="5">
+    <row r="10" spans="1:20">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2505,7 +2277,9 @@
       <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2518,11 +2292,11 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11">
-      <c r="A11" s="5">
+    <row r="11" spans="1:20">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2543,7 +2317,9 @@
       <c r="H11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2556,11 +2332,11 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12">
-      <c r="A12" s="5">
+    <row r="12" spans="1:20">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2581,7 +2357,9 @@
       <c r="H12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2594,11 +2372,11 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13">
-      <c r="A13" s="5">
+    <row r="13" spans="1:20">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2619,7 +2397,9 @@
       <c r="H13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -2632,7 +2412,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:20">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2652,7 +2432,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:20">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2672,7 +2452,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:20">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2692,7 +2472,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="3:20">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2713,84 +2493,41 @@
       <c r="T17" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00530046-00E4-4BE8-99D6-000700A300DB}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0081005B-0034-4069-BABE-00FA002E00FF}">
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00DC00F2-0045-4BB1-B6F0-00FC00E000B3}">
-            <xm:f>"#"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T17</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="C2:T17">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:T17">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:T17">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="M13" activeCellId="0" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.85546875"/>
-    <col bestFit="1" min="2" max="2" width="20.85546875"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2836,16 +2573,16 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:20">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2855,8 +2592,8 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2">
-        <f t="shared" ref="L2:L9" si="2">SUM(C2:K2)</f>
-        <v>3</v>
+        <f t="shared" ref="L2:L9" si="0">SUM(C2:K2)</f>
+        <v>10</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -2867,17 +2604,19 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:20">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -2886,8 +2625,8 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -2898,11 +2637,11 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:20">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="2"/>
@@ -2915,7 +2654,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="1"/>
@@ -2927,11 +2666,11 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="5">
+    <row r="5" spans="1:20">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="2"/>
@@ -2944,7 +2683,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="1"/>
@@ -2956,11 +2695,11 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:20">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="2">
@@ -2977,7 +2716,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="M6" s="1"/>
@@ -2989,18 +2728,18 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="5">
+    <row r="7" spans="1:20">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
       <c r="D7" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -3010,8 +2749,8 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -3022,18 +2761,18 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="5">
+    <row r="8" spans="1:20">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3043,8 +2782,8 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -3055,11 +2794,11 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="5">
+    <row r="9" spans="1:20">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="2"/>
@@ -3074,7 +2813,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M9" s="1"/>
@@ -3086,18 +2825,18 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="5">
+    <row r="10" spans="1:20">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="2">
         <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3107,8 +2846,8 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2">
-        <f t="shared" ref="L10:L13" si="3">SUM(C10:K10)</f>
-        <v>9</v>
+        <f t="shared" ref="L10:L13" si="1">SUM(C10:K10)</f>
+        <v>16</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -3119,15 +2858,17 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="5">
+    <row r="11" spans="1:20">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3136,8 +2877,8 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -3148,11 +2889,11 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="5">
+    <row r="12" spans="1:20">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="2"/>
@@ -3165,7 +2906,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M12" s="1"/>
@@ -3177,18 +2918,18 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="5">
+    <row r="13" spans="1:20">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
       </c>
       <c r="D13" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -3198,8 +2939,8 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -3211,67 +2952,23 @@
       <c r="T13" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{000F0052-00D5-4454-8A65-003800D600C1}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00090057-00C4-4BDF-9818-0031000E00AB}">
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{007D00EF-0099-4B4E-B08B-003B00EC0024}">
-            <xm:f>"#"</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26212"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_1D464F7CD1065913AEC53E1E5FFED15354D271EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4890C7E-6044-4455-A1EA-0ADF44BC7881}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_1D464F7CD1065913AEC53E1E5FFED15354D271EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4EF49A7-3ED5-4344-B9B3-D02ADFF7E0FD}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -83,10 +83,10 @@
     <t>+</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Воскобейников Даниил</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Галицкая Каролина</t>
@@ -646,7 +646,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -681,7 +681,9 @@
       <c r="H1" s="3">
         <v>44963</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="3">
+        <v>44972</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -719,7 +721,9 @@
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -737,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -755,9 +759,11 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -790,12 +796,14 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -819,10 +827,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>3</v>
@@ -831,9 +839,11 @@
         <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -871,7 +881,9 @@
       <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -895,21 +907,23 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -947,7 +961,9 @@
       <c r="H8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -968,7 +984,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
@@ -985,7 +1001,9 @@
       <c r="H9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1009,10 +1027,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>3</v>
@@ -1023,7 +1041,9 @@
       <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1059,9 +1079,11 @@
         <v>3</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1097,9 +1119,11 @@
         <v>3</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1137,7 +1161,9 @@
       <c r="H13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1161,21 +1187,23 @@
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1213,7 +1241,9 @@
       <c r="H15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1249,9 +1279,11 @@
         <v>3</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1281,7 +1313,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>3</v>
@@ -1289,7 +1321,9 @@
       <c r="H17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1421,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1882,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1920,7 +1954,9 @@
       <c r="I1" s="3">
         <v>44967</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="3">
+        <v>44973</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1940,13 +1976,13 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -1960,7 +1996,9 @@
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -2000,7 +2038,9 @@
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -2020,13 +2060,13 @@
         <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
@@ -2035,12 +2075,14 @@
         <v>3</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -2060,27 +2102,29 @@
         <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -2118,9 +2162,11 @@
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2158,9 +2204,11 @@
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2198,9 +2246,11 @@
         <v>3</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2220,13 +2270,13 @@
         <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>3</v>
@@ -2238,9 +2288,11 @@
         <v>3</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2266,7 +2318,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>3</v>
@@ -2280,7 +2332,9 @@
       <c r="I10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2312,15 +2366,17 @@
         <v>3</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2346,10 +2402,10 @@
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>3</v>
@@ -2358,9 +2414,11 @@
         <v>3</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -2395,12 +2453,14 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2517,8 +2577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26223"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_1D464F7CD1065913AEC53E1E5FFED15354D271EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4EF49A7-3ED5-4344-B9B3-D02ADFF7E0FD}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="11_1D464F7CD1065913AEC53E1E5FFED15354D271EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0D0A94E-3738-4882-BDA1-2A0D8405601E}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -204,10 +204,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -220,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -243,11 +254,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,6 +285,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -646,7 +681,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -656,7 +691,7 @@
     <col min="3" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,9 +719,15 @@
       <c r="I1" s="3">
         <v>44972</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="J1" s="5">
+        <v>44973</v>
+      </c>
+      <c r="K1" s="3">
+        <v>44977</v>
+      </c>
+      <c r="L1" s="7">
+        <v>44984</v>
+      </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -696,7 +737,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" ht="15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -724,9 +765,15 @@
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="J2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>-15</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -736,7 +783,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" ht="15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -764,9 +811,15 @@
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="J3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2">
+        <v>-15</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -776,7 +829,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" ht="15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -804,9 +857,15 @@
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2">
+        <v>-15</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -816,7 +875,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" ht="15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -844,9 +903,15 @@
       <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="J5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2">
+        <v>10</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -856,7 +921,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" ht="15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -884,9 +949,15 @@
       <c r="I6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="J6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>10</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -896,7 +967,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" ht="15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -924,9 +995,15 @@
       <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="J7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -936,7 +1013,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" ht="15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -964,9 +1041,15 @@
       <c r="I8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="J8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="2">
+        <v>10</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -976,7 +1059,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" ht="15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1004,9 +1087,15 @@
       <c r="I9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="J9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2">
+        <v>10</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1016,7 +1105,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" ht="15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1044,9 +1133,15 @@
       <c r="I10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="J10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="2">
+        <v>-15</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1056,7 +1151,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" ht="15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1084,9 +1179,15 @@
       <c r="I11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="J11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2">
+        <v>-15</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1096,7 +1197,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" ht="15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1124,9 +1225,15 @@
       <c r="I12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="J12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="2">
+        <v>10</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1136,7 +1243,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" ht="15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1164,9 +1271,15 @@
       <c r="I13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="J13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2">
+        <v>10</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1176,7 +1289,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" ht="15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1204,9 +1317,15 @@
       <c r="I14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="J14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="2">
+        <v>-15</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1216,7 +1335,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" ht="15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1244,9 +1363,15 @@
       <c r="I15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="J15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="2">
+        <v>10</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1256,7 +1381,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" ht="15">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1284,9 +1409,15 @@
       <c r="I16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="J16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="2">
+        <v>10</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1296,7 +1427,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" ht="15">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1324,9 +1455,15 @@
       <c r="I17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="J17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="2">
+        <v>-15</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1362,7 +1499,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E27" sqref="E1:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1486,7 +1623,9 @@
         <v>6</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1496,7 +1635,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1543,7 +1682,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1554,7 +1693,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1600,7 +1739,9 @@
         <v>11</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1610,7 +1751,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1717,7 +1858,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1728,7 +1869,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1749,7 +1890,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1760,7 +1901,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1778,7 +1919,9 @@
         <v>17</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1788,7 +1931,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1809,7 +1952,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1820,7 +1963,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1869,7 +2012,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1880,7 +2023,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1916,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1926,7 +2069,7 @@
     <col min="2" max="2" width="20.85546875" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1957,7 +2100,9 @@
       <c r="J1" s="3">
         <v>44973</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="7">
+        <v>44974</v>
+      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -1999,7 +2144,9 @@
       <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2">
+        <v>10</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -2041,7 +2188,9 @@
       <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="2">
+        <v>10</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -2083,7 +2232,9 @@
       <c r="J4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2">
+        <v>-15</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2125,7 +2276,9 @@
       <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <v>10</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2167,7 +2320,9 @@
       <c r="J6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2">
+        <v>10</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -2209,7 +2364,9 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <v>10</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2251,7 +2408,9 @@
       <c r="J8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>10</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2293,7 +2452,9 @@
       <c r="J9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>10</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2335,7 +2496,9 @@
       <c r="J10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2377,7 +2540,9 @@
       <c r="J11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>10</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2419,7 +2584,9 @@
       <c r="J12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>-15</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2461,7 +2628,9 @@
       <c r="J13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>10</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2577,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2677,7 +2846,9 @@
       <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2686,7 +2857,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -2796,7 +2967,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -2810,7 +2981,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26223"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="152" documentId="11_1D464F7CD1065913AEC53E1E5FFED15354D271EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0D0A94E-3738-4882-BDA1-2A0D8405601E}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="11_1D464F7CD1065913AEC53E1E5FFED15354D271EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FF655F9-A257-4B99-95DE-9CC508504E21}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -2059,7 +2059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -2746,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3162,7 +3162,9 @@
       <c r="D13" s="2">
         <v>10</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -3171,7 +3173,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26228"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="153" documentId="11_1D464F7CD1065913AEC53E1E5FFED15354D271EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FF655F9-A257-4B99-95DE-9CC508504E21}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="11_1D464F7CD1065913AEC53E1E5FFED15354D271EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73C8848D-11AF-4871-96FF-73463EE7B6BC}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -33,16 +33,43 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={D15E3129-A587-4B9E-89B2-86A7E0B21694}</author>
+    <author>tc={F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}</author>
     <author>tc={CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}</author>
+    <author>tc={8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}</author>
   </authors>
   <commentList>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{D15E3129-A587-4B9E-89B2-86A7E0B21694}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Сдал поезда</t>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="1" shapeId="0" xr:uid="{F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Сдал поезда</t>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="2" shapeId="0" xr:uid="{CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Сдала 1 и 3
 </t>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="3" shapeId="0" xr:uid="{8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Сдал поезда</t>
       </text>
     </comment>
   </commentList>
@@ -447,6 +474,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="thebandik" id="{66B56C99-B747-CFC8-7617-ABD175ACABDA}" userId="thebandik" providerId="Teamlab"/>
+  <person displayName="Шнейдер Аркадий" id="{DC72C204-1DF8-4D5E-BFDE-FFDCEC64DD41}" userId="e7f73a7754f73684" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -660,9 +688,18 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C5" dT="2023-03-02T06:25:52.72" personId="{DC72C204-1DF8-4D5E-BFDE-FFDCEC64DD41}" id="{D15E3129-A587-4B9E-89B2-86A7E0B21694}">
+    <text>Сдал поезда</text>
+  </threadedComment>
+  <threadedComment ref="C12" dT="2023-03-02T06:26:04.36" personId="{DC72C204-1DF8-4D5E-BFDE-FFDCEC64DD41}" id="{F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}">
+    <text>Сдал поезда</text>
+  </threadedComment>
   <threadedComment ref="C13" dT="2023-01-22T23:53:31.43" personId="{66B56C99-B747-CFC8-7617-ABD175ACABDA}" id="{CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}">
     <text xml:space="preserve">Сдала 1 и 3
 </text>
+  </threadedComment>
+  <threadedComment ref="C17" dT="2023-03-02T06:26:08.11" personId="{DC72C204-1DF8-4D5E-BFDE-FFDCEC64DD41}" id="{8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}">
+    <text>Сдал поезда</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -680,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -728,7 +765,9 @@
       <c r="L1" s="7">
         <v>44984</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="3">
+        <v>44987</v>
+      </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -774,7 +813,9 @@
       <c r="L2" s="2">
         <v>-15</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" s="2">
+        <v>15</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -818,9 +859,11 @@
         <v>4</v>
       </c>
       <c r="L3" s="2">
-        <v>-15</v>
-      </c>
-      <c r="M3" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>-10</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -866,7 +909,9 @@
       <c r="L4" s="2">
         <v>-15</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2">
+        <v>-10</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -912,7 +957,9 @@
       <c r="L5" s="2">
         <v>10</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2">
+        <v>15</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -958,7 +1005,9 @@
       <c r="L6" s="2">
         <v>10</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1004,7 +1053,9 @@
       <c r="L7" s="2">
         <v>10</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2">
+        <v>15</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -1050,7 +1101,9 @@
       <c r="L8" s="2">
         <v>10</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2">
+        <v>15</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1096,7 +1149,9 @@
       <c r="L9" s="2">
         <v>10</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2">
+        <v>15</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1140,9 +1195,11 @@
         <v>3</v>
       </c>
       <c r="L10" s="2">
-        <v>-15</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>15</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1188,7 +1245,9 @@
       <c r="L11" s="2">
         <v>-15</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2">
+        <v>15</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -1234,7 +1293,9 @@
       <c r="L12" s="2">
         <v>10</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="2">
+        <v>15</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -1280,7 +1341,9 @@
       <c r="L13" s="2">
         <v>10</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2">
+        <v>15</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -1326,7 +1389,9 @@
       <c r="L14" s="2">
         <v>-15</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="2">
+        <v>15</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -1372,7 +1437,9 @@
       <c r="L15" s="2">
         <v>10</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" s="2">
+        <v>15</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -1418,7 +1485,9 @@
       <c r="L16" s="2">
         <v>10</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" s="2">
+        <v>15</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -1464,7 +1533,9 @@
       <c r="L17" s="2">
         <v>-15</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" s="2">
+        <v>-10</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -1499,7 +1570,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E1:F27"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1568,7 +1639,9 @@
       <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1577,7 +1650,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2">
         <f t="shared" ref="L2:L9" si="0">SUM(C2:K2)</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1622,7 +1695,9 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
       <c r="D4" s="2">
         <v>3</v>
       </c>
@@ -1635,7 +1710,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1652,8 +1727,12 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1663,7 +1742,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1796,8 +1875,12 @@
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1807,7 +1890,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2">
         <f t="shared" ref="L10:L17" si="1">SUM(C10:K10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1856,9 +1939,11 @@
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
       <c r="D12" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1869,7 +1954,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1982,7 +2067,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1993,7 +2078,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -2010,9 +2095,11 @@
       <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
       <c r="D17" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2023,7 +2110,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -2059,8 +2146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2103,7 +2190,9 @@
       <c r="K1" s="7">
         <v>44974</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="3">
+        <v>44987</v>
+      </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -2147,7 +2236,9 @@
       <c r="K2" s="2">
         <v>10</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2">
+        <v>15</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2191,7 +2282,9 @@
       <c r="K3" s="2">
         <v>10</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2">
+        <v>15</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2235,7 +2328,9 @@
       <c r="K4" s="2">
         <v>-15</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2">
+        <v>15</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2279,7 +2374,9 @@
       <c r="K5" s="2">
         <v>10</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2">
+        <v>-10</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2323,7 +2420,9 @@
       <c r="K6" s="2">
         <v>10</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2">
+        <v>-10</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -2367,7 +2466,9 @@
       <c r="K7" s="2">
         <v>10</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2">
+        <v>15</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2411,7 +2512,9 @@
       <c r="K8" s="2">
         <v>10</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2">
+        <v>15</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2455,7 +2558,9 @@
       <c r="K9" s="2">
         <v>10</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2">
+        <v>15</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2499,7 +2604,9 @@
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2">
+        <v>15</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2543,7 +2650,9 @@
       <c r="K11" s="2">
         <v>10</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2">
+        <v>15</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2587,7 +2696,9 @@
       <c r="K12" s="2">
         <v>-15</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2">
+        <v>15</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2631,7 +2742,9 @@
       <c r="K13" s="2">
         <v>10</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="2">
+        <v>15</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2747,7 +2860,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="202" documentId="11_1D464F7CD1065913AEC53E1E5FFED15354D271EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73C8848D-11AF-4871-96FF-73463EE7B6BC}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="11_1D464F7CD1065913AEC53E1E5FFED15354D271EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F75AC354-8DBF-4DFF-A82D-180CF4B7FECB}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,6 @@
   <authors>
     <author>tc={D15E3129-A587-4B9E-89B2-86A7E0B21694}</author>
     <author>tc={F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}</author>
-    <author>tc={CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}</author>
     <author>tc={8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}</author>
   </authors>
   <commentList>
@@ -55,16 +54,7 @@
     Сдал поезда</t>
       </text>
     </comment>
-    <comment ref="C13" authorId="2" shapeId="0" xr:uid="{CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Сдала 1 и 3
-</t>
-      </text>
-    </comment>
-    <comment ref="C17" authorId="3" shapeId="0" xr:uid="{8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}">
+    <comment ref="C17" authorId="2" shapeId="0" xr:uid="{8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -84,11 +74,12 @@
   <commentList>
     <comment ref="C8" authorId="0" shapeId="0" xr:uid="{CF87C06E-054A-3430-9690-B2DC92749971}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Сдала 1 и 3
-</t>
+Reply:
+    Сдала 2</t>
       </text>
     </comment>
   </commentList>
@@ -96,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -173,6 +164,45 @@
     <t>Regex</t>
   </si>
   <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>Бегун Анастасия</t>
+  </si>
+  <si>
+    <t>Буров Владислав</t>
+  </si>
+  <si>
+    <t>Вецан Дмитрий</t>
+  </si>
+  <si>
+    <t>Даниляк Михаил</t>
+  </si>
+  <si>
+    <t>Кван Максим</t>
+  </si>
+  <si>
+    <t>Кляченков Дмитрий</t>
+  </si>
+  <si>
+    <t>Крапивина Софья</t>
+  </si>
+  <si>
+    <t>Кузьменко Олег</t>
+  </si>
+  <si>
+    <t>Манаенков Александр</t>
+  </si>
+  <si>
+    <t>Черепков Ярослав</t>
+  </si>
+  <si>
+    <t>Шальнов Данил</t>
+  </si>
+  <si>
+    <t>Шевцов Никита</t>
+  </si>
+  <si>
     <t>Threads</t>
   </si>
   <si>
@@ -186,45 +216,6 @@
   </si>
   <si>
     <t>DS</t>
-  </si>
-  <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Бегун Анастасия</t>
-  </si>
-  <si>
-    <t>Буров Владислав</t>
-  </si>
-  <si>
-    <t>Вецан Дмитрий</t>
-  </si>
-  <si>
-    <t>Даниляк Михаил</t>
-  </si>
-  <si>
-    <t>Кван Максим</t>
-  </si>
-  <si>
-    <t>Кляченков Дмитрий</t>
-  </si>
-  <si>
-    <t>Крапивина Софья</t>
-  </si>
-  <si>
-    <t>Кузьменко Олег</t>
-  </si>
-  <si>
-    <t>Манаенков Александр</t>
-  </si>
-  <si>
-    <t>Черепков Ярослав</t>
-  </si>
-  <si>
-    <t>Шальнов Данил</t>
-  </si>
-  <si>
-    <t>Шевцов Никита</t>
   </si>
 </sst>
 </file>
@@ -694,10 +685,6 @@
   <threadedComment ref="C12" dT="2023-03-02T06:26:04.36" personId="{DC72C204-1DF8-4D5E-BFDE-FFDCEC64DD41}" id="{F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}">
     <text>Сдал поезда</text>
   </threadedComment>
-  <threadedComment ref="C13" dT="2023-01-22T23:53:31.43" personId="{66B56C99-B747-CFC8-7617-ABD175ACABDA}" id="{CB4AE191-A4A4-BA1E-3B8C-15E8E24D3252}">
-    <text xml:space="preserve">Сдала 1 и 3
-</text>
-  </threadedComment>
   <threadedComment ref="C17" dT="2023-03-02T06:26:08.11" personId="{DC72C204-1DF8-4D5E-BFDE-FFDCEC64DD41}" id="{8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}">
     <text>Сдал поезда</text>
   </threadedComment>
@@ -710,6 +697,9 @@
     <text xml:space="preserve">Сдала 1 и 3
 </text>
   </threadedComment>
+  <threadedComment ref="C8" dT="2023-03-02T23:55:22.37" personId="{DC72C204-1DF8-4D5E-BFDE-FFDCEC64DD41}" id="{5E69BA66-0A3A-494E-8138-415766AD7FBF}" parentId="{CF87C06E-054A-3430-9690-B2DC92749971}">
+    <text>Сдала 2</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -717,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -768,7 +758,9 @@
       <c r="M1" s="3">
         <v>44987</v>
       </c>
-      <c r="N1" s="2"/>
+      <c r="N1" s="3">
+        <v>44991</v>
+      </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -816,7 +808,9 @@
       <c r="M2" s="2">
         <v>15</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" s="2">
+        <v>10</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -864,7 +858,9 @@
       <c r="M3" s="2">
         <v>-10</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="2">
+        <v>10</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -912,7 +908,9 @@
       <c r="M4" s="2">
         <v>-10</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="2">
+        <v>-15</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -960,7 +958,9 @@
       <c r="M5" s="2">
         <v>15</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" s="2">
+        <v>10</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1008,7 +1008,9 @@
       <c r="M6" s="2">
         <v>0</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2">
+        <v>10</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1056,7 +1058,9 @@
       <c r="M7" s="2">
         <v>15</v>
       </c>
-      <c r="N7" s="2"/>
+      <c r="N7" s="2">
+        <v>10</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1104,7 +1108,9 @@
       <c r="M8" s="2">
         <v>15</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="2">
+        <v>-15</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1152,7 +1158,9 @@
       <c r="M9" s="2">
         <v>15</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2">
+        <v>10</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1200,7 +1208,9 @@
       <c r="M10" s="2">
         <v>15</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" s="2">
+        <v>10</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1248,7 +1258,9 @@
       <c r="M11" s="2">
         <v>15</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" s="2">
+        <v>10</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1296,7 +1308,9 @@
       <c r="M12" s="2">
         <v>15</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" s="2">
+        <v>10</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1344,7 +1358,9 @@
       <c r="M13" s="2">
         <v>15</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" s="2">
+        <v>10</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1392,7 +1408,9 @@
       <c r="M14" s="2">
         <v>15</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" s="2">
+        <v>-15</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1440,7 +1458,9 @@
       <c r="M15" s="2">
         <v>15</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" s="2">
+        <v>-15</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1488,7 +1508,9 @@
       <c r="M16" s="2">
         <v>15</v>
       </c>
-      <c r="N16" s="2"/>
+      <c r="N16" s="2">
+        <v>-15</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1536,7 +1558,9 @@
       <c r="M17" s="2">
         <v>-10</v>
       </c>
-      <c r="N17" s="2"/>
+      <c r="N17" s="2">
+        <v>-15</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -1569,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1600,23 +1624,13 @@
       <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1972,7 +1986,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
@@ -1986,7 +2000,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2147,7 +2161,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2193,7 +2207,9 @@
       <c r="L1" s="3">
         <v>44987</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="3">
+        <v>44988</v>
+      </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -2207,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -2239,7 +2255,9 @@
       <c r="L2" s="2">
         <v>15</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" s="2">
+        <v>-15</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -2253,7 +2271,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -2285,7 +2303,9 @@
       <c r="L3" s="2">
         <v>15</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2">
+        <v>10</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -2299,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -2331,7 +2351,9 @@
       <c r="L4" s="2">
         <v>15</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2">
+        <v>-15</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -2345,7 +2367,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -2377,7 +2399,9 @@
       <c r="L5" s="2">
         <v>-10</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2">
+        <v>-15</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -2391,7 +2415,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -2423,7 +2447,9 @@
       <c r="L6" s="2">
         <v>-10</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2">
+        <v>10</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -2437,7 +2463,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -2469,7 +2495,9 @@
       <c r="L7" s="2">
         <v>15</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2">
+        <v>10</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -2483,7 +2511,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -2515,7 +2543,9 @@
       <c r="L8" s="2">
         <v>15</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2">
+        <v>10</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -2529,7 +2559,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -2561,7 +2591,9 @@
       <c r="L9" s="2">
         <v>15</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2">
+        <v>-15</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2575,7 +2607,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -2607,7 +2639,9 @@
       <c r="L10" s="2">
         <v>15</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2">
+        <v>10</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -2621,7 +2655,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
@@ -2653,7 +2687,9 @@
       <c r="L11" s="2">
         <v>15</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2">
+        <v>10</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -2667,7 +2703,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -2688,10 +2724,10 @@
         <v>3</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K12" s="2">
         <v>-15</v>
@@ -2699,7 +2735,9 @@
       <c r="L12" s="2">
         <v>15</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="2">
+        <v>10</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -2713,7 +2751,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -2745,7 +2783,9 @@
       <c r="L13" s="2">
         <v>15</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2">
+        <v>10</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -2860,7 +2900,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2889,22 +2929,22 @@
         <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -2920,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
@@ -2951,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
@@ -2986,7 +3026,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3015,7 +3055,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3044,7 +3084,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -3077,7 +3117,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
@@ -3110,10 +3150,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
@@ -3127,7 +3167,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -3143,7 +3183,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -3174,10 +3214,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2">
         <v>10</v>
@@ -3191,7 +3231,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2">
         <f t="shared" ref="L10:L13" si="1">SUM(C10:K10)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -3207,7 +3247,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -3238,7 +3278,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3267,7 +3307,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
@@ -3278,7 +3318,9 @@
       <c r="E13" s="2">
         <v>10</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -3286,7 +3328,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26307"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="246" documentId="11_1D464F7CD1065913AEC53E1E5FFED15354D271EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F75AC354-8DBF-4DFF-A82D-180CF4B7FECB}"/>
+  <xr:revisionPtr revIDLastSave="306" documentId="11_1D464F7CD1065913AEC53E1E5FFED15354D271EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D77D51A2-06A6-40BB-ABA4-28D08A74D635}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={D15E3129-A587-4B9E-89B2-86A7E0B21694}</author>
+    <author>tc={91DF5CFC-99A4-49CD-9F1E-EFF5F645B674}</author>
     <author>tc={F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}</author>
     <author>tc={8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}</author>
   </authors>
@@ -46,7 +47,15 @@
     Сдал поезда</t>
       </text>
     </comment>
-    <comment ref="C12" authorId="1" shapeId="0" xr:uid="{F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}">
+    <comment ref="C10" authorId="1" shapeId="0" xr:uid="{91DF5CFC-99A4-49CD-9F1E-EFF5F645B674}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Сдал 1 и 4</t>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="2" shapeId="0" xr:uid="{F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +63,7 @@
     Сдал поезда</t>
       </text>
     </comment>
-    <comment ref="C17" authorId="2" shapeId="0" xr:uid="{8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}">
+    <comment ref="C17" authorId="3" shapeId="0" xr:uid="{8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -682,6 +691,9 @@
   <threadedComment ref="C5" dT="2023-03-02T06:25:52.72" personId="{DC72C204-1DF8-4D5E-BFDE-FFDCEC64DD41}" id="{D15E3129-A587-4B9E-89B2-86A7E0B21694}">
     <text>Сдал поезда</text>
   </threadedComment>
+  <threadedComment ref="C10" dT="2023-03-12T23:55:08.83" personId="{DC72C204-1DF8-4D5E-BFDE-FFDCEC64DD41}" id="{91DF5CFC-99A4-49CD-9F1E-EFF5F645B674}">
+    <text>Сдал 1 и 4</text>
+  </threadedComment>
   <threadedComment ref="C12" dT="2023-03-02T06:26:04.36" personId="{DC72C204-1DF8-4D5E-BFDE-FFDCEC64DD41}" id="{F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}">
     <text>Сдал поезда</text>
   </threadedComment>
@@ -708,7 +720,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -761,7 +773,9 @@
       <c r="N1" s="3">
         <v>44991</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="3">
+        <v>44998</v>
+      </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -811,7 +825,9 @@
       <c r="N2" s="2">
         <v>10</v>
       </c>
-      <c r="O2" s="2"/>
+      <c r="O2" s="2">
+        <v>10</v>
+      </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -861,7 +877,9 @@
       <c r="N3" s="2">
         <v>10</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="2">
+        <v>10</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -911,7 +929,9 @@
       <c r="N4" s="2">
         <v>-15</v>
       </c>
-      <c r="O4" s="2"/>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -961,7 +981,9 @@
       <c r="N5" s="2">
         <v>10</v>
       </c>
-      <c r="O5" s="2"/>
+      <c r="O5" s="2">
+        <v>10</v>
+      </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1011,7 +1033,9 @@
       <c r="N6" s="2">
         <v>10</v>
       </c>
-      <c r="O6" s="2"/>
+      <c r="O6" s="2">
+        <v>10</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -1061,7 +1085,9 @@
       <c r="N7" s="2">
         <v>10</v>
       </c>
-      <c r="O7" s="2"/>
+      <c r="O7" s="2">
+        <v>-15</v>
+      </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1111,7 +1137,9 @@
       <c r="N8" s="2">
         <v>-15</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2">
+        <v>10</v>
+      </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1161,7 +1189,9 @@
       <c r="N9" s="2">
         <v>10</v>
       </c>
-      <c r="O9" s="2"/>
+      <c r="O9" s="2">
+        <v>-15</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1211,7 +1241,9 @@
       <c r="N10" s="2">
         <v>10</v>
       </c>
-      <c r="O10" s="2"/>
+      <c r="O10" s="2">
+        <v>10</v>
+      </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1261,7 +1293,9 @@
       <c r="N11" s="2">
         <v>10</v>
       </c>
-      <c r="O11" s="2"/>
+      <c r="O11" s="2">
+        <v>-15</v>
+      </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1311,7 +1345,9 @@
       <c r="N12" s="2">
         <v>10</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" s="2">
+        <v>-15</v>
+      </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1361,7 +1397,9 @@
       <c r="N13" s="2">
         <v>10</v>
       </c>
-      <c r="O13" s="2"/>
+      <c r="O13" s="2">
+        <v>10</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1411,7 +1449,9 @@
       <c r="N14" s="2">
         <v>-15</v>
       </c>
-      <c r="O14" s="2"/>
+      <c r="O14" s="2">
+        <v>-15</v>
+      </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1461,7 +1501,9 @@
       <c r="N15" s="2">
         <v>-15</v>
       </c>
-      <c r="O15" s="2"/>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1511,7 +1553,9 @@
       <c r="N16" s="2">
         <v>-15</v>
       </c>
-      <c r="O16" s="2"/>
+      <c r="O16" s="2">
+        <v>-15</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1561,7 +1605,9 @@
       <c r="N17" s="2">
         <v>-15</v>
       </c>
-      <c r="O17" s="2"/>
+      <c r="O17" s="2">
+        <v>10</v>
+      </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1591,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1656,7 +1702,9 @@
       <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1664,7 +1712,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2">
         <f t="shared" ref="L2:L9" si="0">SUM(C2:K2)</f>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1715,8 +1763,12 @@
       <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1724,7 +1776,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1890,7 +1942,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
@@ -1904,7 +1956,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2">
         <f t="shared" ref="L10:L17" si="1">SUM(C10:K10)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1991,7 +2043,9 @@
       <c r="D13" s="2">
         <v>10</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -2000,7 +2054,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2133,6 +2187,16 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="G21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="G22">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17">
@@ -2160,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2210,8 +2274,12 @@
       <c r="M1" s="3">
         <v>44988</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="N1" s="3">
+        <v>44995</v>
+      </c>
+      <c r="O1" s="3">
+        <v>44999</v>
+      </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -2258,8 +2326,12 @@
       <c r="M2" s="2">
         <v>-15</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="N2" s="2">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2">
+        <v>10</v>
+      </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -2306,8 +2378,12 @@
       <c r="M3" s="2">
         <v>10</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="N3" s="2">
+        <v>10</v>
+      </c>
+      <c r="O3" s="2">
+        <v>10</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -2354,8 +2430,12 @@
       <c r="M4" s="2">
         <v>-15</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="N4" s="2">
+        <v>-15</v>
+      </c>
+      <c r="O4" s="2">
+        <v>10</v>
+      </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -2402,8 +2482,12 @@
       <c r="M5" s="2">
         <v>-15</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="N5" s="2">
+        <v>-15</v>
+      </c>
+      <c r="O5" s="2">
+        <v>-15</v>
+      </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -2450,8 +2534,12 @@
       <c r="M6" s="2">
         <v>10</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="N6" s="2">
+        <v>-15</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -2498,8 +2586,12 @@
       <c r="M7" s="2">
         <v>10</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="N7" s="2">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -2546,8 +2638,12 @@
       <c r="M8" s="2">
         <v>10</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="N8" s="2">
+        <v>10</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -2594,8 +2690,12 @@
       <c r="M9" s="2">
         <v>-15</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="N9" s="2">
+        <v>10</v>
+      </c>
+      <c r="O9" s="2">
+        <v>10</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -2642,8 +2742,12 @@
       <c r="M10" s="2">
         <v>10</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="N10" s="2">
+        <v>10</v>
+      </c>
+      <c r="O10" s="2">
+        <v>10</v>
+      </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -2690,8 +2794,12 @@
       <c r="M11" s="2">
         <v>10</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="N11" s="2">
+        <v>10</v>
+      </c>
+      <c r="O11" s="2">
+        <v>10</v>
+      </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -2738,8 +2846,12 @@
       <c r="M12" s="2">
         <v>10</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="N12" s="2">
+        <v>10</v>
+      </c>
+      <c r="O12" s="2">
+        <v>10</v>
+      </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -2786,8 +2898,12 @@
       <c r="M13" s="2">
         <v>10</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="N13" s="2">
+        <v>10</v>
+      </c>
+      <c r="O13" s="2">
+        <v>10</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -2900,7 +3016,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3222,8 +3338,12 @@
       <c r="D10" s="2">
         <v>10</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -3231,7 +3351,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2">
         <f t="shared" ref="L10:L13" si="1">SUM(C10:K10)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -3319,7 +3439,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -3328,7 +3448,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="306" documentId="11_1D464F7CD1065913AEC53E1E5FFED15354D271EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D77D51A2-06A6-40BB-ABA4-28D08A74D635}"/>
+  <xr:revisionPtr revIDLastSave="362" documentId="11_1D464F7CD1065913AEC53E1E5FFED15354D271EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28873A73-B679-4F59-814D-8EDCBF1EDC26}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="44">
   <si>
     <t>№</t>
   </si>
@@ -173,6 +173,24 @@
     <t>Regex</t>
   </si>
   <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>SQL+PL</t>
+  </si>
+  <si>
+    <t>ORM</t>
+  </si>
+  <si>
+    <t>Проект</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
     <t>Итог</t>
   </si>
   <si>
@@ -210,21 +228,6 @@
   </si>
   <si>
     <t>Шевцов Никита</t>
-  </si>
-  <si>
-    <t>Threads</t>
-  </si>
-  <si>
-    <t>IterGen</t>
-  </si>
-  <si>
-    <t>DB</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>DS</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -296,11 +299,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,6 +376,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -720,7 +790,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -776,8 +846,12 @@
       <c r="O1" s="3">
         <v>44998</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="P1" s="3">
+        <v>45001</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>45001</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -828,8 +902,12 @@
       <c r="O2" s="2">
         <v>10</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="P2" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -880,8 +958,12 @@
       <c r="O3" s="2">
         <v>10</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="P3" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>10</v>
+      </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -932,8 +1014,12 @@
       <c r="O4" s="2">
         <v>0</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="P4" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>-15</v>
+      </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -984,8 +1070,12 @@
       <c r="O5" s="2">
         <v>10</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="P5" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>-15</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -1036,8 +1126,12 @@
       <c r="O6" s="2">
         <v>10</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="P6" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>10</v>
+      </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -1088,8 +1182,12 @@
       <c r="O7" s="2">
         <v>-15</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="P7" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>10</v>
+      </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -1135,13 +1233,17 @@
         <v>15</v>
       </c>
       <c r="N8" s="2">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>10</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="P8" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>10</v>
+      </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1192,8 +1294,12 @@
       <c r="O9" s="2">
         <v>-15</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="P9" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>10</v>
+      </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -1244,8 +1350,12 @@
       <c r="O10" s="2">
         <v>10</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="P10" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>10</v>
+      </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -1296,8 +1406,12 @@
       <c r="O11" s="2">
         <v>-15</v>
       </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="P11" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>10</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -1348,8 +1462,12 @@
       <c r="O12" s="2">
         <v>-15</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="P12" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>10</v>
+      </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -1400,8 +1518,12 @@
       <c r="O13" s="2">
         <v>10</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="P13" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>10</v>
+      </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -1450,10 +1572,14 @@
         <v>-15</v>
       </c>
       <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="6">
         <v>-15</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -1504,8 +1630,12 @@
       <c r="O15" s="2">
         <v>0</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="P15" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>10</v>
+      </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -1556,8 +1686,12 @@
       <c r="O16" s="2">
         <v>-15</v>
       </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="P16" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>10</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -1608,8 +1742,12 @@
       <c r="O17" s="2">
         <v>10</v>
       </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+      <c r="P17" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>10</v>
+      </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -1637,17 +1775,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1"/>
+    <col min="12" max="12" width="9.85546875" style="1" bestFit="1"/>
     <col min="20" max="20" width="9.85546875" bestFit="1"/>
   </cols>
   <sheetData>
@@ -1670,15 +1808,27 @@
       <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -1709,12 +1859,12 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2">
-        <f t="shared" ref="L2:L9" si="0">SUM(C2:K2)</f>
+      <c r="K2" s="9"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="10">
+        <f>SUM(C2:L2)</f>
         <v>33</v>
       </c>
-      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1737,12 +1887,12 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <f t="shared" si="0"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M17" si="0">SUM(C3:L3)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1773,12 +1923,12 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2">
+      <c r="K4" s="9"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1805,12 +1955,12 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2">
+      <c r="K5" s="9"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1835,12 +1985,12 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2">
+      <c r="K6" s="9"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1863,12 +2013,12 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2">
+      <c r="K7" s="9"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1885,7 +2035,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1893,12 +2043,12 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2">
+      <c r="K8" s="9"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M8" s="1"/>
+        <v>6</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1921,12 +2071,12 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2">
+      <c r="K9" s="9"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1953,12 +2103,12 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2">
-        <f t="shared" ref="L10:L17" si="1">SUM(C10:K10)</f>
+      <c r="K10" s="9"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="10">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1980,17 +2130,19 @@
         <v>3</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="M11" s="1"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2017,12 +2169,12 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2">
-        <f t="shared" si="1"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="10">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2051,12 +2203,12 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <f t="shared" si="1"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="10">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2081,12 +2233,12 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M14" s="1"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2113,12 +2265,12 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2">
-        <f t="shared" si="1"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="10">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2143,12 +2295,12 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M16" s="1"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2175,12 +2327,12 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2">
-        <f t="shared" si="1"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="10">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2188,28 +2340,18 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="21" spans="1:19">
-      <c r="G21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="G22">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17">
+  <conditionalFormatting sqref="C2:K17 M2:S17">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17">
+  <conditionalFormatting sqref="C2:K17 M2:S17">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:S2 C3:K14 M3:S14 C15:K15 M15:S15 C16:K16 M16:S16 C17:K17 M17:S17 L2 L3 L3 L4 L4 L5 L5 L6 L6 L7 L7 L8 L8 L9 L9 L10 L10 L11 L11 L12 L12 L13 L13 L14 L14 L15 L15 L16 L16 L17 L17">
+  <conditionalFormatting sqref="C2:K17 M2:S17">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>
@@ -2224,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2280,7 +2422,9 @@
       <c r="O1" s="3">
         <v>44999</v>
       </c>
-      <c r="P1" s="2"/>
+      <c r="P1" s="3">
+        <v>45001</v>
+      </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -2291,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -2332,7 +2476,9 @@
       <c r="O2" s="2">
         <v>10</v>
       </c>
-      <c r="P2" s="2"/>
+      <c r="P2" s="2">
+        <v>15</v>
+      </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -2343,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -2384,7 +2530,9 @@
       <c r="O3" s="2">
         <v>10</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="P3" s="2">
+        <v>15</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -2395,7 +2543,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -2436,7 +2584,9 @@
       <c r="O4" s="2">
         <v>10</v>
       </c>
-      <c r="P4" s="2"/>
+      <c r="P4" s="2">
+        <v>15</v>
+      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -2447,7 +2597,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -2488,7 +2638,9 @@
       <c r="O5" s="2">
         <v>-15</v>
       </c>
-      <c r="P5" s="2"/>
+      <c r="P5" s="2">
+        <v>-10</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -2499,7 +2651,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -2540,7 +2692,9 @@
       <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -2551,7 +2705,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -2592,7 +2746,9 @@
       <c r="O7" s="2">
         <v>0</v>
       </c>
-      <c r="P7" s="2"/>
+      <c r="P7" s="2">
+        <v>15</v>
+      </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -2603,7 +2759,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -2644,7 +2800,9 @@
       <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="P8" s="2">
+        <v>15</v>
+      </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -2655,7 +2813,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -2696,7 +2854,9 @@
       <c r="O9" s="2">
         <v>10</v>
       </c>
-      <c r="P9" s="2"/>
+      <c r="P9" s="2">
+        <v>-10</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -2707,7 +2867,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -2748,7 +2908,9 @@
       <c r="O10" s="2">
         <v>10</v>
       </c>
-      <c r="P10" s="2"/>
+      <c r="P10" s="2">
+        <v>15</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -2759,7 +2921,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
@@ -2800,7 +2962,9 @@
       <c r="O11" s="2">
         <v>10</v>
       </c>
-      <c r="P11" s="2"/>
+      <c r="P11" s="2">
+        <v>15</v>
+      </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -2811,7 +2975,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -2852,7 +3016,9 @@
       <c r="O12" s="2">
         <v>10</v>
       </c>
-      <c r="P12" s="2"/>
+      <c r="P12" s="2">
+        <v>15</v>
+      </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -2863,7 +3029,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -2904,7 +3070,9 @@
       <c r="O13" s="2">
         <v>10</v>
       </c>
-      <c r="P13" s="2"/>
+      <c r="P13" s="2">
+        <v>15</v>
+      </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -3016,7 +3184,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3045,24 +3213,26 @@
         <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3076,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
@@ -3088,12 +3258,12 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2">
-        <f t="shared" ref="L2:L9" si="0">SUM(C2:K2)</f>
-        <v>10</v>
-      </c>
-      <c r="M2" s="1"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10">
+        <f>SUM(C2:L2)</f>
+        <v>10</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -3107,7 +3277,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
@@ -3123,12 +3293,12 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <f t="shared" si="0"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M13" si="0">SUM(C3:L3)</f>
         <v>23</v>
       </c>
-      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -3142,7 +3312,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3152,12 +3322,12 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2">
+      <c r="K4" s="9"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -3171,7 +3341,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3181,12 +3351,12 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2">
+      <c r="K5" s="9"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -3200,7 +3370,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -3214,12 +3384,12 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2">
+      <c r="K6" s="9"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -3233,7 +3403,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
@@ -3242,17 +3412,19 @@
         <v>6</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2">
+      <c r="K7" s="9"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="10">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="M7" s="1"/>
+        <v>26</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -3266,7 +3438,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
@@ -3280,12 +3452,12 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2">
+      <c r="K8" s="9"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -3299,7 +3471,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -3311,12 +3483,12 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2">
+      <c r="K9" s="9"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -3330,7 +3502,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2">
         <v>10</v>
@@ -3348,12 +3520,12 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2">
-        <f t="shared" ref="L10:L13" si="1">SUM(C10:K10)</f>
+      <c r="K10" s="9"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="10">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -3367,7 +3539,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -3379,12 +3551,12 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M11" s="1"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -3398,9 +3570,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -3408,12 +3582,12 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="1"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -3427,7 +3601,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
@@ -3445,12 +3619,12 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <f t="shared" si="1"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="10">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -3460,17 +3634,17 @@
       <c r="T13" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13">
+  <conditionalFormatting sqref="C2:K13 M2:T13">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13">
+  <conditionalFormatting sqref="C2:K13 M2:T13">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:T2 C3:K13 M3:T13 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13">
+  <conditionalFormatting sqref="C2:K13 M2:T13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="362" documentId="11_1D464F7CD1065913AEC53E1E5FFED15354D271EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28873A73-B679-4F59-814D-8EDCBF1EDC26}"/>
+  <xr:revisionPtr revIDLastSave="378" documentId="11_1D464F7CD1065913AEC53E1E5FFED15354D271EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{952617EF-E1AB-492E-A95A-D68384A5C312}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -1777,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2198,7 +2198,9 @@
       <c r="E13" s="2">
         <v>10</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>12</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2207,7 +2209,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="10">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2366,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2425,7 +2427,9 @@
       <c r="P1" s="3">
         <v>45001</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="3">
+        <v>45002</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -2479,7 +2483,9 @@
       <c r="P2" s="2">
         <v>15</v>
       </c>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="2">
+        <v>10</v>
+      </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -2533,7 +2539,9 @@
       <c r="P3" s="2">
         <v>15</v>
       </c>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="2">
+        <v>10</v>
+      </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -2587,7 +2595,9 @@
       <c r="P4" s="2">
         <v>15</v>
       </c>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="2">
+        <v>-15</v>
+      </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -2641,7 +2651,9 @@
       <c r="P5" s="2">
         <v>-10</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2">
+        <v>-15</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -2695,7 +2707,9 @@
       <c r="P6" s="2">
         <v>0</v>
       </c>
-      <c r="Q6" s="2"/>
+      <c r="Q6" s="2">
+        <v>-15</v>
+      </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -2749,7 +2763,9 @@
       <c r="P7" s="2">
         <v>15</v>
       </c>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="2">
+        <v>10</v>
+      </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -2803,7 +2819,9 @@
       <c r="P8" s="2">
         <v>15</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2">
+        <v>10</v>
+      </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -2857,7 +2875,9 @@
       <c r="P9" s="2">
         <v>-10</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2">
+        <v>10</v>
+      </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -2911,7 +2931,9 @@
       <c r="P10" s="2">
         <v>15</v>
       </c>
-      <c r="Q10" s="2"/>
+      <c r="Q10" s="2">
+        <v>10</v>
+      </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -2965,7 +2987,9 @@
       <c r="P11" s="2">
         <v>15</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2">
+        <v>10</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -3019,7 +3043,9 @@
       <c r="P12" s="2">
         <v>15</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2">
+        <v>10</v>
+      </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -3073,7 +3099,9 @@
       <c r="P13" s="2">
         <v>15</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2">
+        <v>10</v>
+      </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,32 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="378" documentId="11_1D464F7CD1065913AEC53E1E5FFED15354D271EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{952617EF-E1AB-492E-A95A-D68384A5C312}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
-    <sheet name="Успеваемость (Подгруппа 1)" sheetId="2" r:id="rId2"/>
-    <sheet name="Посещаемость (Подгруппа 2)" sheetId="3" r:id="rId3"/>
-    <sheet name="Успеваемость (Подгруппа 2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Успеваемость (Подгруппа 1)" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Посещаемость (Подгруппа 2)" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Успеваемость (Подгруппа 2)" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -34,41 +19,93 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={D15E3129-A587-4B9E-89B2-86A7E0B21694}</author>
+    <author>tc={8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}</author>
     <author>tc={91DF5CFC-99A4-49CD-9F1E-EFF5F645B674}</author>
     <author>tc={F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}</author>
-    <author>tc={8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{D15E3129-A587-4B9E-89B2-86A7E0B21694}">
+    <comment ref="C5" authorId="0" xr:uid="{D15E3129-A587-4B9E-89B2-86A7E0B21694}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Сдал поезда</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Шнейдер Аркадий:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Сдал поезда
+</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="1" shapeId="0" xr:uid="{91DF5CFC-99A4-49CD-9F1E-EFF5F645B674}">
+    <comment ref="C17" authorId="1" xr:uid="{8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Сдал 1 и 4</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Шнейдер Аркадий:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Сдал поезда
+</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="2" shapeId="0" xr:uid="{F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}">
+    <comment ref="C10" authorId="2" xr:uid="{91DF5CFC-99A4-49CD-9F1E-EFF5F645B674}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Сдал поезда</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Шнейдер Аркадий:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Сдал 1 и 4
+</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="3" shapeId="0" xr:uid="{8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}">
+    <comment ref="C12" authorId="3" xr:uid="{F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Сдал поезда</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Шнейдер Аркадий:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Сдал поезда
+</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -81,14 +118,42 @@
     <author>tc={CF87C06E-054A-3430-9690-B2DC92749971}</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{CF87C06E-054A-3430-9690-B2DC92749971}">
+    <comment ref="C8" authorId="0" xr:uid="{CF87C06E-054A-3430-9690-B2DC92749971}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Сдала 1 и 3
-Reply:
-    Сдала 2</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>thebandik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Сдала 1 и 3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Шнейдер Аркадий:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Сдала 2
+</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -96,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>№</t>
   </si>
@@ -104,7 +169,7 @@
     <t>Студент</t>
   </si>
   <si>
-    <t>Будников Никита</t>
+    <t xml:space="preserve">Будников Никита</t>
   </si>
   <si>
     <t>+</t>
@@ -113,52 +178,52 @@
     <t>-</t>
   </si>
   <si>
-    <t>Воскобейников Даниил</t>
-  </si>
-  <si>
-    <t>Галицкая Каролина</t>
+    <t xml:space="preserve">Воскобейников Даниил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Галицкая Каролина</t>
   </si>
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>Гоев Матвей</t>
-  </si>
-  <si>
-    <t>Добривечер Анастасия</t>
-  </si>
-  <si>
-    <t>Клеванец Петр</t>
-  </si>
-  <si>
-    <t>Клепалов Константин</t>
-  </si>
-  <si>
-    <t>Кончаков Максим</t>
-  </si>
-  <si>
-    <t>Корбан Владислав</t>
-  </si>
-  <si>
-    <t>Лапин Аркадий</t>
-  </si>
-  <si>
-    <t>Олейник Данила</t>
-  </si>
-  <si>
-    <t>Путилина Екатерина</t>
-  </si>
-  <si>
-    <t>Сальков Иван</t>
-  </si>
-  <si>
-    <t>Смородин Игнат</t>
-  </si>
-  <si>
-    <t>Шамшин Максим</t>
-  </si>
-  <si>
-    <t>Юрченко Дмитрий</t>
+    <t xml:space="preserve">Гоев Матвей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добривечер Анастасия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клеванец Петр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клепалов Константин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кончаков Максим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корбан Владислав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лапин Аркадий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Олейник Данила</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Путилина Екатерина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сальков Иван</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Смородин Игнат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шамшин Максим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юрченко Дмитрий</t>
   </si>
   <si>
     <t>Доп</t>
@@ -194,62 +259,62 @@
     <t>Итог</t>
   </si>
   <si>
-    <t>Бегун Анастасия</t>
-  </si>
-  <si>
-    <t>Буров Владислав</t>
-  </si>
-  <si>
-    <t>Вецан Дмитрий</t>
-  </si>
-  <si>
-    <t>Даниляк Михаил</t>
-  </si>
-  <si>
-    <t>Кван Максим</t>
-  </si>
-  <si>
-    <t>Кляченков Дмитрий</t>
-  </si>
-  <si>
-    <t>Крапивина Софья</t>
-  </si>
-  <si>
-    <t>Кузьменко Олег</t>
-  </si>
-  <si>
-    <t>Манаенков Александр</t>
-  </si>
-  <si>
-    <t>Черепков Ярослав</t>
-  </si>
-  <si>
-    <t>Шальнов Данил</t>
-  </si>
-  <si>
-    <t>Шевцов Никита</t>
+    <t xml:space="preserve">Бегун Анастасия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Буров Владислав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вецан Дмитрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Даниляк Михаил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кван Максим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кляченков Дмитрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крапивина Софья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кузьменко Олег</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Манаенков Александр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Черепков Ярослав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шальнов Данил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шевцов Никита</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <color indexed="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -261,7 +326,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -286,31 +351,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -342,200 +392,64 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -543,13 +457,296 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="thebandik" id="{66B56C99-B747-CFC8-7617-ABD175ACABDA}" userId="thebandik" providerId="Teamlab"/>
-  <person displayName="Шнейдер Аркадий" id="{DC72C204-1DF8-4D5E-BFDE-FFDCEC64DD41}" userId="e7f73a7754f73684" providerId="Windows Live"/>
+  <person displayName="Шнейдер Аркадий" id="{D50EE053-D939-70AD-F42A-4BCC1E85BB65}" userId="e7f73a7754f73684" providerId="Windows Live"/>
+  <person displayName="thebandik" id="{8E245690-8547-A914-EEC4-CFE3D3DECDD7}" userId="thebandik" providerId="Teamlab"/>
 </personList>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -752,55 +949,59 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C5" dT="2023-03-02T06:25:52.72" personId="{DC72C204-1DF8-4D5E-BFDE-FFDCEC64DD41}" id="{D15E3129-A587-4B9E-89B2-86A7E0B21694}">
-    <text>Сдал поезда</text>
+  <threadedComment ref="C5" dT="2023-03-02T06:25:52.72Z" personId="{D50EE053-D939-70AD-F42A-4BCC1E85BB65}" id="{D15E3129-A587-4B9E-89B2-86A7E0B21694}" done="0">
+    <text xml:space="preserve">Сдал поезда
+</text>
   </threadedComment>
-  <threadedComment ref="C10" dT="2023-03-12T23:55:08.83" personId="{DC72C204-1DF8-4D5E-BFDE-FFDCEC64DD41}" id="{91DF5CFC-99A4-49CD-9F1E-EFF5F645B674}">
-    <text>Сдал 1 и 4</text>
+  <threadedComment ref="C17" dT="2023-03-02T06:26:08.11Z" personId="{D50EE053-D939-70AD-F42A-4BCC1E85BB65}" id="{8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}" done="0">
+    <text xml:space="preserve">Сдал поезда
+</text>
   </threadedComment>
-  <threadedComment ref="C12" dT="2023-03-02T06:26:04.36" personId="{DC72C204-1DF8-4D5E-BFDE-FFDCEC64DD41}" id="{F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}">
-    <text>Сдал поезда</text>
+  <threadedComment ref="C10" dT="2023-03-12T23:55:08.83Z" personId="{D50EE053-D939-70AD-F42A-4BCC1E85BB65}" id="{91DF5CFC-99A4-49CD-9F1E-EFF5F645B674}" done="0">
+    <text xml:space="preserve">Сдал 1 и 4
+</text>
   </threadedComment>
-  <threadedComment ref="C17" dT="2023-03-02T06:26:08.11" personId="{DC72C204-1DF8-4D5E-BFDE-FFDCEC64DD41}" id="{8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}">
-    <text>Сдал поезда</text>
+  <threadedComment ref="C12" dT="2023-03-02T06:26:04.36Z" personId="{D50EE053-D939-70AD-F42A-4BCC1E85BB65}" id="{F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}" done="0">
+    <text xml:space="preserve">Сдал поезда
+</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C8" dT="2023-01-19T23:46:23.47" personId="{66B56C99-B747-CFC8-7617-ABD175ACABDA}" id="{CF87C06E-054A-3430-9690-B2DC92749971}">
+  <threadedComment ref="C8" dT="2023-01-19T23:46:23.47Z" personId="{8E245690-8547-A914-EEC4-CFE3D3DECDD7}" id="{CF87C06E-054A-3430-9690-B2DC92749971}" done="0">
     <text xml:space="preserve">Сдала 1 и 3
 </text>
   </threadedComment>
-  <threadedComment ref="C8" dT="2023-03-02T23:55:22.37" personId="{DC72C204-1DF8-4D5E-BFDE-FFDCEC64DD41}" id="{5E69BA66-0A3A-494E-8138-415766AD7FBF}" parentId="{CF87C06E-054A-3430-9690-B2DC92749971}">
-    <text>Сдала 2</text>
+  <threadedComment ref="C8" dT="2023-03-02T23:55:22.37Z" personId="{D50EE053-D939-70AD-F42A-4BCC1E85BB65}" id="{5E69BA66-0A3A-494E-8138-415766AD7FBF}" parentId="{CF87C06E-054A-3430-9690-B2DC92749971}" done="0">
+    <text xml:space="preserve">Сдала 2
+</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="17" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="Q27" activeCellId="0" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1"/>
-    <col min="3" max="20" width="9.140625" style="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" min="2" max="2" width="21.85546875"/>
+    <col min="3" max="20" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15">
+    <row r="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -828,13 +1029,13 @@
       <c r="I1" s="3">
         <v>44972</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="4">
         <v>44973</v>
       </c>
       <c r="K1" s="3">
         <v>44977</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="5">
         <v>44984</v>
       </c>
       <c r="M1" s="3">
@@ -849,18 +1050,20 @@
       <c r="P1" s="3">
         <v>45001</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="Q1" s="4">
         <v>45001</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="3">
+        <v>45012</v>
+      </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" ht="15">
-      <c r="A2" s="4">
+    <row r="2" ht="15">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -884,7 +1087,7 @@
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -905,18 +1108,23 @@
       <c r="P2" s="2">
         <v>15</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="7">
         <v>0</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="R2" s="2">
+        <v>-15</v>
+      </c>
+      <c r="S2" s="2">
+        <f t="shared" ref="S2:S9" si="0">SUM(L2:R2)</f>
+        <v>20</v>
+      </c>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="15">
-      <c r="A3" s="4">
+    <row r="3" ht="15">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -940,7 +1148,7 @@
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -961,18 +1169,23 @@
       <c r="P3" s="2">
         <v>15</v>
       </c>
-      <c r="Q3" s="6">
-        <v>10</v>
-      </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="Q3" s="7">
+        <v>10</v>
+      </c>
+      <c r="R3" s="2">
+        <v>10</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="15">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" ht="15">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -996,7 +1209,7 @@
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -1017,18 +1230,23 @@
       <c r="P4" s="2">
         <v>15</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="7">
         <v>-15</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="R4" s="2">
+        <v>-15</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" si="0"/>
+        <v>-55</v>
+      </c>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" ht="15">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" ht="15">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1052,7 +1270,7 @@
       <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -1073,18 +1291,23 @@
       <c r="P5" s="2">
         <v>15</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="7">
         <v>-15</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="R5" s="2">
+        <v>10</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" ht="15">
-      <c r="A6" s="4">
+    <row r="6" ht="15">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1108,7 +1331,7 @@
       <c r="I6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1129,18 +1352,23 @@
       <c r="P6" s="2">
         <v>15</v>
       </c>
-      <c r="Q6" s="6">
-        <v>10</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="Q6" s="7">
+        <v>10</v>
+      </c>
+      <c r="R6" s="2">
+        <v>10</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" ht="15">
-      <c r="A7" s="4">
+    <row r="7" ht="15">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1164,7 +1392,7 @@
       <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -1185,18 +1413,23 @@
       <c r="P7" s="2">
         <v>15</v>
       </c>
-      <c r="Q7" s="6">
-        <v>10</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="Q7" s="7">
+        <v>10</v>
+      </c>
+      <c r="R7" s="2">
+        <v>10</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" ht="15">
-      <c r="A8" s="4">
+    <row r="8" ht="15">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1220,7 +1453,7 @@
       <c r="I8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -1241,18 +1474,23 @@
       <c r="P8" s="2">
         <v>15</v>
       </c>
-      <c r="Q8" s="6">
-        <v>10</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="Q8" s="7">
+        <v>10</v>
+      </c>
+      <c r="R8" s="2">
+        <v>10</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="15">
-      <c r="A9" s="4">
+    <row r="9" ht="15">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1276,7 +1514,7 @@
       <c r="I9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1297,18 +1535,23 @@
       <c r="P9" s="2">
         <v>15</v>
       </c>
-      <c r="Q9" s="6">
-        <v>10</v>
-      </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="Q9" s="7">
+        <v>10</v>
+      </c>
+      <c r="R9" s="2">
+        <v>10</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" ht="15">
-      <c r="A10" s="4">
+    <row r="10" ht="15">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1332,7 +1575,7 @@
       <c r="I10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -1353,18 +1596,23 @@
       <c r="P10" s="2">
         <v>15</v>
       </c>
-      <c r="Q10" s="6">
-        <v>10</v>
-      </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="Q10" s="7">
+        <v>10</v>
+      </c>
+      <c r="R10" s="2">
+        <v>10</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" ref="S10:S17" si="1">SUM(L10:R10)</f>
+        <v>70</v>
+      </c>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" ht="15">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11" ht="15">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1388,7 +1636,7 @@
       <c r="I11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -1409,18 +1657,23 @@
       <c r="P11" s="2">
         <v>15</v>
       </c>
-      <c r="Q11" s="6">
-        <v>10</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="Q11" s="7">
+        <v>10</v>
+      </c>
+      <c r="R11" s="2">
+        <v>-15</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" ht="15">
-      <c r="A12" s="4">
+    <row r="12" ht="15">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1444,7 +1697,7 @@
       <c r="I12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1465,18 +1718,23 @@
       <c r="P12" s="2">
         <v>15</v>
       </c>
-      <c r="Q12" s="6">
-        <v>10</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="Q12" s="7">
+        <v>10</v>
+      </c>
+      <c r="R12" s="2">
+        <v>10</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" ht="15">
-      <c r="A13" s="4">
+    <row r="13" ht="15">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1500,7 +1758,7 @@
       <c r="I13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -1521,18 +1779,23 @@
       <c r="P13" s="2">
         <v>15</v>
       </c>
-      <c r="Q13" s="6">
-        <v>10</v>
-      </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
+      <c r="Q13" s="7">
+        <v>10</v>
+      </c>
+      <c r="R13" s="2">
+        <v>10</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" ht="15">
-      <c r="A14" s="4">
+    <row r="14" ht="15">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1556,7 +1819,7 @@
       <c r="I14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -1577,18 +1840,23 @@
       <c r="P14" s="2">
         <v>15</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="7">
         <v>-15</v>
       </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
+      <c r="R14" s="2">
+        <v>-15</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" ht="15">
-      <c r="A15" s="4">
+    <row r="15" ht="15">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1612,7 +1880,7 @@
       <c r="I15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -1633,18 +1901,23 @@
       <c r="P15" s="2">
         <v>15</v>
       </c>
-      <c r="Q15" s="6">
-        <v>10</v>
-      </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
+      <c r="Q15" s="7">
+        <v>10</v>
+      </c>
+      <c r="R15" s="2">
+        <v>10</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" ht="15">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="16" ht="15">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1668,7 +1941,7 @@
       <c r="I16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -1689,18 +1962,23 @@
       <c r="P16" s="2">
         <v>15</v>
       </c>
-      <c r="Q16" s="6">
-        <v>10</v>
-      </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
+      <c r="Q16" s="7">
+        <v>10</v>
+      </c>
+      <c r="R16" s="2">
+        <v>10</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" ht="15">
-      <c r="A17" s="4">
+    <row r="17" ht="15">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1724,7 +2002,7 @@
       <c r="I17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -1745,51 +2023,99 @@
       <c r="P17" s="2">
         <v>15</v>
       </c>
-      <c r="Q17" s="6">
-        <v>10</v>
-      </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
+      <c r="Q17" s="7">
+        <v>10</v>
+      </c>
+      <c r="R17" s="2">
+        <v>10</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="T17" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:T17">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:T17">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:T17">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00E300BE-0085-4D23-9590-009B00F4002B}">
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:T2 C3:R17 T3:T17 S3 S4 S5 S6 S7 S8 S9 S10 S11 S12 S13 S14 S15 S16 S17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0054003B-00FB-472A-A0E3-0072004D003B}">
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:T2 C3:R17 T3:T17 S3 S4 S5 S6 S7 S8 S9 S10 S11 S12 S13 S14 S15 S16 S17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00B300C0-008A-4F20-9D20-00E6002400AE}">
+            <xm:f>"#"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:T2 C3:R17 T3:T17 S3 S4 S5 S6 S7 S8 S9 S10 S11 S12 S13 S14 S15 S16 S17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1"/>
-    <col min="12" max="12" width="9.85546875" style="1" bestFit="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" min="2" max="2" width="21.85546875"/>
+    <col bestFit="1" min="12" max="12" style="1" width="9.85546875"/>
+    <col bestFit="1" min="20" max="20" width="9.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1820,10 +2146,10 @@
       <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>30</v>
       </c>
       <c r="M1" s="10" t="s">
@@ -1836,11 +2162,11 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="4">
+    <row r="2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2">
@@ -1859,10 +2185,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="10">
-        <f>SUM(C2:L2)</f>
+        <f t="shared" ref="M2:M17" si="2">SUM(C2:L2)</f>
         <v>33</v>
       </c>
       <c r="N2" s="1"/>
@@ -1872,11 +2198,11 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="4">
+    <row r="3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
@@ -1887,10 +2213,10 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="10">
-        <f t="shared" ref="M3:M17" si="0">SUM(C3:L3)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N3" s="1"/>
@@ -1900,11 +2226,11 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
@@ -1923,10 +2249,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="N4" s="1"/>
@@ -1936,11 +2262,11 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2">
@@ -1955,10 +2281,10 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="N5" s="1"/>
@@ -1968,11 +2294,11 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="4">
+    <row r="6">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2"/>
@@ -1985,10 +2311,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="N6" s="1"/>
@@ -1998,11 +2324,11 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="4">
+    <row r="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2"/>
@@ -2013,10 +2339,10 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N7" s="1"/>
@@ -2026,11 +2352,11 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="4">
+    <row r="8">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2"/>
@@ -2043,10 +2369,10 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="N8" s="1"/>
@@ -2056,11 +2382,11 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="4">
+    <row r="9">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2"/>
@@ -2071,10 +2397,10 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9" s="1"/>
@@ -2084,11 +2410,11 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="4">
+    <row r="10">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2">
@@ -2103,10 +2429,10 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="N10" s="1"/>
@@ -2116,11 +2442,11 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2">
@@ -2137,10 +2463,10 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="N11" s="1"/>
@@ -2150,11 +2476,11 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="4">
+    <row r="12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2">
@@ -2169,10 +2495,10 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="N12" s="1"/>
@@ -2182,11 +2508,11 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="4">
+    <row r="13">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2">
@@ -2205,10 +2531,10 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="N13" s="1"/>
@@ -2218,11 +2544,11 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="4">
+    <row r="14">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2"/>
@@ -2235,10 +2561,10 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="N14" s="1"/>
@@ -2248,11 +2574,11 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="4">
+    <row r="15">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2">
@@ -2261,17 +2587,19 @@
       <c r="D15" s="2">
         <v>10</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="10">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -2280,11 +2608,11 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="16">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2"/>
@@ -2297,10 +2625,10 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="N16" s="1"/>
@@ -2310,11 +2638,11 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="4">
+    <row r="17">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2">
@@ -2329,10 +2657,10 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="N17" s="1"/>
@@ -2343,42 +2671,86 @@
       <c r="S17" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:K17 M2:S17">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:K17 M2:S17">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:K17 M2:S17">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0090009B-0042-457E-ABA2-0005009D004B}">
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:K17 M2:S17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00520082-0068-4504-BA53-000000D400E0}">
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:K17 M2:S17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00B1000A-00F5-4134-9431-00AE005600BD}">
+            <xm:f>"#"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:K17 M2:S17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" min="2" max="2" width="20.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15">
+    <row r="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2409,7 +2781,7 @@
       <c r="J1" s="3">
         <v>44973</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K1" s="5">
         <v>44974</v>
       </c>
       <c r="L1" s="3">
@@ -2434,11 +2806,11 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="4">
+    <row r="2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2490,11 +2862,11 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="4">
+    <row r="3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2546,11 +2918,11 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2602,11 +2974,11 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2658,11 +3030,11 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="4">
+    <row r="6">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2714,11 +3086,11 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="4">
+    <row r="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2770,11 +3142,11 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="4">
+    <row r="8">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2826,11 +3198,11 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="4">
+    <row r="9">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2882,11 +3254,11 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="4">
+    <row r="10">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2938,11 +3310,11 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2994,11 +3366,11 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="4">
+    <row r="12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3050,11 +3422,11 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="4">
+    <row r="13">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3106,7 +3478,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3126,7 +3498,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -3146,7 +3518,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -3166,7 +3538,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="3:20">
+    <row r="17">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3187,41 +3559,84 @@
       <c r="T17" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:T17">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:T17">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:T17">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{003A0031-0013-44D4-81D2-000700A50037}">
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:T17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00CE00D5-00A3-4070-B9DA-00A900B80027}">
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:T17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0022003A-00BA-48D6-A186-005600790068}">
+            <xm:f>"#"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:T17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" min="2" max="2" width="20.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3252,10 +3667,10 @@
       <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>30</v>
       </c>
       <c r="M1" s="10" t="s">
@@ -3269,11 +3684,11 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="4">
+    <row r="2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="2"/>
@@ -3286,10 +3701,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="11"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="12"/>
       <c r="M2" s="10">
-        <f>SUM(C2:L2)</f>
+        <f t="shared" ref="M2:M13" si="3">SUM(C2:L2)</f>
         <v>10</v>
       </c>
       <c r="N2" s="1"/>
@@ -3300,11 +3715,11 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="4">
+    <row r="3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="2">
@@ -3321,10 +3736,10 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="11"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="10">
-        <f t="shared" ref="M3:M13" si="0">SUM(C3:L3)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="N3" s="1"/>
@@ -3335,11 +3750,11 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="2"/>
@@ -3350,10 +3765,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="11"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="12"/>
       <c r="M4" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N4" s="1"/>
@@ -3364,11 +3779,11 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="2"/>
@@ -3379,10 +3794,10 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="11"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="12"/>
       <c r="M5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N5" s="1"/>
@@ -3393,11 +3808,11 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="4">
+    <row r="6">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="2">
@@ -3412,10 +3827,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="11"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="12"/>
       <c r="M6" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="N6" s="1"/>
@@ -3426,11 +3841,11 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="4">
+    <row r="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="2">
@@ -3447,10 +3862,10 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="11"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="12"/>
       <c r="M7" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="N7" s="1"/>
@@ -3461,11 +3876,11 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="4">
+    <row r="8">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2">
@@ -3480,10 +3895,10 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="11"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="12"/>
       <c r="M8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="N8" s="1"/>
@@ -3494,11 +3909,11 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="4">
+    <row r="9">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="2"/>
@@ -3511,10 +3926,10 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="11"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="12"/>
       <c r="M9" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="N9" s="1"/>
@@ -3525,11 +3940,11 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="4">
+    <row r="10">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="2">
@@ -3548,10 +3963,10 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="11"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="12"/>
       <c r="M10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="N10" s="1"/>
@@ -3562,11 +3977,11 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="2"/>
@@ -3579,10 +3994,10 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="11"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="12"/>
       <c r="M11" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="N11" s="1"/>
@@ -3593,11 +4008,11 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="4">
+    <row r="12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="2">
@@ -3610,10 +4025,10 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="11"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="N12" s="1"/>
@@ -3624,11 +4039,11 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="4">
+    <row r="13">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="2">
@@ -3647,10 +4062,10 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="11"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="N13" s="1"/>
@@ -3662,23 +4077,67 @@
       <c r="T13" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:K13 M2:T13">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:K13 M2:T13">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:K13 M2:T13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00400088-001F-4598-9D23-00730045005D}">
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:K13 M2:T13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0005004B-00CE-4F8D-B096-008B00700069}">
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:K13 M2:T13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00A200F2-0078-4F50-AFD7-00CA00BE0074}">
+            <xm:f>"#"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:K13 M2:T13</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -407,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,6 +424,9 @@
     <xf fontId="2" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,6 +438,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -457,8 +463,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Шнейдер Аркадий" id="{D50EE053-D939-70AD-F42A-4BCC1E85BB65}" userId="e7f73a7754f73684" providerId="Windows Live"/>
-  <person displayName="thebandik" id="{8E245690-8547-A914-EEC4-CFE3D3DECDD7}" userId="thebandik" providerId="Teamlab"/>
+  <person displayName="Шнейдер Аркадий" id="{99377964-CEFA-1976-2DB5-9E62A4D6108F}" userId="e7f73a7754f73684" providerId="Windows Live"/>
+  <person displayName="thebandik" id="{CF6C1877-E802-422F-AEEB-4D5932F646C4}" userId="thebandik" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -954,19 +960,19 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C5" dT="2023-03-02T06:25:52.72Z" personId="{D50EE053-D939-70AD-F42A-4BCC1E85BB65}" id="{D15E3129-A587-4B9E-89B2-86A7E0B21694}" done="0">
+  <threadedComment ref="C5" dT="2023-03-02T06:25:52.72Z" personId="{99377964-CEFA-1976-2DB5-9E62A4D6108F}" id="{D15E3129-A587-4B9E-89B2-86A7E0B21694}" done="0">
     <text xml:space="preserve">Сдал поезда
 </text>
   </threadedComment>
-  <threadedComment ref="C17" dT="2023-03-02T06:26:08.11Z" personId="{D50EE053-D939-70AD-F42A-4BCC1E85BB65}" id="{8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}" done="0">
+  <threadedComment ref="C17" dT="2023-03-02T06:26:08.11Z" personId="{99377964-CEFA-1976-2DB5-9E62A4D6108F}" id="{8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}" done="0">
     <text xml:space="preserve">Сдал поезда
 </text>
   </threadedComment>
-  <threadedComment ref="C10" dT="2023-03-12T23:55:08.83Z" personId="{D50EE053-D939-70AD-F42A-4BCC1E85BB65}" id="{91DF5CFC-99A4-49CD-9F1E-EFF5F645B674}" done="0">
+  <threadedComment ref="C10" dT="2023-03-12T23:55:08.83Z" personId="{99377964-CEFA-1976-2DB5-9E62A4D6108F}" id="{91DF5CFC-99A4-49CD-9F1E-EFF5F645B674}" done="0">
     <text xml:space="preserve">Сдал 1 и 4
 </text>
   </threadedComment>
-  <threadedComment ref="C12" dT="2023-03-02T06:26:04.36Z" personId="{D50EE053-D939-70AD-F42A-4BCC1E85BB65}" id="{F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}" done="0">
+  <threadedComment ref="C12" dT="2023-03-02T06:26:04.36Z" personId="{99377964-CEFA-1976-2DB5-9E62A4D6108F}" id="{F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}" done="0">
     <text xml:space="preserve">Сдал поезда
 </text>
   </threadedComment>
@@ -975,11 +981,11 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C8" dT="2023-01-19T23:46:23.47Z" personId="{8E245690-8547-A914-EEC4-CFE3D3DECDD7}" id="{CF87C06E-054A-3430-9690-B2DC92749971}" done="0">
+  <threadedComment ref="C8" dT="2023-01-19T23:46:23.47Z" personId="{CF6C1877-E802-422F-AEEB-4D5932F646C4}" id="{CF87C06E-054A-3430-9690-B2DC92749971}" done="0">
     <text xml:space="preserve">Сдала 1 и 3
 </text>
   </threadedComment>
-  <threadedComment ref="C8" dT="2023-03-02T23:55:22.37Z" personId="{D50EE053-D939-70AD-F42A-4BCC1E85BB65}" id="{5E69BA66-0A3A-494E-8138-415766AD7FBF}" parentId="{CF87C06E-054A-3430-9690-B2DC92749971}" done="0">
+  <threadedComment ref="C8" dT="2023-03-02T23:55:22.37Z" personId="{99377964-CEFA-1976-2DB5-9E62A4D6108F}" id="{5E69BA66-0A3A-494E-8138-415766AD7FBF}" parentId="{CF87C06E-054A-3430-9690-B2DC92749971}" done="0">
     <text xml:space="preserve">Сдала 2
 </text>
   </threadedComment>
@@ -1056,14 +1062,16 @@
       <c r="R1" s="3">
         <v>45012</v>
       </c>
-      <c r="S1" s="2"/>
+      <c r="S1" s="6">
+        <v>45015</v>
+      </c>
       <c r="T1" s="2"/>
     </row>
     <row r="2" ht="15">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1087,7 +1095,7 @@
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1108,23 +1116,26 @@
       <c r="P2" s="2">
         <v>15</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="8">
         <v>0</v>
       </c>
       <c r="R2" s="2">
         <v>-15</v>
       </c>
-      <c r="S2" s="2">
-        <f t="shared" ref="S2:S9" si="0">SUM(L2:R2)</f>
+      <c r="S2" s="1">
+        <v>15</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2">
+        <f>SUM(L2:R2)</f>
         <v>20</v>
       </c>
-      <c r="T2" s="2"/>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1148,7 +1159,7 @@
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1169,23 +1180,26 @@
       <c r="P3" s="2">
         <v>15</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="8">
         <v>10</v>
       </c>
       <c r="R3" s="2">
         <v>10</v>
       </c>
-      <c r="S3" s="2">
-        <f t="shared" si="0"/>
+      <c r="S3" s="1">
+        <v>-10</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2">
+        <f>SUM(L3:R3)</f>
         <v>45</v>
       </c>
-      <c r="T3" s="2"/>
     </row>
     <row r="4" ht="15">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1209,7 +1223,7 @@
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -1230,23 +1244,26 @@
       <c r="P4" s="2">
         <v>15</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="8">
         <v>-15</v>
       </c>
       <c r="R4" s="2">
         <v>-15</v>
       </c>
-      <c r="S4" s="2">
-        <f t="shared" si="0"/>
+      <c r="S4" s="1">
+        <v>15</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2">
+        <f>SUM(L4:R4)</f>
         <v>-55</v>
       </c>
-      <c r="T4" s="2"/>
     </row>
     <row r="5" ht="15">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1270,7 +1287,7 @@
       <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -1291,23 +1308,26 @@
       <c r="P5" s="2">
         <v>15</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="8">
         <v>-15</v>
       </c>
       <c r="R5" s="2">
         <v>10</v>
       </c>
-      <c r="S5" s="2">
-        <f t="shared" si="0"/>
+      <c r="S5" s="1">
+        <v>15</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2">
+        <f>SUM(L5:R5)</f>
         <v>55</v>
       </c>
-      <c r="T5" s="2"/>
     </row>
     <row r="6" ht="15">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1331,7 +1351,7 @@
       <c r="I6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1352,23 +1372,26 @@
       <c r="P6" s="2">
         <v>15</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="8">
         <v>10</v>
       </c>
       <c r="R6" s="2">
         <v>10</v>
       </c>
-      <c r="S6" s="2">
-        <f t="shared" si="0"/>
+      <c r="S6" s="1">
+        <v>15</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2">
+        <f>SUM(L6:R6)</f>
         <v>65</v>
       </c>
-      <c r="T6" s="2"/>
     </row>
     <row r="7" ht="15">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1392,7 +1415,7 @@
       <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -1413,23 +1436,26 @@
       <c r="P7" s="2">
         <v>15</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="8">
         <v>10</v>
       </c>
       <c r="R7" s="2">
         <v>10</v>
       </c>
-      <c r="S7" s="2">
-        <f t="shared" si="0"/>
+      <c r="S7" s="1">
+        <v>-10</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2">
+        <f>SUM(L7:R7)</f>
         <v>55</v>
       </c>
-      <c r="T7" s="2"/>
     </row>
     <row r="8" ht="15">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1453,7 +1479,7 @@
       <c r="I8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -1474,23 +1500,26 @@
       <c r="P8" s="2">
         <v>15</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="8">
         <v>10</v>
       </c>
       <c r="R8" s="2">
         <v>10</v>
       </c>
-      <c r="S8" s="2">
-        <f t="shared" si="0"/>
+      <c r="S8" s="1">
+        <v>15</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2">
+        <f>SUM(L8:R8)</f>
         <v>70</v>
       </c>
-      <c r="T8" s="2"/>
     </row>
     <row r="9" ht="15">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1514,7 +1543,7 @@
       <c r="I9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1535,23 +1564,26 @@
       <c r="P9" s="2">
         <v>15</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="8">
         <v>10</v>
       </c>
       <c r="R9" s="2">
         <v>10</v>
       </c>
-      <c r="S9" s="2">
-        <f t="shared" si="0"/>
+      <c r="S9" s="1">
+        <v>15</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2">
+        <f>SUM(L9:R9)</f>
         <v>55</v>
       </c>
-      <c r="T9" s="2"/>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1575,7 +1607,7 @@
       <c r="I10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="8" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -1596,23 +1628,26 @@
       <c r="P10" s="2">
         <v>15</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="8">
         <v>10</v>
       </c>
       <c r="R10" s="2">
         <v>10</v>
       </c>
-      <c r="S10" s="2">
-        <f t="shared" ref="S10:S17" si="1">SUM(L10:R10)</f>
+      <c r="S10" s="1">
+        <v>15</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2">
+        <f>SUM(L10:R10)</f>
         <v>70</v>
       </c>
-      <c r="T10" s="2"/>
     </row>
     <row r="11" ht="15">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1636,7 +1671,7 @@
       <c r="I11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="8" t="s">
         <v>4</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -1657,23 +1692,26 @@
       <c r="P11" s="2">
         <v>15</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="8">
         <v>10</v>
       </c>
       <c r="R11" s="2">
         <v>-15</v>
       </c>
-      <c r="S11" s="2">
-        <f t="shared" si="1"/>
+      <c r="S11" s="1">
+        <v>15</v>
+      </c>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2">
+        <f>SUM(L11:R11)</f>
         <v>5</v>
       </c>
-      <c r="T11" s="2"/>
     </row>
     <row r="12" ht="15">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1697,7 +1735,7 @@
       <c r="I12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1718,23 +1756,26 @@
       <c r="P12" s="2">
         <v>15</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="8">
         <v>10</v>
       </c>
       <c r="R12" s="2">
         <v>10</v>
       </c>
-      <c r="S12" s="2">
-        <f t="shared" si="1"/>
+      <c r="S12" s="1">
+        <v>15</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2">
+        <f>SUM(L12:R12)</f>
         <v>55</v>
       </c>
-      <c r="T12" s="2"/>
     </row>
     <row r="13" ht="15">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1758,7 +1799,7 @@
       <c r="I13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -1779,23 +1820,26 @@
       <c r="P13" s="2">
         <v>15</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="8">
         <v>10</v>
       </c>
       <c r="R13" s="2">
         <v>10</v>
       </c>
-      <c r="S13" s="2">
-        <f t="shared" si="1"/>
+      <c r="S13" s="1">
+        <v>15</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2">
+        <f>SUM(L13:R13)</f>
         <v>80</v>
       </c>
-      <c r="T13" s="2"/>
     </row>
     <row r="14" ht="15">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1819,7 +1863,7 @@
       <c r="I14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -1840,23 +1884,26 @@
       <c r="P14" s="2">
         <v>15</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="8">
         <v>-15</v>
       </c>
       <c r="R14" s="2">
         <v>-15</v>
       </c>
-      <c r="S14" s="2">
-        <f t="shared" si="1"/>
+      <c r="S14" s="1">
+        <v>15</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2">
+        <f>SUM(L14:R14)</f>
         <v>-30</v>
       </c>
-      <c r="T14" s="2"/>
     </row>
     <row r="15" ht="15">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1880,7 +1927,7 @@
       <c r="I15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -1901,23 +1948,26 @@
       <c r="P15" s="2">
         <v>15</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="8">
         <v>10</v>
       </c>
       <c r="R15" s="2">
         <v>10</v>
       </c>
-      <c r="S15" s="2">
-        <f t="shared" si="1"/>
+      <c r="S15" s="1">
+        <v>15</v>
+      </c>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2">
+        <f>SUM(L15:R15)</f>
         <v>45</v>
       </c>
-      <c r="T15" s="2"/>
     </row>
     <row r="16" ht="15">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1941,7 +1991,7 @@
       <c r="I16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="8" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -1962,23 +2012,26 @@
       <c r="P16" s="2">
         <v>15</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="8">
         <v>10</v>
       </c>
       <c r="R16" s="2">
         <v>10</v>
       </c>
-      <c r="S16" s="2">
-        <f t="shared" si="1"/>
+      <c r="S16" s="1">
+        <v>15</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2">
+        <f>SUM(L16:R16)</f>
         <v>30</v>
       </c>
-      <c r="T16" s="2"/>
     </row>
     <row r="17" ht="15">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2002,7 +2055,7 @@
       <c r="I17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -2023,17 +2076,20 @@
       <c r="P17" s="2">
         <v>15</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="8">
         <v>10</v>
       </c>
       <c r="R17" s="2">
         <v>10</v>
       </c>
-      <c r="S17" s="2">
-        <f t="shared" si="1"/>
+      <c r="S17" s="1">
+        <v>15</v>
+      </c>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2">
+        <f>SUM(L17:R17)</f>
         <v>5</v>
       </c>
-      <c r="T17" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -2044,7 +2100,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00E300BE-0085-4D23-9590-009B00F4002B}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00FB0082-00E2-4471-A8B3-00B900F7008F}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2058,10 +2114,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C2:T2 C3:R17 T3:T17 S3 S4 S5 S6 S7 S8 S9 S10 S11 S12 S13 S14 S15 S16 S17</xm:sqref>
+          <xm:sqref>C2:R2 T2 C3:R17 T3:T17 U2 U3 U4 U5 U6 U7 U8 U9 U10 U11 U12 U13 U14 U15 U16 U17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0054003B-00FB-472A-A0E3-0072004D003B}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00D000CF-00FA-4BF5-A9F6-00FE009700F2}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2075,10 +2131,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C2:T2 C3:R17 T3:T17 S3 S4 S5 S6 S7 S8 S9 S10 S11 S12 S13 S14 S15 S16 S17</xm:sqref>
+          <xm:sqref>C2:R2 T2 C3:R17 T3:T17 U2 U3 U4 U5 U6 U7 U8 U9 U10 U11 U12 U13 U14 U15 U16 U17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00B300C0-008A-4F20-9D20-00E6002400AE}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00180087-0086-4003-9D40-001200C800C0}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -2092,7 +2148,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C2:T2 C3:R17 T3:T17 S3 S4 S5 S6 S7 S8 S9 S10 S11 S12 S13 S14 S15 S16 S17</xm:sqref>
+          <xm:sqref>C2:R2 T2 C3:R17 T3:T17 U2 U3 U4 U5 U6 U7 U8 U9 U10 U11 U12 U13 U14 U15 U16 U17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2146,13 +2202,13 @@
       <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>31</v>
       </c>
       <c r="N1" s="1"/>
@@ -2163,10 +2219,10 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2">
@@ -2185,10 +2241,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10">
-        <f t="shared" ref="M2:M17" si="2">SUM(C2:L2)</f>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11">
+        <f t="shared" ref="M2:M17" si="0">SUM(C2:L2)</f>
         <v>33</v>
       </c>
       <c r="N2" s="1"/>
@@ -2199,10 +2255,10 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
@@ -2213,10 +2269,10 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10">
-        <f t="shared" si="2"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N3" s="1"/>
@@ -2227,10 +2283,10 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
@@ -2249,10 +2305,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10">
-        <f t="shared" si="2"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="N4" s="1"/>
@@ -2263,10 +2319,10 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2">
@@ -2281,10 +2337,10 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="10">
-        <f t="shared" si="2"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N5" s="1"/>
@@ -2295,10 +2351,10 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2"/>
@@ -2311,10 +2367,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10">
-        <f t="shared" si="2"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N6" s="1"/>
@@ -2325,10 +2381,10 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2"/>
@@ -2339,10 +2395,10 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="10">
-        <f t="shared" si="2"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7" s="1"/>
@@ -2353,10 +2409,10 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2"/>
@@ -2369,10 +2425,10 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10">
-        <f t="shared" si="2"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N8" s="1"/>
@@ -2383,10 +2439,10 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2"/>
@@ -2397,10 +2453,10 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10">
-        <f t="shared" si="2"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9" s="1"/>
@@ -2411,10 +2467,10 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2">
@@ -2429,10 +2485,10 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10">
-        <f t="shared" si="2"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="N10" s="1"/>
@@ -2443,10 +2499,10 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2">
@@ -2463,10 +2519,10 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10">
-        <f t="shared" si="2"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="N11" s="1"/>
@@ -2477,10 +2533,10 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2">
@@ -2495,10 +2551,10 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10">
-        <f t="shared" si="2"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N12" s="1"/>
@@ -2509,10 +2565,10 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2">
@@ -2531,10 +2587,10 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="10">
-        <f t="shared" si="2"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="11">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="N13" s="1"/>
@@ -2545,10 +2601,10 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2"/>
@@ -2561,10 +2617,10 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="10">
-        <f t="shared" si="2"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="11">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N14" s="1"/>
@@ -2575,10 +2631,10 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2">
@@ -2595,10 +2651,10 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="10">
-        <f t="shared" si="2"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="11">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="N15" s="1"/>
@@ -2609,10 +2665,10 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2"/>
@@ -2625,10 +2681,10 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10">
-        <f t="shared" si="2"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N16" s="1"/>
@@ -2639,10 +2695,10 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2">
@@ -2657,10 +2713,10 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10">
-        <f t="shared" si="2"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="11">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N17" s="1"/>
@@ -2680,7 +2736,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0090009B-0042-457E-ABA2-0005009D004B}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{000F00C1-0052-4283-A01B-00F200B70016}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2697,7 +2753,7 @@
           <xm:sqref>C2:K17 M2:S17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00520082-0068-4504-BA53-000000D400E0}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00340027-0051-424E-8114-00EE007300C4}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2714,7 +2770,7 @@
           <xm:sqref>C2:K17 M2:S17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00B1000A-00F5-4134-9431-00AE005600BD}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00C9007A-0018-47B2-863B-002D007000CE}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -2802,15 +2858,17 @@
       <c r="Q1" s="3">
         <v>45002</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="6">
+        <v>45015</v>
+      </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2858,15 +2916,17 @@
       <c r="Q2" s="2">
         <v>10</v>
       </c>
-      <c r="R2" s="2"/>
+      <c r="R2" s="2">
+        <v>15</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2914,15 +2974,17 @@
       <c r="Q3" s="2">
         <v>10</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="2">
+        <v>15</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2970,15 +3032,17 @@
       <c r="Q4" s="2">
         <v>-15</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="2">
+        <v>15</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3026,15 +3090,17 @@
       <c r="Q5" s="2">
         <v>-15</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="2">
+        <v>-10</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3071,7 +3137,7 @@
         <v>10</v>
       </c>
       <c r="N6" s="2">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -3079,18 +3145,20 @@
       <c r="P6" s="2">
         <v>0</v>
       </c>
-      <c r="Q6" s="2">
-        <v>-15</v>
-      </c>
-      <c r="R6" s="2"/>
+      <c r="Q6" s="12">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>15</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3138,15 +3206,17 @@
       <c r="Q7" s="2">
         <v>10</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="2">
+        <v>15</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3194,15 +3264,17 @@
       <c r="Q8" s="2">
         <v>10</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="R8" s="2">
+        <v>15</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3250,15 +3322,17 @@
       <c r="Q9" s="2">
         <v>10</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="2">
+        <v>15</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3306,15 +3380,17 @@
       <c r="Q10" s="2">
         <v>10</v>
       </c>
-      <c r="R10" s="2"/>
+      <c r="R10" s="2">
+        <v>15</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3362,15 +3438,17 @@
       <c r="Q11" s="2">
         <v>10</v>
       </c>
-      <c r="R11" s="2"/>
+      <c r="R11" s="2">
+        <v>-10</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3418,15 +3496,17 @@
       <c r="Q12" s="2">
         <v>10</v>
       </c>
-      <c r="R12" s="2"/>
+      <c r="R12" s="2">
+        <v>15</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3474,7 +3554,9 @@
       <c r="Q13" s="2">
         <v>10</v>
       </c>
-      <c r="R13" s="2"/>
+      <c r="R13" s="2">
+        <v>15</v>
+      </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
@@ -3567,7 +3649,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{003A0031-0013-44D4-81D2-000700A50037}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0054000B-0060-40F1-83A6-0026000500EB}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -3584,7 +3666,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00CE00D5-00A3-4070-B9DA-00A900B80027}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00210043-0088-4EC3-81EC-002800EE0008}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -3601,7 +3683,7 @@
           <xm:sqref>C2:T17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0022003A-00BA-48D6-A186-005600790068}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00BE001C-0010-40CF-B4A8-00D200CB00C6}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -3667,13 +3749,13 @@
       <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>31</v>
       </c>
       <c r="N1" s="1"/>
@@ -3685,10 +3767,10 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="2"/>
@@ -3701,10 +3783,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="10">
-        <f t="shared" ref="M2:M13" si="3">SUM(C2:L2)</f>
+      <c r="K2" s="9"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="11">
+        <f t="shared" ref="M2:M13" si="1">SUM(C2:L2)</f>
         <v>10</v>
       </c>
       <c r="N2" s="1"/>
@@ -3716,10 +3798,10 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="2">
@@ -3736,10 +3818,10 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10">
-        <f t="shared" si="3"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="11">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="N3" s="1"/>
@@ -3751,10 +3833,10 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="2"/>
@@ -3765,10 +3847,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="10">
-        <f t="shared" si="3"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N4" s="1"/>
@@ -3780,10 +3862,10 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="2"/>
@@ -3794,10 +3876,10 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="10">
-        <f t="shared" si="3"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5" s="1"/>
@@ -3809,10 +3891,10 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="2">
@@ -3827,10 +3909,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="10">
-        <f t="shared" si="3"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="11">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N6" s="1"/>
@@ -3842,10 +3924,10 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="2">
@@ -3862,10 +3944,10 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="10">
-        <f t="shared" si="3"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="11">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="N7" s="1"/>
@@ -3877,10 +3959,10 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2">
@@ -3895,10 +3977,10 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="10">
-        <f t="shared" si="3"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="11">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="N8" s="1"/>
@@ -3910,10 +3992,10 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="2"/>
@@ -3926,10 +4008,10 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="10">
-        <f t="shared" si="3"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="11">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N9" s="1"/>
@@ -3941,10 +4023,10 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="2">
@@ -3963,10 +4045,10 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="10">
-        <f t="shared" si="3"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="11">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="N10" s="1"/>
@@ -3978,10 +4060,10 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="2"/>
@@ -3994,10 +4076,10 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="10">
-        <f t="shared" si="3"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="11">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N11" s="1"/>
@@ -4009,10 +4091,10 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="2">
@@ -4025,10 +4107,10 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="10">
-        <f t="shared" si="3"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="11">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="N12" s="1"/>
@@ -4040,10 +4122,10 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="2">
@@ -4062,10 +4144,10 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="10">
-        <f t="shared" si="3"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="11">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="N13" s="1"/>
@@ -4086,7 +4168,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00400088-001F-4598-9D23-00730045005D}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{007D00A6-001F-4236-8100-009C009E00F8}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -4103,7 +4185,7 @@
           <xm:sqref>C2:K13 M2:T13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0005004B-00CE-4F8D-B096-008B00700069}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00F50083-00FE-4609-9413-004D00510026}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -4120,7 +4202,7 @@
           <xm:sqref>C2:K13 M2:T13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00A200F2-0078-4F50-AFD7-00CA00BE0074}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0081006B-009B-43CE-898C-0082002E000C}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -112,54 +112,6 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={CF87C06E-054A-3430-9690-B2DC92749971}</author>
-  </authors>
-  <commentList>
-    <comment ref="C8" authorId="0" xr:uid="{CF87C06E-054A-3430-9690-B2DC92749971}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>thebandik:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Сдала 1 и 3
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Шнейдер Аркадий:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Сдала 2
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
@@ -407,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,9 +376,6 @@
     <xf fontId="2" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -440,7 +389,7 @@
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -463,8 +412,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Шнейдер Аркадий" id="{99377964-CEFA-1976-2DB5-9E62A4D6108F}" userId="e7f73a7754f73684" providerId="Windows Live"/>
-  <person displayName="thebandik" id="{CF6C1877-E802-422F-AEEB-4D5932F646C4}" userId="thebandik" providerId="Teamlab"/>
+  <person displayName="Шнейдер Аркадий" id="{AE0CC4DA-EBFF-87BE-B690-0D6B728F5E8C}" userId="e7f73a7754f73684" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -960,33 +908,20 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C5" dT="2023-03-02T06:25:52.72Z" personId="{99377964-CEFA-1976-2DB5-9E62A4D6108F}" id="{D15E3129-A587-4B9E-89B2-86A7E0B21694}" done="0">
+  <threadedComment ref="C5" dT="2023-03-02T06:25:52.72Z" personId="{AE0CC4DA-EBFF-87BE-B690-0D6B728F5E8C}" id="{D15E3129-A587-4B9E-89B2-86A7E0B21694}" done="0">
     <text xml:space="preserve">Сдал поезда
 </text>
   </threadedComment>
-  <threadedComment ref="C17" dT="2023-03-02T06:26:08.11Z" personId="{99377964-CEFA-1976-2DB5-9E62A4D6108F}" id="{8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}" done="0">
+  <threadedComment ref="C17" dT="2023-03-02T06:26:08.11Z" personId="{AE0CC4DA-EBFF-87BE-B690-0D6B728F5E8C}" id="{8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}" done="0">
     <text xml:space="preserve">Сдал поезда
 </text>
   </threadedComment>
-  <threadedComment ref="C10" dT="2023-03-12T23:55:08.83Z" personId="{99377964-CEFA-1976-2DB5-9E62A4D6108F}" id="{91DF5CFC-99A4-49CD-9F1E-EFF5F645B674}" done="0">
+  <threadedComment ref="C10" dT="2023-03-12T23:55:08.83Z" personId="{AE0CC4DA-EBFF-87BE-B690-0D6B728F5E8C}" id="{91DF5CFC-99A4-49CD-9F1E-EFF5F645B674}" done="0">
     <text xml:space="preserve">Сдал 1 и 4
 </text>
   </threadedComment>
-  <threadedComment ref="C12" dT="2023-03-02T06:26:04.36Z" personId="{99377964-CEFA-1976-2DB5-9E62A4D6108F}" id="{F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}" done="0">
+  <threadedComment ref="C12" dT="2023-03-02T06:26:04.36Z" personId="{AE0CC4DA-EBFF-87BE-B690-0D6B728F5E8C}" id="{F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}" done="0">
     <text xml:space="preserve">Сдал поезда
-</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C8" dT="2023-01-19T23:46:23.47Z" personId="{CF6C1877-E802-422F-AEEB-4D5932F646C4}" id="{CF87C06E-054A-3430-9690-B2DC92749971}" done="0">
-    <text xml:space="preserve">Сдала 1 и 3
-</text>
-  </threadedComment>
-  <threadedComment ref="C8" dT="2023-03-02T23:55:22.37Z" personId="{99377964-CEFA-1976-2DB5-9E62A4D6108F}" id="{5E69BA66-0A3A-494E-8138-415766AD7FBF}" parentId="{CF87C06E-054A-3430-9690-B2DC92749971}" done="0">
-    <text xml:space="preserve">Сдала 2
 </text>
   </threadedComment>
 </ThreadedComments>
@@ -1062,16 +997,16 @@
       <c r="R1" s="3">
         <v>45012</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="3">
         <v>45015</v>
       </c>
       <c r="T1" s="2"/>
     </row>
     <row r="2" ht="15">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1095,7 +1030,7 @@
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1116,7 +1051,7 @@
       <c r="P2" s="2">
         <v>15</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="7">
         <v>0</v>
       </c>
       <c r="R2" s="2">
@@ -1127,15 +1062,15 @@
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2">
-        <f>SUM(L2:R2)</f>
+        <f t="shared" ref="U2:U9" si="0">SUM(L2:R2)</f>
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1159,7 +1094,7 @@
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1180,7 +1115,7 @@
       <c r="P3" s="2">
         <v>15</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="7">
         <v>10</v>
       </c>
       <c r="R3" s="2">
@@ -1191,15 +1126,15 @@
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2">
-        <f>SUM(L3:R3)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="4" ht="15">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1223,7 +1158,7 @@
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -1244,7 +1179,7 @@
       <c r="P4" s="2">
         <v>15</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <v>-15</v>
       </c>
       <c r="R4" s="2">
@@ -1255,15 +1190,15 @@
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2">
-        <f>SUM(L4:R4)</f>
+        <f t="shared" si="0"/>
         <v>-55</v>
       </c>
     </row>
     <row r="5" ht="15">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1287,7 +1222,7 @@
       <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -1308,7 +1243,7 @@
       <c r="P5" s="2">
         <v>15</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <v>-15</v>
       </c>
       <c r="R5" s="2">
@@ -1319,15 +1254,15 @@
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2">
-        <f>SUM(L5:R5)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
     <row r="6" ht="15">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1351,7 +1286,7 @@
       <c r="I6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1372,7 +1307,7 @@
       <c r="P6" s="2">
         <v>15</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7">
         <v>10</v>
       </c>
       <c r="R6" s="2">
@@ -1383,15 +1318,15 @@
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2">
-        <f>SUM(L6:R6)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
     <row r="7" ht="15">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1415,7 +1350,7 @@
       <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -1436,7 +1371,7 @@
       <c r="P7" s="2">
         <v>15</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="7">
         <v>10</v>
       </c>
       <c r="R7" s="2">
@@ -1447,15 +1382,15 @@
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2">
-        <f>SUM(L7:R7)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
     <row r="8" ht="15">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1479,7 +1414,7 @@
       <c r="I8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -1500,7 +1435,7 @@
       <c r="P8" s="2">
         <v>15</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="7">
         <v>10</v>
       </c>
       <c r="R8" s="2">
@@ -1511,15 +1446,15 @@
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2">
-        <f>SUM(L8:R8)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
     <row r="9" ht="15">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1543,7 +1478,7 @@
       <c r="I9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1564,7 +1499,7 @@
       <c r="P9" s="2">
         <v>15</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="7">
         <v>10</v>
       </c>
       <c r="R9" s="2">
@@ -1575,15 +1510,15 @@
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2">
-        <f>SUM(L9:R9)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1607,7 +1542,7 @@
       <c r="I10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -1628,7 +1563,7 @@
       <c r="P10" s="2">
         <v>15</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="7">
         <v>10</v>
       </c>
       <c r="R10" s="2">
@@ -1639,15 +1574,15 @@
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2">
-        <f>SUM(L10:R10)</f>
+        <f t="shared" ref="U10:U17" si="1">SUM(L10:R10)</f>
         <v>70</v>
       </c>
     </row>
     <row r="11" ht="15">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1671,7 +1606,7 @@
       <c r="I11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -1692,7 +1627,7 @@
       <c r="P11" s="2">
         <v>15</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="7">
         <v>10</v>
       </c>
       <c r="R11" s="2">
@@ -1703,15 +1638,15 @@
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2">
-        <f>SUM(L11:R11)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="12" ht="15">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1735,7 +1670,7 @@
       <c r="I12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1756,7 +1691,7 @@
       <c r="P12" s="2">
         <v>15</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="7">
         <v>10</v>
       </c>
       <c r="R12" s="2">
@@ -1767,15 +1702,15 @@
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2">
-        <f>SUM(L12:R12)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
     <row r="13" ht="15">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1799,7 +1734,7 @@
       <c r="I13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -1820,7 +1755,7 @@
       <c r="P13" s="2">
         <v>15</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="7">
         <v>10</v>
       </c>
       <c r="R13" s="2">
@@ -1831,15 +1766,15 @@
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2">
-        <f>SUM(L13:R13)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="14" ht="15">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1863,7 +1798,7 @@
       <c r="I14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -1884,7 +1819,7 @@
       <c r="P14" s="2">
         <v>15</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="7">
         <v>-15</v>
       </c>
       <c r="R14" s="2">
@@ -1895,15 +1830,15 @@
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2">
-        <f>SUM(L14:R14)</f>
+        <f t="shared" si="1"/>
         <v>-30</v>
       </c>
     </row>
     <row r="15" ht="15">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1927,7 +1862,7 @@
       <c r="I15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -1948,7 +1883,7 @@
       <c r="P15" s="2">
         <v>15</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="7">
         <v>10</v>
       </c>
       <c r="R15" s="2">
@@ -1959,15 +1894,15 @@
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2">
-        <f>SUM(L15:R15)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
     <row r="16" ht="15">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1991,7 +1926,7 @@
       <c r="I16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -2012,7 +1947,7 @@
       <c r="P16" s="2">
         <v>15</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="7">
         <v>10</v>
       </c>
       <c r="R16" s="2">
@@ -2023,15 +1958,15 @@
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2">
-        <f>SUM(L16:R16)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="17" ht="15">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2055,7 +1990,7 @@
       <c r="I17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -2076,7 +2011,7 @@
       <c r="P17" s="2">
         <v>15</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="7">
         <v>10</v>
       </c>
       <c r="R17" s="2">
@@ -2087,7 +2022,7 @@
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2">
-        <f>SUM(L17:R17)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2100,7 +2035,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00FB0082-00E2-4471-A8B3-00B900F7008F}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00B8002D-001D-441C-860C-0043006F0086}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2117,7 +2052,7 @@
           <xm:sqref>C2:R2 T2 C3:R17 T3:T17 U2 U3 U4 U5 U6 U7 U8 U9 U10 U11 U12 U13 U14 U15 U16 U17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00D000CF-00FA-4BF5-A9F6-00FE009700F2}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00FF0087-0075-42AD-BBCB-00FA00600018}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2134,7 +2069,7 @@
           <xm:sqref>C2:R2 T2 C3:R17 T3:T17 U2 U3 U4 U5 U6 U7 U8 U9 U10 U11 U12 U13 U14 U15 U16 U17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00180087-0086-4003-9D40-001200C800C0}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00BF00FB-0076-433B-B509-0008007A00BE}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -2202,13 +2137,13 @@
       <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>31</v>
       </c>
       <c r="N1" s="1"/>
@@ -2219,10 +2154,10 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2">
@@ -2241,10 +2176,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11">
-        <f t="shared" ref="M2:M17" si="0">SUM(C2:L2)</f>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10">
+        <f t="shared" ref="M2:M17" si="2">SUM(C2:L2)</f>
         <v>33</v>
       </c>
       <c r="N2" s="1"/>
@@ -2255,10 +2190,10 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
@@ -2269,10 +2204,10 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11">
-        <f t="shared" si="0"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N3" s="1"/>
@@ -2283,10 +2218,10 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
@@ -2305,10 +2240,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11">
-        <f t="shared" si="0"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="N4" s="1"/>
@@ -2319,10 +2254,10 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2">
@@ -2337,10 +2272,10 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11">
-        <f t="shared" si="0"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="N5" s="1"/>
@@ -2351,10 +2286,10 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2"/>
@@ -2367,10 +2302,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11">
-        <f t="shared" si="0"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="N6" s="1"/>
@@ -2381,10 +2316,10 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2"/>
@@ -2395,10 +2330,10 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11">
-        <f t="shared" si="0"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N7" s="1"/>
@@ -2409,10 +2344,10 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2"/>
@@ -2425,10 +2360,10 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="11">
-        <f t="shared" si="0"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="N8" s="1"/>
@@ -2439,10 +2374,10 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2"/>
@@ -2453,10 +2388,10 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11">
-        <f t="shared" si="0"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9" s="1"/>
@@ -2467,10 +2402,10 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2">
@@ -2485,10 +2420,10 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11">
-        <f t="shared" si="0"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="N10" s="1"/>
@@ -2499,10 +2434,10 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2">
@@ -2519,10 +2454,10 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11">
-        <f t="shared" si="0"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="N11" s="1"/>
@@ -2533,10 +2468,10 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2">
@@ -2551,10 +2486,10 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11">
-        <f t="shared" si="0"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="N12" s="1"/>
@@ -2565,10 +2500,10 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2">
@@ -2587,10 +2522,10 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="11">
-        <f t="shared" si="0"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="N13" s="1"/>
@@ -2601,10 +2536,10 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2"/>
@@ -2617,10 +2552,10 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="11">
-        <f t="shared" si="0"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="10">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="N14" s="1"/>
@@ -2631,10 +2566,10 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2">
@@ -2651,10 +2586,10 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11">
-        <f t="shared" si="0"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="N15" s="1"/>
@@ -2665,10 +2600,10 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2"/>
@@ -2681,10 +2616,10 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11">
-        <f t="shared" si="0"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="N16" s="1"/>
@@ -2695,10 +2630,10 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2">
@@ -2713,10 +2648,10 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11">
-        <f t="shared" si="0"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="10">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="N17" s="1"/>
@@ -2736,7 +2671,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{000F00C1-0052-4283-A01B-00F200B70016}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00CF0015-00C7-4311-B180-005A009A00AE}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2753,7 +2688,7 @@
           <xm:sqref>C2:K17 M2:S17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00340027-0051-424E-8114-00EE007300C4}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{009A0087-0000-487B-B341-00BF005000E3}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2770,7 +2705,7 @@
           <xm:sqref>C2:K17 M2:S17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00C9007A-0018-47B2-863B-002D007000CE}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{009E00A8-0031-4948-A733-006B005F009B}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -2858,17 +2793,19 @@
       <c r="Q1" s="3">
         <v>45002</v>
       </c>
-      <c r="R1" s="6">
+      <c r="R1" s="3">
         <v>45015</v>
       </c>
-      <c r="S1" s="2"/>
+      <c r="S1" s="11">
+        <v>45016</v>
+      </c>
       <c r="T1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2919,14 +2856,19 @@
       <c r="R2" s="2">
         <v>15</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="S2" s="2">
+        <v>10</v>
+      </c>
+      <c r="T2" s="2">
+        <f t="shared" ref="T2:T9" si="3">SUM(K2:S2)</f>
+        <v>80</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2977,14 +2919,19 @@
       <c r="R3" s="2">
         <v>15</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="S3" s="2">
+        <v>10</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -3035,14 +2982,19 @@
       <c r="R4" s="2">
         <v>15</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="S4" s="2">
+        <v>-15</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3093,14 +3045,19 @@
       <c r="R5" s="2">
         <v>-10</v>
       </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="S5" s="2">
+        <v>-15</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="3"/>
+        <v>-95</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3145,20 +3102,25 @@
       <c r="P6" s="2">
         <v>0</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="2">
         <v>0</v>
       </c>
       <c r="R6" s="2">
         <v>15</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="S6" s="2">
+        <v>-15</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3209,14 +3171,19 @@
       <c r="R7" s="2">
         <v>15</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="S7" s="2">
+        <v>10</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3267,14 +3234,19 @@
       <c r="R8" s="2">
         <v>15</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="S8" s="2">
+        <v>10</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3325,14 +3297,19 @@
       <c r="R9" s="2">
         <v>15</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="S9" s="2">
+        <v>10</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3383,14 +3360,19 @@
       <c r="R10" s="2">
         <v>15</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="S10" s="2">
+        <v>10</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" ref="T10:T13" si="4">SUM(K10:S10)</f>
+        <v>95</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3441,14 +3423,19 @@
       <c r="R11" s="2">
         <v>-10</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="S11" s="2">
+        <v>-15</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3499,14 +3486,19 @@
       <c r="R12" s="2">
         <v>15</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="S12" s="2">
+        <v>10</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3557,8 +3549,13 @@
       <c r="R13" s="2">
         <v>15</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="S13" s="2">
+        <v>10</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
     </row>
     <row r="14">
       <c r="C14" s="1"/>
@@ -3649,7 +3646,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0054000B-0060-40F1-83A6-0026000500EB}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00F000F0-005B-414F-9D8E-0075004000D9}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -3663,10 +3660,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C2:T17</xm:sqref>
+          <xm:sqref>C2:T2 C3:S13 C14:T17 T3 T4 T5 T6 T7 T8 T9 T10 T11 T12 T13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00210043-0088-4EC3-81EC-002800EE0008}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00B6007E-00F5-48E7-925F-0059009F00E4}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -3680,10 +3677,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C2:T17</xm:sqref>
+          <xm:sqref>C2:T2 C3:S13 C14:T17 T3 T4 T5 T6 T7 T8 T9 T10 T11 T12 T13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00BE001C-0010-40CF-B4A8-00D200CB00C6}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00AB0092-0069-4B6D-8606-007600DC00C6}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -3697,7 +3694,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C2:T17</xm:sqref>
+          <xm:sqref>C2:T2 C3:S13 C14:T17 T3 T4 T5 T6 T7 T8 T9 T10 T11 T12 T13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3749,13 +3746,13 @@
       <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>31</v>
       </c>
       <c r="N1" s="1"/>
@@ -3767,10 +3764,10 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="2"/>
@@ -3783,10 +3780,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="11">
-        <f t="shared" ref="M2:M13" si="1">SUM(C2:L2)</f>
+      <c r="K2" s="8"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="10">
+        <f t="shared" ref="M2:M13" si="5">SUM(C2:L2)</f>
         <v>10</v>
       </c>
       <c r="N2" s="1"/>
@@ -3798,10 +3795,10 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="2">
@@ -3818,10 +3815,10 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="11">
-        <f t="shared" si="1"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="10">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="N3" s="1"/>
@@ -3833,10 +3830,10 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="2"/>
@@ -3847,10 +3844,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="11">
-        <f t="shared" si="1"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N4" s="1"/>
@@ -3862,10 +3859,10 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="2"/>
@@ -3876,10 +3873,10 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="11">
-        <f t="shared" si="1"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N5" s="1"/>
@@ -3891,10 +3888,10 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="2">
@@ -3909,10 +3906,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="11">
-        <f t="shared" si="1"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="10">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="N6" s="1"/>
@@ -3924,10 +3921,10 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="2">
@@ -3944,10 +3941,10 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="11">
-        <f t="shared" si="1"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="10">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="N7" s="1"/>
@@ -3959,29 +3956,33 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="2">
-        <v>6</v>
+      <c r="C8" s="1">
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="11">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="K8" s="8"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="10">
+        <f t="shared" si="5"/>
+        <v>36</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -3992,10 +3993,10 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="2"/>
@@ -4008,10 +4009,10 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="11">
-        <f t="shared" si="1"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="10">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="N9" s="1"/>
@@ -4023,10 +4024,10 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="2">
@@ -4041,15 +4042,17 @@
       <c r="F10" s="2">
         <v>10</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="11">
-        <f t="shared" si="1"/>
-        <v>40</v>
+      <c r="K10" s="8"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="10">
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -4060,10 +4063,10 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="2"/>
@@ -4076,10 +4079,10 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="11">
-        <f t="shared" si="1"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="10">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="N11" s="1"/>
@@ -4091,10 +4094,10 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="2">
@@ -4107,10 +4110,10 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="11">
-        <f t="shared" si="1"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="10">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="N12" s="1"/>
@@ -4122,10 +4125,10 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="2">
@@ -4144,10 +4147,10 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="11">
-        <f t="shared" si="1"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="10">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="N13" s="1"/>
@@ -4163,12 +4166,11 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{007D00A6-001F-4236-8100-009C009E00F8}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{009F0013-0094-4DC1-A5BA-0091008B00CE}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -4182,10 +4184,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C2:K13 M2:T13</xm:sqref>
+          <xm:sqref>C2:K7 D8:K8 C9:K13 M2:T13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00F50083-00FE-4609-9413-004D00510026}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00F5000A-0049-44C9-8404-005100F5000F}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -4199,10 +4201,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C2:K13 M2:T13</xm:sqref>
+          <xm:sqref>C2:K7 D8:K8 C9:K13 M2:T13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0081006B-009B-43CE-898C-0082002E000C}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00230025-00CF-4BED-A141-00C1009600DF}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -4216,7 +4218,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C2:K13 M2:T13</xm:sqref>
+          <xm:sqref>C2:K7 D8:K8 C9:K13 M2:T13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,20 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/fundamentals-of-object-oriented-programming/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494A375A-37F9-A949-9731-71EADEA89D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId4"/>
-    <sheet name="Успеваемость (Подгруппа 1)" sheetId="2" r:id="rId5"/>
-    <sheet name="Посещаемость (Подгруппа 2)" sheetId="3" r:id="rId6"/>
-    <sheet name="Успеваемость (Подгруппа 2)" sheetId="4" r:id="rId7"/>
+    <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
+    <sheet name="Успеваемость (Подгруппа 1)" sheetId="2" r:id="rId2"/>
+    <sheet name="Посещаемость (Подгруппа 2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Успеваемость (Подгруппа 2)" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={D15E3129-A587-4B9E-89B2-86A7E0B21694}</author>
     <author>tc={91DF5CFC-99A4-49CD-9F1E-EFF5F645B674}</author>
@@ -22,7 +43,7 @@
     <author>tc={8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -37,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="1">
+    <comment ref="C10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="2">
+    <comment ref="C12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="3">
+    <comment ref="C17" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -87,12 +108,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Аркадий Шнейдер</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="44">
   <si>
     <t>№</t>
   </si>
@@ -247,29 +268,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d.m"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -405,106 +415,85 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
       <font>
-        <color rgb="ff000000"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -515,7 +504,18 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="ff000000"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -526,7 +526,18 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="ff000000"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -537,7 +548,18 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="ff000000"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -548,7 +570,18 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="ff000000"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="12"/>
+          <bgColor indexed="15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -559,18 +592,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -579,97 +601,89 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="ffffeb9c"/>
-      <rgbColor rgb="ffffc7ce"/>
-      <rgbColor rgb="ffc6efce"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -795,7 +809,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -804,7 +818,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -813,7 +827,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -887,7 +901,7 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -895,7 +909,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -913,7 +927,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -942,7 +956,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -967,7 +981,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -992,7 +1006,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,7 +1031,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +1056,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1067,7 +1081,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,7 +1106,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1117,7 +1131,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1142,7 +1156,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1155,9 +1169,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1172,7 +1192,7 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1180,7 +1200,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1198,7 +1218,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1223,7 +1243,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1248,7 +1268,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1273,7 +1293,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1298,7 +1318,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1323,7 +1343,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1348,7 +1368,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1373,7 +1393,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1398,7 +1418,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1423,7 +1443,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1436,9 +1456,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1452,7 +1478,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1470,7 +1496,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1499,7 +1525,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,7 +1550,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1549,7 +1575,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1574,7 +1600,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1599,7 +1625,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1624,7 +1650,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1649,7 +1675,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1674,7 +1700,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1699,7 +1725,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1712,38 +1738,46 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C1" xSplit="2" ySplit="0" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="134" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.8516" style="1" customWidth="1"/>
-    <col min="3" max="20" width="9.17188" style="1" customWidth="1"/>
-    <col min="21" max="26" width="8.85156" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="1" customWidth="1"/>
+    <col min="3" max="20" width="9.1640625" style="1" customWidth="1"/>
+    <col min="21" max="27" width="8.83203125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3">
@@ -1807,38 +1841,38 @@
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s" s="9">
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="10">
@@ -1874,42 +1908,42 @@
       <c r="X2" s="12"/>
       <c r="Y2" s="12"/>
       <c r="Z2" s="13">
-        <f>SUM(L2:R2)</f>
+        <f t="shared" ref="Z2:Z17" si="0">SUM(L2:R2)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="K3" t="s" s="9">
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="10">
@@ -1945,42 +1979,42 @@
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="13">
-        <f>SUM(L3:R3)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s" s="9">
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s" s="9">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s" s="9">
+      <c r="F4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s" s="9">
+      <c r="I4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L4" s="10">
@@ -2016,42 +2050,42 @@
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="13">
-        <f>SUM(L4:R4)</f>
+        <f t="shared" si="0"/>
         <v>-55</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="J5" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s" s="9">
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="L5" s="10">
@@ -2087,42 +2121,42 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="13">
-        <f>SUM(L5:R5)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s" s="9">
+      <c r="C6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="10">
@@ -2158,42 +2192,42 @@
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="13">
-        <f>SUM(L6:R6)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="I7" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="K7" t="s" s="9">
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="10">
@@ -2229,42 +2263,42 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="13">
-        <f>SUM(L7:R7)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="J8" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="K8" t="s" s="9">
+      <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="10">
@@ -2300,42 +2334,42 @@
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="13">
-        <f>SUM(L8:R8)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="8">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="J9" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="K9" t="s" s="9">
+      <c r="C9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="10">
@@ -2371,42 +2405,42 @@
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="13">
-        <f>SUM(L9:R9)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="8">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="J10" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="K10" t="s" s="9">
+      <c r="C10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L10" s="10">
@@ -2442,42 +2476,42 @@
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="13">
-        <f>SUM(L10:R10)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="8">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="J11" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="K11" t="s" s="9">
+      <c r="C11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L11" s="10">
@@ -2513,42 +2547,42 @@
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="13">
-        <f>SUM(L11:R11)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="I12" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="J12" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="K12" t="s" s="9">
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="10">
@@ -2584,42 +2618,42 @@
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="13">
-        <f>SUM(L12:R12)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="8">
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H13" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="J13" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="K13" t="s" s="9">
+      <c r="C13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L13" s="10">
@@ -2655,42 +2689,42 @@
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="13">
-        <f>SUM(L13:R13)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="8">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="G14" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="I14" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="J14" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="K14" t="s" s="9">
+      <c r="C14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="10">
@@ -2726,42 +2760,42 @@
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="13">
-        <f>SUM(L14:R14)</f>
+        <f t="shared" si="0"/>
         <v>-30</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="8">
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="J15" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="K15" t="s" s="9">
+      <c r="C15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="10">
@@ -2797,42 +2831,42 @@
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="13">
-        <f>SUM(L15:R15)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="8">
+      <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="I16" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="J16" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="K16" t="s" s="9">
+      <c r="C16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L16" s="10">
@@ -2868,42 +2902,42 @@
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="13">
-        <f>SUM(L16:R16)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="8">
+      <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="G17" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I17" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="J17" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="K17" t="s" s="9">
+      <c r="C17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="10">
@@ -2939,24 +2973,24 @@
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="13">
-        <f>SUM(L17:R17)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:R17 T2:T17 V2:Z17">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.700787" right="0.700787" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.70078700000000005" right="0.70078700000000005" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2964,73 +2998,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85156" style="15" customWidth="1"/>
-    <col min="2" max="2" width="21.8516" style="15" customWidth="1"/>
-    <col min="3" max="11" width="8.85156" style="15" customWidth="1"/>
-    <col min="12" max="12" width="9.85156" style="15" customWidth="1"/>
-    <col min="13" max="19" width="8.85156" style="15" customWidth="1"/>
-    <col min="20" max="16384" width="8.85156" style="15" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="1" customWidth="1"/>
+    <col min="3" max="11" width="8.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
+    <col min="13" max="20" width="8.83203125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="16">
+    <row r="1" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="16">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="16">
+      <c r="C1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s" s="16">
+      <c r="D1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s" s="16">
+      <c r="E1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s" s="16">
+      <c r="F1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s" s="16">
+      <c r="G1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s" s="16">
+      <c r="H1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s" s="16">
+      <c r="I1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s" s="16">
+      <c r="J1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s" s="16">
+      <c r="K1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s" s="9">
+      <c r="L1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s" s="16">
+      <c r="M1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="19">
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="20">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="13">
@@ -3050,23 +3084,23 @@
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="21"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="13">
-        <f>SUM(C2:L2)</f>
+        <f t="shared" ref="M2:M17" si="0">SUM(C2:L2)</f>
         <v>33</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="19">
+      <c r="N2" s="16"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+    </row>
+    <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="20">
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="12"/>
@@ -3078,23 +3112,23 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
-      <c r="L3" s="21"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="13">
-        <f>SUM(C3:L3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="19">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="20">
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+    </row>
+    <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="13">
@@ -3114,23 +3148,23 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="21"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="13">
-        <f>SUM(C4:L4)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="19">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="20">
+      <c r="N4" s="16"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+    </row>
+    <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="13">
@@ -3146,23 +3180,23 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="21"/>
+      <c r="L5" s="20"/>
       <c r="M5" s="13">
-        <f>SUM(C5:L5)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="19">
+      <c r="N5" s="16"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="20">
+      <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="12"/>
@@ -3176,23 +3210,23 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="21"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="13">
-        <f>SUM(C6:L6)</f>
-        <v>10</v>
-      </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+    </row>
+    <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="20">
+      <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="12"/>
@@ -3204,23 +3238,23 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="21"/>
+      <c r="L7" s="20"/>
       <c r="M7" s="13">
-        <f>SUM(C7:L7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="19">
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+    </row>
+    <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="20">
+      <c r="B8" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="12"/>
@@ -3234,23 +3268,23 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="21"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="13">
-        <f>SUM(C8:L8)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="19">
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+    </row>
+    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="20">
+      <c r="B9" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="12"/>
@@ -3262,23 +3296,23 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="21"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="13">
-        <f>SUM(C9:L9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="19">
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+    </row>
+    <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="20">
+      <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="13">
@@ -3294,23 +3328,23 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="21"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="13">
-        <f>SUM(C10:L10)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="19">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="20">
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+    </row>
+    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="13">
@@ -3328,23 +3362,23 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="21"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="13">
-        <f>SUM(C11:L11)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="19">
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+    </row>
+    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="20">
+      <c r="B12" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="13">
@@ -3360,23 +3394,23 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="21"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="13">
-        <f>SUM(C12:L12)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="19">
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+    </row>
+    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="20">
+      <c r="B13" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13">
@@ -3396,23 +3430,23 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="21"/>
+      <c r="L13" s="20"/>
       <c r="M13" s="13">
-        <f>SUM(C13:L13)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="19">
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+    </row>
+    <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="20">
+      <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="12"/>
@@ -3426,23 +3460,23 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="21"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="13">
-        <f>SUM(C14:L14)</f>
-        <v>3</v>
-      </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+    </row>
+    <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="20">
+      <c r="B15" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="13">
@@ -3460,23 +3494,23 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="21"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="13">
-        <f>SUM(C15:L15)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="19">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s" s="20">
+      <c r="N15" s="16"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+    </row>
+    <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="12"/>
@@ -3490,23 +3524,23 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="21"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="13">
-        <f>SUM(C16:L16)</f>
-        <v>10</v>
-      </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+    </row>
+    <row r="17" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="20">
+      <c r="B17" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="13">
@@ -3522,143 +3556,149 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="21"/>
+      <c r="L17" s="20"/>
       <c r="M17" s="13">
-        <f>SUM(C17:L17)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:K17 M2:S17">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.700787" right="0.700787" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.70078700000000005" right="0.70078700000000005" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="135" workbookViewId="0">
+      <pane xSplit="2" ySplit="13" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85156" style="22" customWidth="1"/>
-    <col min="2" max="2" width="20.8516" style="22" customWidth="1"/>
-    <col min="3" max="20" width="8.85156" style="22" customWidth="1"/>
-    <col min="21" max="16384" width="8.85156" style="22" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="21" width="8.83203125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="16">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="16">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23">
+      <c r="C1" s="21">
         <v>44939</v>
       </c>
-      <c r="D1" s="23">
+      <c r="D1" s="21">
         <v>44945</v>
       </c>
-      <c r="E1" s="23">
+      <c r="E1" s="21">
         <v>44946</v>
       </c>
-      <c r="F1" s="23">
+      <c r="F1" s="21">
         <v>44953</v>
       </c>
-      <c r="G1" s="23">
+      <c r="G1" s="21">
         <v>44959</v>
       </c>
-      <c r="H1" s="23">
+      <c r="H1" s="21">
         <v>44960</v>
       </c>
-      <c r="I1" s="23">
+      <c r="I1" s="21">
         <v>44967</v>
       </c>
-      <c r="J1" s="23">
+      <c r="J1" s="21">
         <v>44973</v>
       </c>
-      <c r="K1" s="24">
+      <c r="K1" s="22">
         <v>44974</v>
       </c>
-      <c r="L1" s="23">
+      <c r="L1" s="21">
         <v>44987</v>
       </c>
-      <c r="M1" s="23">
+      <c r="M1" s="21">
         <v>44988</v>
       </c>
-      <c r="N1" s="23">
+      <c r="N1" s="21">
         <v>44995</v>
       </c>
-      <c r="O1" s="23">
+      <c r="O1" s="21">
         <v>44999</v>
       </c>
-      <c r="P1" s="23">
+      <c r="P1" s="21">
         <v>45001</v>
       </c>
-      <c r="Q1" s="23">
+      <c r="Q1" s="21">
         <v>45002</v>
       </c>
-      <c r="R1" s="23">
+      <c r="R1" s="21">
         <v>45015</v>
       </c>
-      <c r="S1" s="23">
+      <c r="S1" s="21">
         <v>45016</v>
       </c>
-      <c r="T1" s="12"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="19">
+      <c r="T1" s="21">
+        <v>45023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="20">
+      <c r="B2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s" s="16">
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="13">
@@ -3689,39 +3729,38 @@
         <v>10</v>
       </c>
       <c r="T2" s="13">
-        <f>SUM(K2:S2)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="20">
+      <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s" s="16">
+      <c r="C3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="13">
@@ -3752,39 +3791,38 @@
         <v>10</v>
       </c>
       <c r="T3" s="13">
-        <f>SUM(K3:S3)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="19">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s" s="16">
+      <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="13">
@@ -3815,39 +3853,38 @@
         <v>-15</v>
       </c>
       <c r="T4" s="13">
-        <f>SUM(K4:S4)</f>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="19">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="20">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="J5" t="s" s="16">
+      <c r="C5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="13">
@@ -3878,39 +3915,38 @@
         <v>-15</v>
       </c>
       <c r="T5" s="13">
-        <f>SUM(K5:S5)</f>
-        <v>-95</v>
-      </c>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="19">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="20">
+      <c r="B6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s" s="16">
+      <c r="C6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="K6" s="13">
@@ -3941,39 +3977,38 @@
         <v>-15</v>
       </c>
       <c r="T6" s="13">
-        <f>SUM(K6:S6)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="20">
+      <c r="B7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s" s="16">
+      <c r="C7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="13">
@@ -4004,39 +4039,38 @@
         <v>10</v>
       </c>
       <c r="T7" s="13">
-        <f>SUM(K7:S7)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="20">
+      <c r="B8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="J8" t="s" s="16">
+      <c r="C8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="13">
@@ -4067,39 +4101,38 @@
         <v>10</v>
       </c>
       <c r="T8" s="13">
-        <f>SUM(K8:S8)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="20">
+      <c r="B9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="J9" t="s" s="16">
+      <c r="C9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="15" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="13">
@@ -4130,39 +4163,38 @@
         <v>10</v>
       </c>
       <c r="T9" s="13">
-        <f>SUM(K9:S9)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="20">
+      <c r="B10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="J10" t="s" s="16">
+      <c r="C10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="15" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="13">
@@ -4193,39 +4225,38 @@
         <v>10</v>
       </c>
       <c r="T10" s="13">
-        <f>SUM(K10:S10)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="19">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="20">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s" s="16">
+      <c r="C11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="K11" s="13">
@@ -4256,39 +4287,38 @@
         <v>-15</v>
       </c>
       <c r="T11" s="13">
-        <f>SUM(K11:S11)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="19">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="20">
+      <c r="B12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="G12" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s" s="16">
+      <c r="C12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J12" t="s" s="16">
+      <c r="J12" s="15" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="13">
@@ -4319,39 +4349,38 @@
         <v>10</v>
       </c>
       <c r="T12" s="13">
-        <f>SUM(K12:S12)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="20">
+      <c r="B13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="H13" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s" s="16">
-        <v>3</v>
-      </c>
-      <c r="J13" t="s" s="16">
+      <c r="C13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="13">
@@ -4382,112 +4411,111 @@
         <v>10</v>
       </c>
       <c r="T13" s="13">
-        <f>SUM(K13:S13)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+    </row>
+    <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+    </row>
+    <row r="16" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:T17">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.700787" right="0.700787" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.70078700000000005" right="0.70078700000000005" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4495,70 +4523,72 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" zoomScale="135" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85156" style="28" customWidth="1"/>
-    <col min="2" max="2" width="20.8516" style="28" customWidth="1"/>
-    <col min="3" max="20" width="8.85156" style="28" customWidth="1"/>
-    <col min="21" max="16384" width="8.85156" style="28" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="21" width="8.83203125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="16">
+    <row r="1" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="16">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="16">
+      <c r="C1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s" s="16">
+      <c r="D1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s" s="16">
+      <c r="E1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s" s="16">
+      <c r="F1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s" s="16">
+      <c r="G1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s" s="16">
+      <c r="H1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s" s="16">
+      <c r="I1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s" s="16">
+      <c r="J1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s" s="16">
+      <c r="K1" s="15" t="s">
         <v>29</v>
       </c>
       <c r="L1" s="12"/>
-      <c r="M1" t="s" s="16">
+      <c r="M1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="19">
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+    </row>
+    <row r="2" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="20">
+      <c r="B2" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="13">
@@ -4578,22 +4608,22 @@
       <c r="K2" s="12"/>
       <c r="L2" s="6"/>
       <c r="M2" s="13">
-        <f>SUM(C2:L2)</f>
+        <f t="shared" ref="M2:M13" si="0">SUM(C2:L2)</f>
         <v>24</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="19">
+      <c r="N2" s="16"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+    </row>
+    <row r="3" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="20">
+      <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="13">
@@ -4617,22 +4647,22 @@
       <c r="K3" s="12"/>
       <c r="L3" s="6"/>
       <c r="M3" s="13">
-        <f>SUM(C3:L3)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="19">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="20">
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+    </row>
+    <row r="4" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="12"/>
@@ -4646,22 +4676,22 @@
       <c r="K4" s="12"/>
       <c r="L4" s="6"/>
       <c r="M4" s="13">
-        <f>SUM(C4:L4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="19">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="20">
+      <c r="N4" s="16"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+    </row>
+    <row r="5" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="12"/>
@@ -4675,22 +4705,22 @@
       <c r="K5" s="12"/>
       <c r="L5" s="6"/>
       <c r="M5" s="13">
-        <f>SUM(C5:L5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="19">
+      <c r="N5" s="16"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+    </row>
+    <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="20">
+      <c r="B6" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="13">
@@ -4708,22 +4738,22 @@
       <c r="K6" s="12"/>
       <c r="L6" s="6"/>
       <c r="M6" s="13">
-        <f>SUM(C6:L6)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="19">
+      <c r="N6" s="16"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+    </row>
+    <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="20">
+      <c r="B7" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="13">
@@ -4737,28 +4767,30 @@
         <v>10</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="H7" s="12">
+        <v>10</v>
+      </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="6"/>
       <c r="M7" s="13">
-        <f>SUM(C7:L7)</f>
-        <v>26</v>
-      </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="19">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+    </row>
+    <row r="8" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="20">
+      <c r="B8" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="13">
@@ -4780,22 +4812,22 @@
       <c r="K8" s="12"/>
       <c r="L8" s="6"/>
       <c r="M8" s="13">
-        <f>SUM(C8:L8)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="19">
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+    </row>
+    <row r="9" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="20">
+      <c r="B9" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="12"/>
@@ -4813,22 +4845,22 @@
       <c r="K9" s="12"/>
       <c r="L9" s="6"/>
       <c r="M9" s="13">
-        <f>SUM(C9:L9)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="19">
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+    </row>
+    <row r="10" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="20">
+      <c r="B10" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="13">
@@ -4852,22 +4884,22 @@
       <c r="K10" s="12"/>
       <c r="L10" s="6"/>
       <c r="M10" s="13">
-        <f>SUM(C10:L10)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="19">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="20">
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+    </row>
+    <row r="11" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="12"/>
@@ -4883,22 +4915,22 @@
       <c r="K11" s="12"/>
       <c r="L11" s="6"/>
       <c r="M11" s="13">
-        <f>SUM(C11:L11)</f>
-        <v>3</v>
-      </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+    </row>
+    <row r="12" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="20">
+      <c r="B12" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="13">
@@ -4914,22 +4946,22 @@
       <c r="K12" s="12"/>
       <c r="L12" s="6"/>
       <c r="M12" s="13">
-        <f>SUM(C12:L12)</f>
-        <v>10</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+    </row>
+    <row r="13" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="20">
+      <c r="B13" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="13">
@@ -4953,35 +4985,34 @@
       <c r="K13" s="12"/>
       <c r="L13" s="6"/>
       <c r="M13" s="13">
-        <f>SUM(C13:L13)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:K7 M2:T13 D8:K8 C9:K13">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal" stopIfTrue="1">
+  <conditionalFormatting sqref="C2:K7 C9:K13 D8:K8 M2:T13">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.700787" right="0.700787" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.70078700000000005" right="0.70078700000000005" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/fundamentals-of-object-oriented-programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494A375A-37F9-A949-9731-71EADEA89D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A598E7-8F52-7443-9408-733F1647498E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="42">
   <si>
     <t>№</t>
   </si>
@@ -199,33 +199,6 @@
     <t>Доп</t>
   </si>
   <si>
-    <t>Doc</t>
-  </si>
-  <si>
-    <t>Enum</t>
-  </si>
-  <si>
-    <t>Regex</t>
-  </si>
-  <si>
-    <t>Threads</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>SQL+PL</t>
-  </si>
-  <si>
-    <t>ORM</t>
-  </si>
-  <si>
-    <t>Проект</t>
-  </si>
-  <si>
-    <t>Тест</t>
-  </si>
-  <si>
     <t>Итог</t>
   </si>
   <si>
@@ -263,6 +236,27 @@
   </si>
   <si>
     <t>Шевцов Никита</t>
+  </si>
+  <si>
+    <t>Проект (20)</t>
+  </si>
+  <si>
+    <t>Threads (15)</t>
+  </si>
+  <si>
+    <t>Regex (15)</t>
+  </si>
+  <si>
+    <t>SQL (10)</t>
+  </si>
+  <si>
+    <t>SQL+PL (14)</t>
+  </si>
+  <si>
+    <t>Doc (13)</t>
+  </si>
+  <si>
+    <t>Enum (13)</t>
   </si>
 </sst>
 </file>
@@ -315,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -370,21 +364,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="16"/>
       </left>
       <right style="thin">
@@ -417,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -447,23 +426,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1760,8 +1740,8 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="134" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U1" sqref="U1"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1834,7 +1814,9 @@
       <c r="T1" s="5">
         <v>45019</v>
       </c>
-      <c r="U1" s="6"/>
+      <c r="U1" s="25">
+        <v>45026</v>
+      </c>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
@@ -1902,7 +1884,9 @@
       <c r="T2" s="10">
         <v>10</v>
       </c>
-      <c r="U2" s="11"/>
+      <c r="U2" s="11">
+        <v>10</v>
+      </c>
       <c r="V2" s="12"/>
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
@@ -1971,9 +1955,11 @@
         <v>-10</v>
       </c>
       <c r="T3" s="10">
+        <v>0</v>
+      </c>
+      <c r="U3" s="14">
         <v>-15</v>
       </c>
-      <c r="U3" s="14"/>
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
       <c r="X3" s="12"/>
@@ -2042,9 +2028,11 @@
         <v>15</v>
       </c>
       <c r="T4" s="10">
-        <v>-15</v>
-      </c>
-      <c r="U4" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="14">
+        <v>10</v>
+      </c>
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
@@ -2115,7 +2103,9 @@
       <c r="T5" s="10">
         <v>10</v>
       </c>
-      <c r="U5" s="14"/>
+      <c r="U5" s="14">
+        <v>10</v>
+      </c>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
@@ -2184,9 +2174,11 @@
         <v>15</v>
       </c>
       <c r="T6" s="10">
-        <v>10</v>
-      </c>
-      <c r="U6" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="14">
+        <v>10</v>
+      </c>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
@@ -2257,7 +2249,9 @@
       <c r="T7" s="10">
         <v>-15</v>
       </c>
-      <c r="U7" s="14"/>
+      <c r="U7" s="14">
+        <v>-15</v>
+      </c>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
@@ -2328,7 +2322,9 @@
       <c r="T8" s="10">
         <v>0</v>
       </c>
-      <c r="U8" s="14"/>
+      <c r="U8" s="14">
+        <v>10</v>
+      </c>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
@@ -2397,9 +2393,11 @@
         <v>15</v>
       </c>
       <c r="T9" s="10">
-        <v>-15</v>
-      </c>
-      <c r="U9" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="14">
+        <v>10</v>
+      </c>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
@@ -2470,7 +2468,9 @@
       <c r="T10" s="10">
         <v>10</v>
       </c>
-      <c r="U10" s="14"/>
+      <c r="U10" s="14">
+        <v>10</v>
+      </c>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
@@ -2541,7 +2541,9 @@
       <c r="T11" s="10">
         <v>-15</v>
       </c>
-      <c r="U11" s="14"/>
+      <c r="U11" s="14">
+        <v>-15</v>
+      </c>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
@@ -2612,7 +2614,9 @@
       <c r="T12" s="10">
         <v>10</v>
       </c>
-      <c r="U12" s="14"/>
+      <c r="U12" s="14">
+        <v>10</v>
+      </c>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
@@ -2683,7 +2687,9 @@
       <c r="T13" s="10">
         <v>10</v>
       </c>
-      <c r="U13" s="14"/>
+      <c r="U13" s="14">
+        <v>10</v>
+      </c>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
@@ -2754,7 +2760,9 @@
       <c r="T14" s="10">
         <v>-15</v>
       </c>
-      <c r="U14" s="14"/>
+      <c r="U14" s="14">
+        <v>-15</v>
+      </c>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
@@ -2825,7 +2833,9 @@
       <c r="T15" s="10">
         <v>0</v>
       </c>
-      <c r="U15" s="14"/>
+      <c r="U15" s="14">
+        <v>10</v>
+      </c>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
@@ -2896,7 +2906,9 @@
       <c r="T16" s="10">
         <v>10</v>
       </c>
-      <c r="U16" s="14"/>
+      <c r="U16" s="14">
+        <v>10</v>
+      </c>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
@@ -2967,7 +2979,9 @@
       <c r="T17" s="10">
         <v>-15</v>
       </c>
-      <c r="U17" s="14"/>
+      <c r="U17" s="14">
+        <v>-15</v>
+      </c>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
@@ -3001,14 +3015,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" style="1" customWidth="1"/>
-    <col min="3" max="11" width="8.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="20" width="8.83203125" style="1" customWidth="1"/>
     <col min="21" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -3024,83 +3046,75 @@
         <v>21</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="13">
         <v>10</v>
       </c>
       <c r="D2" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="13">
-        <f t="shared" ref="M2:M17" si="0">SUM(C2:L2)</f>
-        <v>33</v>
-      </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="K2" s="13">
+        <f>SUM(C2:J2)</f>
+        <v>44</v>
+      </c>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="12"/>
@@ -3111,67 +3125,63 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="13">
-        <f t="shared" si="0"/>
+      <c r="K3" s="13">
+        <f t="shared" ref="K3:K17" si="0">SUM(C3:J3)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="13">
         <v>3</v>
       </c>
       <c r="D4" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="13">
+      <c r="K4" s="13">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
       </c>
       <c r="D5" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -3179,29 +3189,27 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="13">
+      <c r="K5" s="13">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -3209,24 +3217,22 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="13">
+      <c r="K6" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
+        <v>13</v>
+      </c>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
     </row>
     <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="12"/>
@@ -3237,54 +3243,52 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="13">
+      <c r="K7" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
     </row>
     <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="13">
+      <c r="J8" s="12">
+        <v>20</v>
+      </c>
+      <c r="K8" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
+        <v>28</v>
+      </c>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
     </row>
     <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="12"/>
@@ -3295,31 +3299,29 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="13">
+      <c r="K9" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="13">
         <v>6</v>
       </c>
       <c r="D10" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -3327,65 +3329,61 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="13">
+      <c r="K10" s="13">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
     </row>
     <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="13">
         <v>10</v>
       </c>
       <c r="D11" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="13">
+      <c r="K11" s="13">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
+        <v>31</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
     </row>
     <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
       </c>
       <c r="D12" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -3393,65 +3391,61 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="13">
+      <c r="K12" s="13">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
     </row>
     <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D13" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E13" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F13" s="13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="13">
+      <c r="K13" s="13">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -3459,63 +3453,61 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="13">
+      <c r="K14" s="13">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
     </row>
     <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="13">
         <v>10</v>
       </c>
       <c r="D15" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="13">
+      <c r="J15" s="12">
+        <v>20</v>
+      </c>
+      <c r="K15" s="13">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
+        <v>56</v>
+      </c>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
-        <v>15</v>
-      </c>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -3523,31 +3515,29 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="13">
+      <c r="K16" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
+        <v>13</v>
+      </c>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
     </row>
     <row r="17" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="13">
         <v>1</v>
       </c>
       <c r="D17" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -3555,21 +3545,19 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="13">
+      <c r="K17" s="13">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:K17 M2:S17">
+  <conditionalFormatting sqref="N2:S17 C2:K17">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>
@@ -3593,7 +3581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="135" workbookViewId="0">
       <pane xSplit="2" ySplit="13" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
@@ -3615,67 +3603,67 @@
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21">
+      <c r="C1" s="19">
         <v>44939</v>
       </c>
-      <c r="D1" s="21">
+      <c r="D1" s="19">
         <v>44945</v>
       </c>
-      <c r="E1" s="21">
+      <c r="E1" s="19">
         <v>44946</v>
       </c>
-      <c r="F1" s="21">
+      <c r="F1" s="19">
         <v>44953</v>
       </c>
-      <c r="G1" s="21">
+      <c r="G1" s="19">
         <v>44959</v>
       </c>
-      <c r="H1" s="21">
+      <c r="H1" s="19">
         <v>44960</v>
       </c>
-      <c r="I1" s="21">
+      <c r="I1" s="19">
         <v>44967</v>
       </c>
-      <c r="J1" s="21">
+      <c r="J1" s="19">
         <v>44973</v>
       </c>
-      <c r="K1" s="22">
+      <c r="K1" s="20">
         <v>44974</v>
       </c>
-      <c r="L1" s="21">
+      <c r="L1" s="19">
         <v>44987</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="19">
         <v>44988</v>
       </c>
-      <c r="N1" s="21">
+      <c r="N1" s="19">
         <v>44995</v>
       </c>
-      <c r="O1" s="21">
+      <c r="O1" s="19">
         <v>44999</v>
       </c>
-      <c r="P1" s="21">
+      <c r="P1" s="19">
         <v>45001</v>
       </c>
-      <c r="Q1" s="21">
+      <c r="Q1" s="19">
         <v>45002</v>
       </c>
-      <c r="R1" s="21">
+      <c r="R1" s="19">
         <v>45015</v>
       </c>
-      <c r="S1" s="21">
+      <c r="S1" s="19">
         <v>45016</v>
       </c>
-      <c r="T1" s="21">
+      <c r="T1" s="19">
         <v>45023</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>32</v>
+      <c r="B2" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>4</v>
@@ -3733,11 +3721,11 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>33</v>
+      <c r="B3" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>3</v>
@@ -3795,11 +3783,11 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>34</v>
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>4</v>
@@ -3857,11 +3845,11 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>35</v>
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>4</v>
@@ -3919,11 +3907,11 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>36</v>
+      <c r="B6" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>3</v>
@@ -3981,11 +3969,11 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>37</v>
+      <c r="B7" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>3</v>
@@ -4043,11 +4031,11 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>38</v>
+      <c r="B8" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>3</v>
@@ -4105,11 +4093,11 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>39</v>
+      <c r="B9" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>4</v>
@@ -4167,11 +4155,11 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>40</v>
+      <c r="B10" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>3</v>
@@ -4229,11 +4217,11 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>41</v>
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>3</v>
@@ -4291,11 +4279,11 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>42</v>
+      <c r="B12" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>3</v>
@@ -4353,11 +4341,11 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>43</v>
+      <c r="B13" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>3</v>
@@ -4415,92 +4403,92 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
     </row>
     <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
     </row>
     <row r="16" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
     </row>
     <row r="17" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:T17">
@@ -4524,21 +4512,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="135" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" zoomScale="178" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
-    <col min="3" max="21" width="8.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="8.83203125" style="1" customWidth="1"/>
     <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4549,94 +4546,90 @@
         <v>21</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="26"/>
+    </row>
+    <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-    </row>
-    <row r="2" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>32</v>
-      </c>
       <c r="C2" s="13">
         <v>4</v>
       </c>
       <c r="D2" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="13">
-        <f t="shared" ref="M2:M13" si="0">SUM(C2:L2)</f>
+      <c r="K2" s="13">
+        <f>SUM(C2:J2)</f>
+        <v>32</v>
+      </c>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="26"/>
+    </row>
+    <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-    </row>
-    <row r="3" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>33</v>
-      </c>
       <c r="C3" s="13">
         <v>10</v>
       </c>
       <c r="D3" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="13">
@@ -4644,26 +4637,25 @@
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="13">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-    </row>
-    <row r="4" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>34</v>
+      <c r="K3" s="13">
+        <f t="shared" ref="K3:K13" si="0">SUM(C3:J3)</f>
+        <v>54</v>
+      </c>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="26"/>
+    </row>
+    <row r="4" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -4673,26 +4665,25 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="13">
+      <c r="K4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-    </row>
-    <row r="5" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>35</v>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="26"/>
+    </row>
+    <row r="5" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -4702,32 +4693,31 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="13">
+      <c r="K5" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-    </row>
-    <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="26"/>
+    </row>
+    <row r="6" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>36</v>
+      <c r="B6" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="13">
         <v>2</v>
       </c>
       <c r="D6" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -4735,36 +4725,35 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="13">
+      <c r="K6" s="13">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-    </row>
-    <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+        <v>8</v>
+      </c>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="26"/>
+    </row>
+    <row r="7" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>37</v>
+      <c r="B7" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="13">
         <v>10</v>
       </c>
       <c r="D7" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12">
@@ -4772,108 +4761,105 @@
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="13">
+      <c r="K7" s="13">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-    </row>
-    <row r="8" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+        <v>43</v>
+      </c>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="26"/>
+    </row>
+    <row r="8" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>38</v>
+      <c r="B8" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="13">
         <v>10</v>
       </c>
       <c r="D8" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F8" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="13">
+      <c r="K8" s="13">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-    </row>
-    <row r="9" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+        <v>46</v>
+      </c>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="26"/>
+    </row>
+    <row r="9" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>39</v>
+      <c r="B9" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="13">
+      <c r="K9" s="13">
         <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="26"/>
+    </row>
+    <row r="10" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="13">
+        <v>10</v>
+      </c>
+      <c r="D10" s="13">
         <v>13</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-    </row>
-    <row r="10" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="13">
-        <v>10</v>
-      </c>
-      <c r="D10" s="13">
-        <v>10</v>
-      </c>
       <c r="E10" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F10" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G10" s="13">
         <v>15</v>
@@ -4881,30 +4867,29 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="13">
+      <c r="K10" s="13">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-    </row>
-    <row r="11" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="26"/>
+    </row>
+    <row r="11" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -4912,26 +4897,25 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="13">
+      <c r="K11" s="13">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-    </row>
-    <row r="12" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+        <v>6</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="26"/>
+    </row>
+    <row r="12" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>42</v>
+      <c r="B12" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="13">
         <v>10</v>
@@ -4943,38 +4927,37 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="13">
+      <c r="K12" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-    </row>
-    <row r="13" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="26"/>
+    </row>
+    <row r="13" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>43</v>
+      <c r="B13" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="C13" s="13">
         <v>10</v>
       </c>
       <c r="D13" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E13" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F13" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="13">
@@ -4982,22 +4965,31 @@
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="13">
+      <c r="K13" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="26"/>
+    </row>
+    <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:K7 C9:K13 D8:K8 M2:T13">
+  <conditionalFormatting sqref="N2:T13 C2:J7 C9:J13 D8:J8 K2:K13">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/fundamentals-of-object-oriented-programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A598E7-8F52-7443-9408-733F1647498E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858D3877-6DC9-6943-A4D4-B556E7051DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -118,11 +118,19 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>Аркадий Шнейдер:
-2 и 3</t>
+          <t xml:space="preserve">Аркадий Шнейдер:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>2 и 3</t>
         </r>
       </text>
     </comment>
@@ -131,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -258,6 +266,9 @@
   <si>
     <t>Enum (13)</t>
   </si>
+  <si>
+    <t>Рейтинг</t>
+  </si>
 </sst>
 </file>
 
@@ -266,7 +277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -286,6 +297,11 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -309,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -392,11 +408,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -444,6 +514,20 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1739,9 +1823,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="134" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U18" sqref="U18"/>
+    <sheetView showGridLines="0" zoomScale="220" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1817,7 +1901,9 @@
       <c r="U1" s="25">
         <v>45026</v>
       </c>
-      <c r="V1" s="6"/>
+      <c r="V1" s="25">
+        <v>45029</v>
+      </c>
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
@@ -1887,13 +1973,15 @@
       <c r="U2" s="11">
         <v>10</v>
       </c>
-      <c r="V2" s="12"/>
+      <c r="V2" s="12">
+        <v>15</v>
+      </c>
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
       <c r="Y2" s="12"/>
       <c r="Z2" s="13">
-        <f t="shared" ref="Z2:Z17" si="0">SUM(L2:R2)</f>
-        <v>20</v>
+        <f>SUM(L2:Y2)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1960,13 +2048,15 @@
       <c r="U3" s="14">
         <v>-15</v>
       </c>
-      <c r="V3" s="12"/>
+      <c r="V3" s="12">
+        <v>-10</v>
+      </c>
       <c r="W3" s="12"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="13">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f t="shared" ref="Z3:Z17" si="0">SUM(L3:Y3)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2033,13 +2123,15 @@
       <c r="U4" s="14">
         <v>10</v>
       </c>
-      <c r="V4" s="12"/>
+      <c r="V4" s="12">
+        <v>15</v>
+      </c>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="13">
         <f t="shared" si="0"/>
-        <v>-55</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2106,13 +2198,15 @@
       <c r="U5" s="14">
         <v>10</v>
       </c>
-      <c r="V5" s="12"/>
+      <c r="V5" s="12">
+        <v>15</v>
+      </c>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="13">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2179,13 +2273,15 @@
       <c r="U6" s="14">
         <v>10</v>
       </c>
-      <c r="V6" s="12"/>
+      <c r="V6" s="12">
+        <v>15</v>
+      </c>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="13">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2252,13 +2348,15 @@
       <c r="U7" s="14">
         <v>-15</v>
       </c>
-      <c r="V7" s="12"/>
+      <c r="V7" s="12">
+        <v>-10</v>
+      </c>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="13">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2325,13 +2423,15 @@
       <c r="U8" s="14">
         <v>10</v>
       </c>
-      <c r="V8" s="12"/>
+      <c r="V8" s="12">
+        <v>15</v>
+      </c>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="13">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2398,13 +2498,15 @@
       <c r="U9" s="14">
         <v>10</v>
       </c>
-      <c r="V9" s="12"/>
+      <c r="V9" s="12">
+        <v>15</v>
+      </c>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="13">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2471,13 +2573,15 @@
       <c r="U10" s="14">
         <v>10</v>
       </c>
-      <c r="V10" s="12"/>
+      <c r="V10" s="12">
+        <v>15</v>
+      </c>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="13">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2544,13 +2648,15 @@
       <c r="U11" s="14">
         <v>-15</v>
       </c>
-      <c r="V11" s="12"/>
+      <c r="V11" s="12">
+        <v>-10</v>
+      </c>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2617,13 +2723,15 @@
       <c r="U12" s="14">
         <v>10</v>
       </c>
-      <c r="V12" s="12"/>
+      <c r="V12" s="12">
+        <v>15</v>
+      </c>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="13">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2690,13 +2798,15 @@
       <c r="U13" s="14">
         <v>10</v>
       </c>
-      <c r="V13" s="12"/>
+      <c r="V13" s="12">
+        <v>15</v>
+      </c>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="13">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2763,13 +2873,15 @@
       <c r="U14" s="14">
         <v>-15</v>
       </c>
-      <c r="V14" s="12"/>
+      <c r="V14" s="12">
+        <v>-10</v>
+      </c>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="13">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2836,13 +2948,15 @@
       <c r="U15" s="14">
         <v>10</v>
       </c>
-      <c r="V15" s="12"/>
+      <c r="V15" s="12">
+        <v>15</v>
+      </c>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="13">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2909,13 +3023,15 @@
       <c r="U16" s="14">
         <v>10</v>
       </c>
-      <c r="V16" s="12"/>
+      <c r="V16" s="12">
+        <v>15</v>
+      </c>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="13">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2982,13 +3098,15 @@
       <c r="U17" s="14">
         <v>-15</v>
       </c>
-      <c r="V17" s="12"/>
+      <c r="V17" s="12">
+        <v>-10</v>
+      </c>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-20</v>
       </c>
     </row>
   </sheetData>
@@ -3015,8 +3133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3291,7 +3409,9 @@
       <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12">
+        <v>6</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -3301,7 +3421,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
@@ -3358,12 +3478,14 @@
         <v>15</v>
       </c>
       <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="H11" s="12">
+        <v>10</v>
+      </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="13">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
@@ -3385,7 +3507,9 @@
       <c r="D12" s="13">
         <v>13</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12">
+        <v>10</v>
+      </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -3393,7 +3517,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="13">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -3539,7 +3663,9 @@
       <c r="D17" s="13">
         <v>13</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="12">
+        <v>10</v>
+      </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -3547,7 +3673,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="13">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
@@ -3557,7 +3683,7 @@
       <c r="S17" s="24"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N2:S17 C2:K17">
+  <conditionalFormatting sqref="C2:K17 N2:S17">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>
@@ -3579,13 +3705,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="135" workbookViewId="0">
-      <pane xSplit="2" ySplit="13" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="233" workbookViewId="0">
+      <pane xSplit="2" ySplit="13" topLeftCell="T14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3596,7 +3722,7 @@
     <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -3654,11 +3780,23 @@
       <c r="S1" s="19">
         <v>45016</v>
       </c>
-      <c r="T1" s="19">
+      <c r="T1" s="27">
         <v>45023</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="31">
+        <v>45029</v>
+      </c>
+      <c r="V1" s="31">
+        <v>45030</v>
+      </c>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="32"/>
+    </row>
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3716,11 +3854,24 @@
       <c r="S2" s="13">
         <v>10</v>
       </c>
-      <c r="T2" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T2" s="28">
+        <v>10</v>
+      </c>
+      <c r="U2" s="32">
+        <v>15</v>
+      </c>
+      <c r="V2" s="32">
+        <v>10</v>
+      </c>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32">
+        <f>SUM(K2:X2)</f>
+        <v>115</v>
+      </c>
+      <c r="Z2" s="32"/>
+    </row>
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -3778,11 +3929,24 @@
       <c r="S3" s="13">
         <v>10</v>
       </c>
-      <c r="T3" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T3" s="28">
+        <v>10</v>
+      </c>
+      <c r="U3" s="32">
+        <v>15</v>
+      </c>
+      <c r="V3" s="32">
+        <v>10</v>
+      </c>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32">
+        <f t="shared" ref="Y3:Y13" si="0">SUM(K3:X3)</f>
+        <v>140</v>
+      </c>
+      <c r="Z3" s="32"/>
+    </row>
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -3840,11 +4004,24 @@
       <c r="S4" s="13">
         <v>-15</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="28">
         <v>-15</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U4" s="32">
+        <v>15</v>
+      </c>
+      <c r="V4" s="32">
+        <v>-15</v>
+      </c>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32">
+        <f t="shared" si="0"/>
+        <v>-35</v>
+      </c>
+      <c r="Z4" s="32"/>
+    </row>
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -3876,19 +4053,19 @@
         <v>4</v>
       </c>
       <c r="K5" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L5" s="13">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="M5" s="13">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="N5" s="13">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="O5" s="13">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P5" s="13">
         <v>-10</v>
@@ -3902,11 +4079,24 @@
       <c r="S5" s="13">
         <v>-15</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="28">
         <v>-15</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U5" s="32">
+        <v>15</v>
+      </c>
+      <c r="V5" s="32">
+        <v>-15</v>
+      </c>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32">
+        <f t="shared" si="0"/>
+        <v>-65</v>
+      </c>
+      <c r="Z5" s="32"/>
+    </row>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -3964,11 +4154,24 @@
       <c r="S6" s="13">
         <v>-15</v>
       </c>
-      <c r="T6" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="28">
+        <v>10</v>
+      </c>
+      <c r="U6" s="32">
+        <v>15</v>
+      </c>
+      <c r="V6" s="32">
+        <v>10</v>
+      </c>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="Z6" s="32"/>
+    </row>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -4026,11 +4229,24 @@
       <c r="S7" s="13">
         <v>10</v>
       </c>
-      <c r="T7" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T7" s="28">
+        <v>10</v>
+      </c>
+      <c r="U7" s="32">
+        <v>15</v>
+      </c>
+      <c r="V7" s="32">
+        <v>10</v>
+      </c>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="Z7" s="32"/>
+    </row>
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -4088,11 +4304,24 @@
       <c r="S8" s="13">
         <v>10</v>
       </c>
-      <c r="T8" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T8" s="28">
+        <v>10</v>
+      </c>
+      <c r="U8" s="32">
+        <v>15</v>
+      </c>
+      <c r="V8" s="32">
+        <v>10</v>
+      </c>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="Z8" s="32"/>
+    </row>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -4150,11 +4379,24 @@
       <c r="S9" s="13">
         <v>10</v>
       </c>
-      <c r="T9" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T9" s="28">
+        <v>10</v>
+      </c>
+      <c r="U9" s="32">
+        <v>15</v>
+      </c>
+      <c r="V9" s="32">
+        <v>-15</v>
+      </c>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="Z9" s="32"/>
+    </row>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -4212,11 +4454,24 @@
       <c r="S10" s="13">
         <v>10</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="28">
         <v>-15</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U10" s="32">
+        <v>-10</v>
+      </c>
+      <c r="V10" s="32">
+        <v>10</v>
+      </c>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="Z10" s="32"/>
+    </row>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -4274,11 +4529,24 @@
       <c r="S11" s="13">
         <v>-15</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="28">
         <v>-15</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U11" s="32">
+        <v>15</v>
+      </c>
+      <c r="V11" s="32">
+        <v>10</v>
+      </c>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="Z11" s="32"/>
+    </row>
+    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -4336,11 +4604,24 @@
       <c r="S12" s="13">
         <v>10</v>
       </c>
-      <c r="T12" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T12" s="28">
+        <v>10</v>
+      </c>
+      <c r="U12" s="32">
+        <v>15</v>
+      </c>
+      <c r="V12" s="32">
+        <v>-15</v>
+      </c>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="Z12" s="32"/>
+    </row>
+    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -4398,11 +4679,24 @@
       <c r="S13" s="13">
         <v>10</v>
       </c>
-      <c r="T13" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T13" s="28">
+        <v>10</v>
+      </c>
+      <c r="U13" s="32">
+        <v>15</v>
+      </c>
+      <c r="V13" s="32">
+        <v>10</v>
+      </c>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="Z13" s="32"/>
+    </row>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
@@ -4422,9 +4716,15 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-    </row>
-    <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T14" s="29"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+    </row>
+    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="16"/>
@@ -4444,9 +4744,15 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-    </row>
-    <row r="16" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T15" s="30"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+    </row>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="16"/>
@@ -4466,9 +4772,15 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-    </row>
-    <row r="17" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T16" s="30"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+    </row>
+    <row r="17" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="16"/>
@@ -4488,7 +4800,13 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:T17">
@@ -4514,8 +4832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="178" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="207" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4751,7 +5069,9 @@
       <c r="D7" s="13">
         <v>8</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="12">
+        <v>13</v>
+      </c>
       <c r="F7" s="13">
         <v>15</v>
       </c>
@@ -4763,7 +5083,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="13">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N7" s="24"/>
       <c r="O7" s="24"/>
@@ -4864,12 +5184,14 @@
       <c r="G10" s="13">
         <v>15</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="12">
+        <v>10</v>
+      </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="13">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
@@ -4921,7 +5243,9 @@
         <v>10</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12">
+        <v>13</v>
+      </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -4929,7 +5253,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -4989,7 +5313,7 @@
       <c r="U14" s="26"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N2:T13 C2:J7 C9:J13 D8:J8 K2:K13">
+  <conditionalFormatting sqref="C2:J7 K2:K13 N2:T13 D8:J8 C9:J13">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/fundamentals-of-object-oriented-programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858D3877-6DC9-6943-A4D4-B556E7051DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7421431E-FE3B-FD42-9B23-D6C79C6931C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -63,12 +63,28 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
           <t xml:space="preserve">tc={91DF5CFC-99A4-49CD-9F1E-EFF5F645B674}:
-Шнейдер Аркадий:
-Сдал 1 и 4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">Шнейдер Аркадий:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">Сдал 1 и 4
 </t>
         </r>
       </text>
@@ -78,12 +94,28 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
           <t xml:space="preserve">tc={F3D6FA64-6673-4EE9-8B08-6A7BDBB0086A}:
-Шнейдер Аркадий:
-Сдал поезда
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">Шнейдер Аркадий:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">Сдал поезда
 </t>
         </r>
       </text>
@@ -93,12 +125,28 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
           <t xml:space="preserve">tc={8DEAE9F7-17DC-4720-BA7C-870D208CBCF1}:
-Шнейдер Аркадий:
-Сдал поезда
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">Шнейдер Аркадий:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">Сдал поезда
 </t>
         </r>
       </text>
@@ -3133,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3332,12 +3380,14 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="H6" s="12">
+        <v>10</v>
+      </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="13">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
@@ -3410,7 +3460,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -3421,7 +3471,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
@@ -3502,7 +3552,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12" s="13">
         <v>13</v>
@@ -3517,7 +3567,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="13">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -3658,7 +3708,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" s="13">
         <v>13</v>
@@ -3673,7 +3723,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="13">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
@@ -4832,8 +4882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="207" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" zoomScale="207" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5216,12 +5266,14 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="H11" s="12">
+        <v>9</v>
+      </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/fundamentals-of-object-oriented-programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7421431E-FE3B-FD42-9B23-D6C79C6931C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9162D46A-5028-5943-88F3-D13374B6A209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (Подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -3181,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3262,12 +3262,14 @@
         <v>15</v>
       </c>
       <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="12">
+        <v>10</v>
+      </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="13">
         <f>SUM(C2:J2)</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="N2" s="24"/>
       <c r="O2" s="24"/>
@@ -3527,7 +3529,9 @@
       <c r="F11" s="13">
         <v>15</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="12">
+        <v>15</v>
+      </c>
       <c r="H11" s="12">
         <v>10</v>
       </c>
@@ -3535,7 +3539,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="13">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
@@ -3596,12 +3600,14 @@
         <v>15</v>
       </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12">
+        <v>10</v>
+      </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="13">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
@@ -3761,7 +3767,7 @@
       <pane xSplit="2" ySplit="13" topLeftCell="T14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomRight" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3839,7 +3845,9 @@
       <c r="V1" s="31">
         <v>45030</v>
       </c>
-      <c r="W1" s="32"/>
+      <c r="W1" s="31">
+        <v>45037</v>
+      </c>
       <c r="X1" s="32"/>
       <c r="Y1" s="32" t="s">
         <v>42</v>
@@ -3913,11 +3921,13 @@
       <c r="V2" s="32">
         <v>10</v>
       </c>
-      <c r="W2" s="32"/>
+      <c r="W2" s="32">
+        <v>10</v>
+      </c>
       <c r="X2" s="32"/>
       <c r="Y2" s="32">
         <f>SUM(K2:X2)</f>
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="Z2" s="32"/>
     </row>
@@ -3988,11 +3998,13 @@
       <c r="V3" s="32">
         <v>10</v>
       </c>
-      <c r="W3" s="32"/>
+      <c r="W3" s="32">
+        <v>10</v>
+      </c>
       <c r="X3" s="32"/>
       <c r="Y3" s="32">
         <f t="shared" ref="Y3:Y13" si="0">SUM(K3:X3)</f>
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Z3" s="32"/>
     </row>
@@ -4063,11 +4075,13 @@
       <c r="V4" s="32">
         <v>-15</v>
       </c>
-      <c r="W4" s="32"/>
+      <c r="W4" s="32">
+        <v>-15</v>
+      </c>
       <c r="X4" s="32"/>
       <c r="Y4" s="32">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-50</v>
       </c>
       <c r="Z4" s="32"/>
     </row>
@@ -4138,11 +4152,13 @@
       <c r="V5" s="32">
         <v>-15</v>
       </c>
-      <c r="W5" s="32"/>
+      <c r="W5" s="32">
+        <v>-15</v>
+      </c>
       <c r="X5" s="32"/>
       <c r="Y5" s="32">
         <f t="shared" si="0"/>
-        <v>-65</v>
+        <v>-80</v>
       </c>
       <c r="Z5" s="32"/>
     </row>
@@ -4213,11 +4229,13 @@
       <c r="V6" s="32">
         <v>10</v>
       </c>
-      <c r="W6" s="32"/>
+      <c r="W6" s="32">
+        <v>10</v>
+      </c>
       <c r="X6" s="32"/>
       <c r="Y6" s="32">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="32"/>
     </row>
@@ -4288,11 +4306,13 @@
       <c r="V7" s="32">
         <v>10</v>
       </c>
-      <c r="W7" s="32"/>
+      <c r="W7" s="32">
+        <v>10</v>
+      </c>
       <c r="X7" s="32"/>
       <c r="Y7" s="32">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Z7" s="32"/>
     </row>
@@ -4363,11 +4383,13 @@
       <c r="V8" s="32">
         <v>10</v>
       </c>
-      <c r="W8" s="32"/>
+      <c r="W8" s="32">
+        <v>10</v>
+      </c>
       <c r="X8" s="32"/>
       <c r="Y8" s="32">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Z8" s="32"/>
     </row>
@@ -4438,11 +4460,13 @@
       <c r="V9" s="32">
         <v>-15</v>
       </c>
-      <c r="W9" s="32"/>
+      <c r="W9" s="32">
+        <v>10</v>
+      </c>
       <c r="X9" s="32"/>
       <c r="Y9" s="32">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Z9" s="32"/>
     </row>
@@ -4513,11 +4537,13 @@
       <c r="V10" s="32">
         <v>10</v>
       </c>
-      <c r="W10" s="32"/>
+      <c r="W10" s="32">
+        <v>10</v>
+      </c>
       <c r="X10" s="32"/>
       <c r="Y10" s="32">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Z10" s="32"/>
     </row>
@@ -4588,11 +4614,13 @@
       <c r="V11" s="32">
         <v>10</v>
       </c>
-      <c r="W11" s="32"/>
+      <c r="W11" s="32">
+        <v>-15</v>
+      </c>
       <c r="X11" s="32"/>
       <c r="Y11" s="32">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="Z11" s="32"/>
     </row>
@@ -4663,11 +4691,13 @@
       <c r="V12" s="32">
         <v>-15</v>
       </c>
-      <c r="W12" s="32"/>
+      <c r="W12" s="32">
+        <v>-15</v>
+      </c>
       <c r="X12" s="32"/>
       <c r="Y12" s="32">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Z12" s="32"/>
     </row>
@@ -4738,11 +4768,13 @@
       <c r="V13" s="32">
         <v>10</v>
       </c>
-      <c r="W13" s="32"/>
+      <c r="W13" s="32">
+        <v>10</v>
+      </c>
       <c r="X13" s="32"/>
       <c r="Y13" s="32">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Z13" s="32"/>
     </row>
@@ -4882,8 +4914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="207" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="207" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5003,11 +5035,13 @@
       <c r="H3" s="13">
         <v>10</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="12">
+        <v>14</v>
+      </c>
       <c r="J3" s="12"/>
       <c r="K3" s="13">
         <f t="shared" ref="K3:K13" si="0">SUM(C3:J3)</f>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="N3" s="24"/>
       <c r="O3" s="24"/>
@@ -5237,11 +5271,13 @@
       <c r="H10" s="12">
         <v>10</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="12">
+        <v>14</v>
+      </c>
       <c r="J10" s="12"/>
       <c r="K10" s="13">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
@@ -5298,14 +5334,18 @@
       <c r="E12" s="12">
         <v>13</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="12">
+        <v>15</v>
+      </c>
       <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12">
+        <v>10</v>
+      </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="13">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -5339,11 +5379,13 @@
       <c r="H13" s="13">
         <v>10</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="12">
+        <v>14</v>
+      </c>
       <c r="J13" s="12"/>
       <c r="K13" s="13">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>

--- a/Успеваемость_СО-ИС-20-1.xlsx
+++ b/Успеваемость_СО-ИС-20-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/fundamentals-of-object-oriented-programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9162D46A-5028-5943-88F3-D13374B6A209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F653613F-DA40-2A47-B569-216C48071A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4915,7 +4915,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="207" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5163,11 +5163,13 @@
       <c r="H7" s="12">
         <v>10</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="12">
+        <v>14</v>
+      </c>
       <c r="J7" s="12"/>
       <c r="K7" s="13">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N7" s="24"/>
       <c r="O7" s="24"/>
@@ -5198,12 +5200,14 @@
         <v>15</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="12">
+        <v>10</v>
+      </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="13">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
